--- a/QNIA/output/QNIA_databaseNEW.xlsx
+++ b/QNIA/output/QNIA_databaseNEW.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,21 +431,6 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>data013</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>data014</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>data015</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>data016</t>
         </is>
       </c>
     </row>
@@ -466,9 +451,6 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -487,9 +469,6 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -508,9 +487,6 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -529,9 +505,6 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -550,9 +523,6 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -571,9 +541,6 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -592,9 +559,6 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -613,9 +577,6 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -634,9 +595,6 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -655,9 +613,6 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -676,9 +631,6 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -697,9 +649,6 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -718,9 +667,6 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -739,9 +685,6 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -760,9 +703,6 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -781,9 +721,6 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -802,9 +739,6 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -823,9 +757,6 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -844,9 +775,6 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -865,9 +793,6 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -886,9 +811,6 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -907,9 +829,6 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -928,9 +847,6 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -949,9 +865,6 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -970,9 +883,6 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -991,9 +901,6 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1012,9 +919,6 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1033,9 +937,6 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1054,9 +955,6 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1075,9 +973,6 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1096,9 +991,6 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1117,9 +1009,6 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1138,9 +1027,6 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1159,9 +1045,6 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1180,9 +1063,6 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1201,9 +1081,6 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1222,9 +1099,6 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1243,9 +1117,6 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1264,9 +1135,6 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1285,9 +1153,6 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1306,9 +1171,6 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1327,9 +1189,6 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1348,9 +1207,6 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1369,9 +1225,6 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1390,9 +1243,6 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1411,15 +1261,14 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>1657501</v>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
@@ -1432,15 +1281,14 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>1767223</v>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
@@ -1453,818 +1301,797 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>1906773</v>
+      </c>
+      <c r="C50" t="n">
+        <v>594</v>
+      </c>
+      <c r="D50" t="n">
+        <v>633405.3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>23446.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>1021.4</v>
+        <v>82618.10000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>1021.4</v>
+        <v>8471.299999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1447.8</v>
+        <v>3078.5</v>
       </c>
       <c r="I50" t="n">
-        <v>1447.8</v>
+        <v>6859</v>
       </c>
       <c r="J50" t="n">
-        <v>4396</v>
+        <v>52187.6</v>
       </c>
       <c r="K50" t="n">
-        <v>4396</v>
+        <v>37824.8</v>
       </c>
       <c r="L50" t="n">
-        <v>9119.9</v>
+        <v>1190.1</v>
       </c>
       <c r="M50" t="n">
-        <v>9119.9</v>
+        <v>220147.8</v>
       </c>
       <c r="N50" t="n">
-        <v>4709.2</v>
-      </c>
-      <c r="O50" t="n">
-        <v>4709.2</v>
-      </c>
-      <c r="P50" t="n">
-        <v>11522.1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>11522.1</v>
+        <v>-13003</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>1956434</v>
+      </c>
+      <c r="C51" t="n">
+        <v>386.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>666921.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25379.3</v>
+      </c>
       <c r="F51" t="n">
-        <v>1155.8</v>
+        <v>92920</v>
       </c>
       <c r="G51" t="n">
-        <v>1155.8</v>
+        <v>20654.1</v>
       </c>
       <c r="H51" t="n">
-        <v>1612.4</v>
+        <v>3538.1</v>
       </c>
       <c r="I51" t="n">
-        <v>1612.4</v>
+        <v>7723.6</v>
       </c>
       <c r="J51" t="n">
-        <v>4826.4</v>
+        <v>78421.8</v>
       </c>
       <c r="K51" t="n">
-        <v>4826.4</v>
+        <v>49650.4</v>
       </c>
       <c r="L51" t="n">
-        <v>9913.6</v>
+        <v>1676.7</v>
       </c>
       <c r="M51" t="n">
-        <v>9913.6</v>
+        <v>259641.3</v>
       </c>
       <c r="N51" t="n">
-        <v>5213.2</v>
-      </c>
-      <c r="O51" t="n">
-        <v>5213.2</v>
-      </c>
-      <c r="P51" t="n">
-        <v>12119.4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>12119.4</v>
+        <v>-4098.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>2047269</v>
+      </c>
+      <c r="C52" t="n">
+        <v>656.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>709595.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24151.8</v>
+      </c>
       <c r="F52" t="n">
-        <v>1267.2</v>
+        <v>121968.4</v>
       </c>
       <c r="G52" t="n">
-        <v>1267.2</v>
+        <v>23532.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1692.5</v>
+        <v>2739.2</v>
       </c>
       <c r="I52" t="n">
-        <v>1692.5</v>
+        <v>5955.1</v>
       </c>
       <c r="J52" t="n">
-        <v>5325.3</v>
+        <v>87093.3</v>
       </c>
       <c r="K52" t="n">
-        <v>5325.3</v>
+        <v>57072.7</v>
       </c>
       <c r="L52" t="n">
-        <v>10689.6</v>
+        <v>1274.5</v>
       </c>
       <c r="M52" t="n">
-        <v>10689.6</v>
+        <v>288820</v>
       </c>
       <c r="N52" t="n">
-        <v>5515.5</v>
-      </c>
-      <c r="O52" t="n">
-        <v>5515.5</v>
-      </c>
-      <c r="P52" t="n">
-        <v>12714.6</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>12714.6</v>
+        <v>-369.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>2152905</v>
+      </c>
+      <c r="C53" t="n">
+        <v>767.7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>795238.1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>30236.5</v>
+      </c>
       <c r="F53" t="n">
-        <v>1350.6</v>
+        <v>166955.9</v>
       </c>
       <c r="G53" t="n">
-        <v>1350.6</v>
+        <v>41947.8</v>
       </c>
       <c r="H53" t="n">
-        <v>1728.5</v>
+        <v>4085.7</v>
       </c>
       <c r="I53" t="n">
-        <v>1728.5</v>
+        <v>8975.700000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>5867.1</v>
+        <v>121056.8</v>
       </c>
       <c r="K53" t="n">
-        <v>5867.1</v>
+        <v>67208.60000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>11228.1</v>
+        <v>2539.4</v>
       </c>
       <c r="M53" t="n">
-        <v>11228.1</v>
+        <v>379207.4</v>
       </c>
       <c r="N53" t="n">
-        <v>6010.8</v>
-      </c>
-      <c r="O53" t="n">
-        <v>6010.8</v>
-      </c>
-      <c r="P53" t="n">
-        <v>13276.4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>13276.4</v>
+        <v>15783.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>2264494</v>
+      </c>
+      <c r="C54" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>853747.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>32064</v>
+      </c>
       <c r="F54" t="n">
-        <v>1397.2</v>
+        <v>167372.5</v>
       </c>
       <c r="G54" t="n">
-        <v>1397.2</v>
+        <v>22201.7</v>
       </c>
       <c r="H54" t="n">
-        <v>1650</v>
+        <v>5478.9</v>
       </c>
       <c r="I54" t="n">
-        <v>1650</v>
+        <v>11916.1</v>
       </c>
       <c r="J54" t="n">
-        <v>6482.9</v>
+        <v>107742.6</v>
       </c>
       <c r="K54" t="n">
-        <v>6482.9</v>
+        <v>74347.10000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>11404</v>
+        <v>2863.3</v>
       </c>
       <c r="M54" t="n">
-        <v>11404</v>
+        <v>364831.6</v>
       </c>
       <c r="N54" t="n">
-        <v>6554.6</v>
-      </c>
-      <c r="O54" t="n">
-        <v>6554.6</v>
-      </c>
-      <c r="P54" t="n">
-        <v>13262.7</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>13262.7</v>
+        <v>15481.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>2408151</v>
+      </c>
+      <c r="C55" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>887257.9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>35383.2</v>
+      </c>
       <c r="F55" t="n">
-        <v>1453.8</v>
+        <v>168062.1</v>
       </c>
       <c r="G55" t="n">
-        <v>1453.8</v>
+        <v>45038</v>
       </c>
       <c r="H55" t="n">
-        <v>1652.5</v>
+        <v>5997.5</v>
       </c>
       <c r="I55" t="n">
-        <v>1652.5</v>
+        <v>13099.5</v>
       </c>
       <c r="J55" t="n">
-        <v>7268.7</v>
+        <v>136872.4</v>
       </c>
       <c r="K55" t="n">
-        <v>7268.7</v>
+        <v>76068.7</v>
       </c>
       <c r="L55" t="n">
-        <v>11667.1</v>
+        <v>1912.7</v>
       </c>
       <c r="M55" t="n">
-        <v>11667.1</v>
+        <v>412553.2</v>
       </c>
       <c r="N55" t="n">
-        <v>7370.2</v>
-      </c>
-      <c r="O55" t="n">
-        <v>7370.2</v>
-      </c>
-      <c r="P55" t="n">
-        <v>13952.5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>13952.5</v>
+        <v>19215.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>2503731</v>
+      </c>
+      <c r="C56" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>860773.4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>36685.6</v>
+      </c>
       <c r="F56" t="n">
-        <v>1537.8</v>
+        <v>167110</v>
       </c>
       <c r="G56" t="n">
-        <v>1537.8</v>
+        <v>32666</v>
       </c>
       <c r="H56" t="n">
-        <v>1724.2</v>
+        <v>5884.9</v>
       </c>
       <c r="I56" t="n">
-        <v>1724.2</v>
+        <v>10887.3</v>
       </c>
       <c r="J56" t="n">
-        <v>8048.3</v>
+        <v>114978.6</v>
       </c>
       <c r="K56" t="n">
-        <v>8048.3</v>
+        <v>70221</v>
       </c>
       <c r="L56" t="n">
-        <v>12302.1</v>
+        <v>3009.1</v>
       </c>
       <c r="M56" t="n">
-        <v>12302.1</v>
+        <v>385919</v>
       </c>
       <c r="N56" t="n">
-        <v>8481.200000000001</v>
-      </c>
-      <c r="O56" t="n">
-        <v>8481.200000000001</v>
-      </c>
-      <c r="P56" t="n">
-        <v>14865.2</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>14865.2</v>
+        <v>1462.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>2598336</v>
+      </c>
+      <c r="C57" t="n">
+        <v>577.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>853246.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>30718.7</v>
+      </c>
       <c r="F57" t="n">
-        <v>1595.6</v>
+        <v>139272.6</v>
       </c>
       <c r="G57" t="n">
-        <v>1595.6</v>
+        <v>30069.2</v>
       </c>
       <c r="H57" t="n">
-        <v>1759.6</v>
+        <v>4600.5</v>
       </c>
       <c r="I57" t="n">
-        <v>1759.6</v>
+        <v>8871.6</v>
       </c>
       <c r="J57" t="n">
-        <v>8527.4</v>
+        <v>93421</v>
       </c>
       <c r="K57" t="n">
-        <v>8527.4</v>
+        <v>52732</v>
       </c>
       <c r="L57" t="n">
-        <v>12799.9</v>
+        <v>2476.2</v>
       </c>
       <c r="M57" t="n">
-        <v>12799.9</v>
+        <v>342400</v>
       </c>
       <c r="N57" t="n">
-        <v>9372.5</v>
-      </c>
-      <c r="O57" t="n">
-        <v>9372.5</v>
-      </c>
-      <c r="P57" t="n">
-        <v>15614</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>15614</v>
+        <v>-1061.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>2703551</v>
+      </c>
+      <c r="C58" t="n">
+        <v>882.1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>905108.1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>33101.7</v>
+      </c>
       <c r="F58" t="n">
-        <v>1593</v>
+        <v>168270.7</v>
       </c>
       <c r="G58" t="n">
-        <v>1593</v>
+        <v>20307.8</v>
       </c>
       <c r="H58" t="n">
-        <v>1727.7</v>
+        <v>5129</v>
       </c>
       <c r="I58" t="n">
-        <v>1727.7</v>
+        <v>10096.5</v>
       </c>
       <c r="J58" t="n">
-        <v>9128.700000000001</v>
+        <v>93133.60000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>9128.700000000001</v>
+        <v>62888.6</v>
       </c>
       <c r="L58" t="n">
-        <v>12743.8</v>
+        <v>2996.7</v>
       </c>
       <c r="M58" t="n">
-        <v>12743.8</v>
+        <v>371260</v>
       </c>
       <c r="N58" t="n">
-        <v>10157.7</v>
-      </c>
-      <c r="O58" t="n">
-        <v>10157.7</v>
-      </c>
-      <c r="P58" t="n">
-        <v>15675.4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>15675.4</v>
+        <v>5748.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>2830194</v>
+      </c>
+      <c r="C59" t="n">
+        <v>828.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>971439</v>
+      </c>
+      <c r="E59" t="n">
+        <v>32106.4</v>
+      </c>
       <c r="F59" t="n">
-        <v>1783.3</v>
+        <v>234407.4</v>
       </c>
       <c r="G59" t="n">
-        <v>1783.3</v>
+        <v>33226.9</v>
       </c>
       <c r="H59" t="n">
-        <v>1917.5</v>
+        <v>7097.6</v>
       </c>
       <c r="I59" t="n">
-        <v>1917.5</v>
+        <v>14578.1</v>
       </c>
       <c r="J59" t="n">
-        <v>10065.3</v>
+        <v>119148.6</v>
       </c>
       <c r="K59" t="n">
-        <v>10065.3</v>
+        <v>70279.10000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>12996</v>
+        <v>2271</v>
       </c>
       <c r="M59" t="n">
-        <v>12996</v>
+        <v>470843.6</v>
       </c>
       <c r="N59" t="n">
-        <v>11922.7</v>
-      </c>
-      <c r="O59" t="n">
-        <v>11922.7</v>
-      </c>
-      <c r="P59" t="n">
-        <v>16877.9</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>16877.9</v>
+        <v>14275.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>2931085</v>
+      </c>
+      <c r="C60" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1087580</v>
+      </c>
+      <c r="E60" t="n">
+        <v>34338.7</v>
+      </c>
       <c r="F60" t="n">
-        <v>1999.3</v>
+        <v>313540.1</v>
       </c>
       <c r="G60" t="n">
-        <v>1999.3</v>
+        <v>25833.8</v>
       </c>
       <c r="H60" t="n">
-        <v>2168.3</v>
+        <v>8117.4</v>
       </c>
       <c r="I60" t="n">
-        <v>2168.3</v>
+        <v>18241.2</v>
       </c>
       <c r="J60" t="n">
-        <v>10971</v>
+        <v>173081.8</v>
       </c>
       <c r="K60" t="n">
-        <v>10971</v>
+        <v>131186.8</v>
       </c>
       <c r="L60" t="n">
-        <v>13923.4</v>
+        <v>2498</v>
       </c>
       <c r="M60" t="n">
-        <v>13923.4</v>
+        <v>596222.9</v>
       </c>
       <c r="N60" t="n">
-        <v>12536.1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>12536.1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>16779.8</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>16779.8</v>
+        <v>40817.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>3121668</v>
+      </c>
+      <c r="C61" t="n">
+        <v>617.1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1129342.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>48567.8</v>
+      </c>
       <c r="F61" t="n">
-        <v>2201.6</v>
+        <v>379526.5</v>
       </c>
       <c r="G61" t="n">
-        <v>2201.6</v>
+        <v>74376.89999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2367.9</v>
+        <v>7355.9</v>
       </c>
       <c r="I61" t="n">
-        <v>2367.9</v>
+        <v>14288</v>
       </c>
       <c r="J61" t="n">
-        <v>12313.8</v>
+        <v>225759.7</v>
       </c>
       <c r="K61" t="n">
-        <v>12313.8</v>
+        <v>132455.5</v>
       </c>
       <c r="L61" t="n">
-        <v>14712.6</v>
+        <v>2303.8</v>
       </c>
       <c r="M61" t="n">
-        <v>14712.6</v>
+        <v>769203.2</v>
       </c>
       <c r="N61" t="n">
-        <v>14156.8</v>
-      </c>
-      <c r="O61" t="n">
-        <v>14156.8</v>
-      </c>
-      <c r="P61" t="n">
-        <v>17916.1</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>17916.1</v>
+        <v>55178.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>3320278</v>
+      </c>
+      <c r="C62" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1204927.7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>54075.3</v>
+      </c>
       <c r="F62" t="n">
-        <v>2434.4</v>
+        <v>338963.9</v>
       </c>
       <c r="G62" t="n">
-        <v>2434.4</v>
+        <v>8971.6</v>
       </c>
       <c r="H62" t="n">
-        <v>2604.5</v>
+        <v>15108</v>
       </c>
       <c r="I62" t="n">
-        <v>2604.5</v>
+        <v>29579.5</v>
       </c>
       <c r="J62" t="n">
-        <v>13639.9</v>
+        <v>157684.8</v>
       </c>
       <c r="K62" t="n">
-        <v>13639.9</v>
+        <v>125110</v>
       </c>
       <c r="L62" t="n">
-        <v>15902.1</v>
+        <v>2300.6</v>
       </c>
       <c r="M62" t="n">
-        <v>15902.1</v>
+        <v>675230.9</v>
       </c>
       <c r="N62" t="n">
-        <v>15518.3</v>
-      </c>
-      <c r="O62" t="n">
-        <v>15518.3</v>
-      </c>
-      <c r="P62" t="n">
-        <v>18880.4</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>18880.4</v>
+        <v>42009.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>3412253</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-90.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1118878</v>
+      </c>
+      <c r="E63" t="n">
+        <v>41122.4</v>
+      </c>
       <c r="F63" t="n">
-        <v>2891.4</v>
+        <v>289632.5</v>
       </c>
       <c r="G63" t="n">
-        <v>2891.4</v>
+        <v>2746.4</v>
       </c>
       <c r="H63" t="n">
-        <v>3052.1</v>
+        <v>19923.3</v>
       </c>
       <c r="I63" t="n">
-        <v>3052.1</v>
+        <v>27941</v>
       </c>
       <c r="J63" t="n">
-        <v>14879.6</v>
+        <v>123452.1</v>
       </c>
       <c r="K63" t="n">
-        <v>14879.6</v>
+        <v>98975.89999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>16449.6</v>
+        <v>2272.2</v>
       </c>
       <c r="M63" t="n">
-        <v>16449.6</v>
+        <v>561431.9</v>
       </c>
       <c r="N63" t="n">
-        <v>17238.7</v>
-      </c>
-      <c r="O63" t="n">
-        <v>17238.7</v>
-      </c>
-      <c r="P63" t="n">
-        <v>19857.6</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>19857.6</v>
+        <v>435.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>3341167</v>
+      </c>
+      <c r="C64" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>973904.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>34533.8</v>
+      </c>
       <c r="F64" t="n">
-        <v>2808.8</v>
+        <v>150553.5</v>
       </c>
       <c r="G64" t="n">
-        <v>2808.8</v>
+        <v>-3008.9</v>
       </c>
       <c r="H64" t="n">
-        <v>3019.9</v>
+        <v>8138.9</v>
       </c>
       <c r="I64" t="n">
-        <v>3019.9</v>
+        <v>8602.5</v>
       </c>
       <c r="J64" t="n">
-        <v>15019.2</v>
+        <v>62574.3</v>
       </c>
       <c r="K64" t="n">
-        <v>15019.2</v>
+        <v>61493.9</v>
       </c>
       <c r="L64" t="n">
-        <v>16903.2</v>
+        <v>1735.8</v>
       </c>
       <c r="M64" t="n">
-        <v>16903.2</v>
+        <v>290333.2</v>
       </c>
       <c r="N64" t="n">
-        <v>16843.8</v>
-      </c>
-      <c r="O64" t="n">
-        <v>16843.8</v>
-      </c>
-      <c r="P64" t="n">
-        <v>18729</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>18729</v>
+        <v>5890.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>3573581</v>
+      </c>
+      <c r="C65" t="n">
+        <v>765.4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>972707</v>
+      </c>
+      <c r="E65" t="n">
+        <v>32606.3</v>
+      </c>
       <c r="F65" t="n">
-        <v>2764.1</v>
+        <v>116317.9</v>
       </c>
       <c r="G65" t="n">
-        <v>2764.1</v>
+        <v>10892.5</v>
       </c>
       <c r="H65" t="n">
-        <v>2968</v>
+        <v>7684.2</v>
       </c>
       <c r="I65" t="n">
-        <v>2968</v>
+        <v>8097.8</v>
       </c>
       <c r="J65" t="n">
-        <v>15357.9</v>
+        <v>77863.5</v>
       </c>
       <c r="K65" t="n">
-        <v>15357.9</v>
+        <v>61621</v>
       </c>
       <c r="L65" t="n">
-        <v>17145.5</v>
+        <v>2025</v>
       </c>
       <c r="M65" t="n">
-        <v>17145.5</v>
+        <v>264694</v>
       </c>
       <c r="N65" t="n">
-        <v>17255</v>
-      </c>
-      <c r="O65" t="n">
-        <v>17255</v>
-      </c>
-      <c r="P65" t="n">
-        <v>18780.3</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>18780.3</v>
+        <v>2533.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>3727905</v>
+      </c>
+      <c r="C66" t="n">
+        <v>428.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>994508.8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>55124.2</v>
+      </c>
       <c r="F66" t="n">
-        <v>2726.9</v>
+        <v>95670.2</v>
       </c>
       <c r="G66" t="n">
-        <v>2726.9</v>
+        <v>21114</v>
       </c>
       <c r="H66" t="n">
-        <v>2857.8</v>
+        <v>9613.799999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>2857.8</v>
+        <v>10189.3</v>
       </c>
       <c r="J66" t="n">
-        <v>15773</v>
+        <v>100980.5</v>
       </c>
       <c r="K66" t="n">
-        <v>15773</v>
+        <v>72114</v>
       </c>
       <c r="L66" t="n">
-        <v>16618.6</v>
+        <v>1938.8</v>
       </c>
       <c r="M66" t="n">
-        <v>16618.6</v>
+        <v>299971.9</v>
       </c>
       <c r="N66" t="n">
-        <v>17576.6</v>
-      </c>
-      <c r="O66" t="n">
-        <v>17576.6</v>
-      </c>
-      <c r="P66" t="n">
-        <v>18490.2</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>18490.2</v>
+        <v>1646.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>3743086</v>
+      </c>
+      <c r="C67" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1013941.1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>34406.1</v>
+      </c>
       <c r="F67" t="n">
-        <v>2792.9</v>
+        <v>85115.2</v>
       </c>
       <c r="G67" t="n">
-        <v>2792.9</v>
+        <v>50934.4</v>
       </c>
       <c r="H67" t="n">
-        <v>2869.6</v>
+        <v>10608.2</v>
       </c>
       <c r="I67" t="n">
-        <v>2869.6</v>
+        <v>10609.5</v>
       </c>
       <c r="J67" t="n">
-        <v>16759.7</v>
+        <v>140207.5</v>
       </c>
       <c r="K67" t="n">
-        <v>16759.7</v>
+        <v>78527.3</v>
       </c>
       <c r="L67" t="n">
-        <v>16954.8</v>
+        <v>1651</v>
       </c>
       <c r="M67" t="n">
-        <v>16954.8</v>
+        <v>313746.9</v>
       </c>
       <c r="N67" t="n">
-        <v>17892.9</v>
-      </c>
-      <c r="O67" t="n">
-        <v>17892.9</v>
-      </c>
-      <c r="P67" t="n">
-        <v>18154.3</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>18154.3</v>
+        <v>1337.8</v>
       </c>
     </row>
     <row r="68">
@@ -2272,52 +2099,43 @@
         <v>2013</v>
       </c>
       <c r="B68" t="n">
-        <v>78548737</v>
+        <v>3822671</v>
       </c>
       <c r="C68" t="n">
-        <v>96617464.90000001</v>
+        <v>370.3</v>
       </c>
       <c r="D68" t="n">
-        <v>6451568</v>
+        <v>1024904.6</v>
       </c>
       <c r="E68" t="n">
-        <v>13706381.9</v>
+        <v>36818.5</v>
       </c>
       <c r="F68" t="n">
-        <v>2750</v>
+        <v>100988.3</v>
       </c>
       <c r="G68" t="n">
-        <v>2750</v>
+        <v>32320.9</v>
       </c>
       <c r="H68" t="n">
-        <v>2793.3</v>
+        <v>10870.1</v>
       </c>
       <c r="I68" t="n">
-        <v>2793.3</v>
+        <v>10799.8</v>
       </c>
       <c r="J68" t="n">
-        <v>16682.7</v>
+        <v>125160.7</v>
       </c>
       <c r="K68" t="n">
-        <v>16682.7</v>
+        <v>82201.7</v>
       </c>
       <c r="L68" t="n">
-        <v>16558</v>
+        <v>1551.8</v>
       </c>
       <c r="M68" t="n">
-        <v>16558</v>
+        <v>315221.4</v>
       </c>
       <c r="N68" t="n">
-        <v>18097.5</v>
-      </c>
-      <c r="O68" t="n">
-        <v>18097.5</v>
-      </c>
-      <c r="P68" t="n">
-        <v>18165.9</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>18165.9</v>
+        <v>12203.4</v>
       </c>
     </row>
     <row r="69">
@@ -2325,52 +2143,43 @@
         <v>2014</v>
       </c>
       <c r="B69" t="n">
-        <v>84462390.7</v>
+        <v>3992730</v>
       </c>
       <c r="C69" t="n">
-        <v>99067496</v>
+        <v>245.6</v>
       </c>
       <c r="D69" t="n">
-        <v>6538531.4</v>
+        <v>1055284.2</v>
       </c>
       <c r="E69" t="n">
-        <v>14567501</v>
+        <v>39978.2</v>
       </c>
       <c r="F69" t="n">
-        <v>2779.9</v>
+        <v>115844.1</v>
       </c>
       <c r="G69" t="n">
-        <v>2779.9</v>
+        <v>46996.1</v>
       </c>
       <c r="H69" t="n">
-        <v>2797</v>
+        <v>14694.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2797</v>
+        <v>14887.9</v>
       </c>
       <c r="J69" t="n">
-        <v>17037.6</v>
+        <v>150071.9</v>
       </c>
       <c r="K69" t="n">
-        <v>17037.6</v>
+        <v>88279.89999999999</v>
       </c>
       <c r="L69" t="n">
-        <v>16957.4</v>
+        <v>1659.8</v>
       </c>
       <c r="M69" t="n">
-        <v>16957.4</v>
+        <v>370592.2</v>
       </c>
       <c r="N69" t="n">
-        <v>18337</v>
-      </c>
-      <c r="O69" t="n">
-        <v>18337</v>
-      </c>
-      <c r="P69" t="n">
-        <v>18385.9</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>18385.9</v>
+        <v>4763.7</v>
       </c>
     </row>
     <row r="70">
@@ -2378,52 +2187,43 @@
         <v>2015</v>
       </c>
       <c r="B70" t="n">
-        <v>92471078.40000001</v>
+        <v>4260470</v>
       </c>
       <c r="C70" t="n">
-        <v>101700307.2</v>
+        <v>0.7</v>
       </c>
       <c r="D70" t="n">
-        <v>6822882</v>
+        <v>1103998.6</v>
       </c>
       <c r="E70" t="n">
-        <v>15569220.7</v>
+        <v>48246.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2858.1</v>
+        <v>137525.5</v>
       </c>
       <c r="G70" t="n">
-        <v>2858.1</v>
+        <v>86523.2</v>
       </c>
       <c r="H70" t="n">
-        <v>2858.1</v>
+        <v>13512.8</v>
       </c>
       <c r="I70" t="n">
-        <v>2858.1</v>
+        <v>13512.8</v>
       </c>
       <c r="J70" t="n">
-        <v>17304.2</v>
+        <v>200199.4</v>
       </c>
       <c r="K70" t="n">
-        <v>17304.2</v>
+        <v>100163.3</v>
       </c>
       <c r="L70" t="n">
-        <v>17304.2</v>
+        <v>1704.6</v>
       </c>
       <c r="M70" t="n">
-        <v>17304.2</v>
+        <v>448388.3</v>
       </c>
       <c r="N70" t="n">
-        <v>18887.5</v>
-      </c>
-      <c r="O70" t="n">
-        <v>18887.5</v>
-      </c>
-      <c r="P70" t="n">
-        <v>18887.5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>18887.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2431,52 +2231,43 @@
         <v>2016</v>
       </c>
       <c r="B71" t="n">
-        <v>99427025.90000001</v>
+        <v>4415031</v>
       </c>
       <c r="C71" t="n">
-        <v>104269325.3</v>
+        <v>0.7</v>
       </c>
       <c r="D71" t="n">
-        <v>7230734.3</v>
+        <v>1180445.4</v>
       </c>
       <c r="E71" t="n">
-        <v>16024369.5</v>
+        <v>53045</v>
       </c>
       <c r="F71" t="n">
-        <v>2942.5</v>
+        <v>165738.9</v>
       </c>
       <c r="G71" t="n">
-        <v>2942.5</v>
+        <v>94369.39999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2921.6</v>
+        <v>14425.5</v>
       </c>
       <c r="I71" t="n">
-        <v>2921.6</v>
+        <v>15639.2</v>
       </c>
       <c r="J71" t="n">
-        <v>17769.3</v>
+        <v>232535.5</v>
       </c>
       <c r="K71" t="n">
-        <v>17769.3</v>
+        <v>122527</v>
       </c>
       <c r="L71" t="n">
-        <v>18051</v>
+        <v>1450.8</v>
       </c>
       <c r="M71" t="n">
-        <v>18051</v>
+        <v>530362.2</v>
       </c>
       <c r="N71" t="n">
-        <v>19812.3</v>
-      </c>
-      <c r="O71" t="n">
-        <v>19812.3</v>
-      </c>
-      <c r="P71" t="n">
-        <v>19640.2</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>19640.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2484,52 +2275,43 @@
         <v>2017</v>
       </c>
       <c r="B72" t="n">
-        <v>104561367.6</v>
+        <v>4625094</v>
       </c>
       <c r="C72" t="n">
-        <v>106172293.1</v>
+        <v>41.4</v>
       </c>
       <c r="D72" t="n">
-        <v>7534751.1</v>
+        <v>1276652</v>
       </c>
       <c r="E72" t="n">
-        <v>16069102.7</v>
+        <v>53886.5</v>
       </c>
       <c r="F72" t="n">
-        <v>3167.2</v>
+        <v>195509.4</v>
       </c>
       <c r="G72" t="n">
-        <v>3167.2</v>
+        <v>91477.60000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>3122.9</v>
+        <v>14426</v>
       </c>
       <c r="I72" t="n">
-        <v>3122.9</v>
+        <v>16434.7</v>
       </c>
       <c r="J72" t="n">
-        <v>18844.5</v>
+        <v>240622.4</v>
       </c>
       <c r="K72" t="n">
-        <v>18844.5</v>
+        <v>132614.6</v>
       </c>
       <c r="L72" t="n">
-        <v>18885</v>
+        <v>1547.1</v>
       </c>
       <c r="M72" t="n">
-        <v>18885</v>
+        <v>581140</v>
       </c>
       <c r="N72" t="n">
-        <v>20938.2</v>
-      </c>
-      <c r="O72" t="n">
-        <v>20938.2</v>
-      </c>
-      <c r="P72" t="n">
-        <v>20425.7</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>20425.7</v>
+        <v>9813</v>
       </c>
     </row>
     <row r="73">
@@ -2537,52 +2319,43 @@
         <v>2018</v>
       </c>
       <c r="B73" t="n">
-        <v>109962201.8</v>
+        <v>4828306</v>
       </c>
       <c r="C73" t="n">
-        <v>109962201.8</v>
+        <v>30.8</v>
       </c>
       <c r="D73" t="n">
-        <v>8373439.1</v>
+        <v>1339096.2</v>
       </c>
       <c r="E73" t="n">
-        <v>17148225.6</v>
+        <v>55015.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3417.7</v>
+        <v>205927.3</v>
       </c>
       <c r="G73" t="n">
-        <v>3417.7</v>
+        <v>87830.3</v>
       </c>
       <c r="H73" t="n">
-        <v>3320.9</v>
+        <v>20666.3</v>
       </c>
       <c r="I73" t="n">
-        <v>3320.9</v>
+        <v>22088.6</v>
       </c>
       <c r="J73" t="n">
-        <v>20008.5</v>
+        <v>229721.5</v>
       </c>
       <c r="K73" t="n">
-        <v>20008.5</v>
+        <v>120093</v>
       </c>
       <c r="L73" t="n">
-        <v>19504</v>
+        <v>1522.8</v>
       </c>
       <c r="M73" t="n">
-        <v>19504</v>
+        <v>606553.2</v>
       </c>
       <c r="N73" t="n">
-        <v>22287.3</v>
-      </c>
-      <c r="O73" t="n">
-        <v>22287.3</v>
-      </c>
-      <c r="P73" t="n">
-        <v>21289.3</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>21289.3</v>
+        <v>7380.7</v>
       </c>
     </row>
     <row r="74">
@@ -2590,52 +2363,43 @@
         <v>2019</v>
       </c>
       <c r="B74" t="n">
-        <v>115195361.6</v>
+        <v>5049619</v>
       </c>
       <c r="C74" t="n">
-        <v>111724067.8</v>
+        <v>54.8</v>
       </c>
       <c r="D74" t="n">
-        <v>8153308.3</v>
+        <v>1363355.2</v>
       </c>
       <c r="E74" t="n">
-        <v>18662803.7</v>
+        <v>59245.3</v>
       </c>
       <c r="F74" t="n">
-        <v>3516.6</v>
+        <v>194903.8</v>
       </c>
       <c r="G74" t="n">
-        <v>3516.6</v>
+        <v>63194.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3377.8</v>
+        <v>18447.6</v>
       </c>
       <c r="I74" t="n">
-        <v>3377.8</v>
+        <v>17739.1</v>
       </c>
       <c r="J74" t="n">
-        <v>21036.8</v>
+        <v>181367.7</v>
       </c>
       <c r="K74" t="n">
-        <v>21036.8</v>
+        <v>100298.7</v>
       </c>
       <c r="L74" t="n">
-        <v>19794.7</v>
+        <v>2413.9</v>
       </c>
       <c r="M74" t="n">
-        <v>19794.7</v>
+        <v>579502</v>
       </c>
       <c r="N74" t="n">
-        <v>23702.5</v>
-      </c>
-      <c r="O74" t="n">
-        <v>23702.5</v>
-      </c>
-      <c r="P74" t="n">
-        <v>22056.5</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>22056.5</v>
+        <v>3652.4</v>
       </c>
     </row>
     <row r="75">
@@ -2643,52 +2407,43 @@
         <v>2020</v>
       </c>
       <c r="B75" t="n">
-        <v>112295482.7</v>
+        <v>5038538</v>
       </c>
       <c r="C75" t="n">
-        <v>103475051.9</v>
+        <v>-190.4</v>
       </c>
       <c r="D75" t="n">
-        <v>9042013.300000001</v>
+        <v>1318624.6</v>
       </c>
       <c r="E75" t="n">
-        <v>18158355.4</v>
+        <v>57487.8</v>
       </c>
       <c r="F75" t="n">
-        <v>3443.6</v>
+        <v>169334.7</v>
       </c>
       <c r="G75" t="n">
-        <v>3443.6</v>
+        <v>40378.5</v>
       </c>
       <c r="H75" t="n">
-        <v>3282.7</v>
+        <v>18949</v>
       </c>
       <c r="I75" t="n">
-        <v>3282.7</v>
+        <v>15711.8</v>
       </c>
       <c r="J75" t="n">
-        <v>22122</v>
+        <v>150215.8</v>
       </c>
       <c r="K75" t="n">
-        <v>22122</v>
+        <v>93409.10000000001</v>
       </c>
       <c r="L75" t="n">
-        <v>20479.2</v>
+        <v>2347.4</v>
       </c>
       <c r="M75" t="n">
-        <v>20479.2</v>
+        <v>528038.3</v>
       </c>
       <c r="N75" t="n">
-        <v>22754.6</v>
-      </c>
-      <c r="O75" t="n">
-        <v>22754.6</v>
-      </c>
-      <c r="P75" t="n">
-        <v>20608.5</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>20608.5</v>
+        <v>22161.3</v>
       </c>
     </row>
     <row r="76">
@@ -2696,52 +2451,43 @@
         <v>2021</v>
       </c>
       <c r="B76" t="n">
-        <v>131467412.2</v>
+        <v>5451813</v>
       </c>
       <c r="C76" t="n">
-        <v>118205915.8</v>
+        <v>-508.1</v>
       </c>
       <c r="D76" t="n">
-        <v>10410148.4</v>
+        <v>1421281.9</v>
       </c>
       <c r="E76" t="n">
-        <v>20916322.3</v>
+        <v>66188.8</v>
       </c>
       <c r="F76" t="n">
-        <v>3579.3</v>
+        <v>182913.8</v>
       </c>
       <c r="G76" t="n">
-        <v>3579.3</v>
+        <v>76613.8</v>
       </c>
       <c r="H76" t="n">
-        <v>3337.2</v>
+        <v>24583.1</v>
       </c>
       <c r="I76" t="n">
-        <v>3337.2</v>
+        <v>19637.1</v>
       </c>
       <c r="J76" t="n">
-        <v>23079.7</v>
+        <v>199840.8</v>
       </c>
       <c r="K76" t="n">
-        <v>23079.7</v>
+        <v>104065.3</v>
       </c>
       <c r="L76" t="n">
-        <v>21036.9</v>
+        <v>2284.3</v>
       </c>
       <c r="M76" t="n">
-        <v>21036.9</v>
+        <v>591267.9</v>
       </c>
       <c r="N76" t="n">
-        <v>23523.9</v>
-      </c>
-      <c r="O76" t="n">
-        <v>23523.9</v>
-      </c>
-      <c r="P76" t="n">
-        <v>20285.4</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>20285.4</v>
+        <v>23752.7</v>
       </c>
     </row>
     <row r="77">
@@ -2761,9 +2507,6 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6894,43 +6637,47 @@
           <t>1995-Q1</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>7339.2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>154895.8</v>
+      </c>
       <c r="D194" t="n">
-        <v>207.7</v>
+        <v>154895.8</v>
       </c>
       <c r="E194" t="n">
-        <v>235.4</v>
+        <v>214279.5</v>
       </c>
       <c r="F194" t="n">
-        <v>340</v>
+        <v>5758</v>
       </c>
       <c r="G194" t="n">
-        <v>348.4</v>
+        <v>19181</v>
       </c>
       <c r="H194" t="n">
-        <v>1034.2</v>
+        <v>1791.8</v>
       </c>
       <c r="I194" t="n">
-        <v>1065.4</v>
+        <v>727.9</v>
       </c>
       <c r="J194" t="n">
-        <v>2168.3</v>
+        <v>1639.8</v>
       </c>
       <c r="K194" t="n">
-        <v>2231.1</v>
+        <v>12009.7</v>
       </c>
       <c r="L194" t="n">
-        <v>1123.7</v>
+        <v>8837.299999999999</v>
       </c>
       <c r="M194" t="n">
-        <v>1129.9</v>
+        <v>298.1</v>
       </c>
       <c r="N194" t="n">
-        <v>2670.4</v>
+        <v>48558.3</v>
       </c>
       <c r="O194" t="n">
-        <v>2815.8</v>
+        <v>2372.3</v>
       </c>
     </row>
     <row r="195">
@@ -6939,43 +6686,47 @@
           <t>1995-Q2</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>7394.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>157053</v>
+      </c>
       <c r="D195" t="n">
-        <v>250.1</v>
+        <v>157053</v>
       </c>
       <c r="E195" t="n">
-        <v>250</v>
+        <v>216782.6</v>
       </c>
       <c r="F195" t="n">
-        <v>359.3</v>
+        <v>5751.1</v>
       </c>
       <c r="G195" t="n">
-        <v>357.2</v>
+        <v>20057.3</v>
       </c>
       <c r="H195" t="n">
-        <v>1115.2</v>
+        <v>2116.6</v>
       </c>
       <c r="I195" t="n">
-        <v>1079.7</v>
+        <v>730</v>
       </c>
       <c r="J195" t="n">
-        <v>2358.3</v>
+        <v>1635.4</v>
       </c>
       <c r="K195" t="n">
-        <v>2258.7</v>
+        <v>12754.3</v>
       </c>
       <c r="L195" t="n">
-        <v>1167.6</v>
+        <v>9228.6</v>
       </c>
       <c r="M195" t="n">
-        <v>1166.1</v>
+        <v>297.7</v>
       </c>
       <c r="N195" t="n">
-        <v>2849.2</v>
+        <v>53980.5</v>
       </c>
       <c r="O195" t="n">
-        <v>2859.6</v>
+        <v>-2983.2</v>
       </c>
     </row>
     <row r="196">
@@ -6984,43 +6735,47 @@
           <t>1995-Q3</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>7450.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>159495.3</v>
+      </c>
       <c r="D196" t="n">
-        <v>272.7</v>
+        <v>159495.3</v>
       </c>
       <c r="E196" t="n">
-        <v>261</v>
+        <v>219724.1</v>
       </c>
       <c r="F196" t="n">
-        <v>379.3</v>
+        <v>5692.1</v>
       </c>
       <c r="G196" t="n">
-        <v>365.7</v>
+        <v>21409.4</v>
       </c>
       <c r="H196" t="n">
-        <v>1104</v>
+        <v>2100.1</v>
       </c>
       <c r="I196" t="n">
-        <v>1104.3</v>
+        <v>718.1</v>
       </c>
       <c r="J196" t="n">
-        <v>2297.7</v>
+        <v>1593.5</v>
       </c>
       <c r="K196" t="n">
-        <v>2289.9</v>
+        <v>13047.6</v>
       </c>
       <c r="L196" t="n">
-        <v>1194.1</v>
+        <v>9603.299999999999</v>
       </c>
       <c r="M196" t="n">
-        <v>1194.8</v>
+        <v>297.2</v>
       </c>
       <c r="N196" t="n">
-        <v>2926.6</v>
+        <v>56372</v>
       </c>
       <c r="O196" t="n">
-        <v>2895.5</v>
+        <v>-6039.3</v>
       </c>
     </row>
     <row r="197">
@@ -7029,43 +6784,47 @@
           <t>1995-Q4</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>7507.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>161961.2</v>
+      </c>
       <c r="D197" t="n">
-        <v>290.9</v>
+        <v>161961.2</v>
       </c>
       <c r="E197" t="n">
-        <v>274.9</v>
+        <v>222502.3</v>
       </c>
       <c r="F197" t="n">
-        <v>369.2</v>
+        <v>6245.1</v>
       </c>
       <c r="G197" t="n">
-        <v>376.5</v>
+        <v>21970.3</v>
       </c>
       <c r="H197" t="n">
-        <v>1142.6</v>
+        <v>2462.8</v>
       </c>
       <c r="I197" t="n">
-        <v>1146.6</v>
+        <v>902.5</v>
       </c>
       <c r="J197" t="n">
-        <v>2295.6</v>
+        <v>1990.2</v>
       </c>
       <c r="K197" t="n">
-        <v>2340.2</v>
+        <v>14375.9</v>
       </c>
       <c r="L197" t="n">
-        <v>1223.8</v>
+        <v>10155.6</v>
       </c>
       <c r="M197" t="n">
-        <v>1218.4</v>
+        <v>297.2</v>
       </c>
       <c r="N197" t="n">
-        <v>3075.9</v>
+        <v>61236.9</v>
       </c>
       <c r="O197" t="n">
-        <v>2951.2</v>
+        <v>-6352.9</v>
       </c>
     </row>
     <row r="198">
@@ -7074,43 +6833,47 @@
           <t>1996-Q1</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>7184</v>
+      </c>
+      <c r="C198" t="n">
+        <v>163166.5</v>
+      </c>
       <c r="D198" t="n">
-        <v>261.6</v>
+        <v>163166.5</v>
       </c>
       <c r="E198" t="n">
-        <v>282.8</v>
+        <v>223528.5</v>
       </c>
       <c r="F198" t="n">
-        <v>375.2</v>
+        <v>6207.7</v>
       </c>
       <c r="G198" t="n">
-        <v>390.6</v>
+        <v>21861.1</v>
       </c>
       <c r="H198" t="n">
-        <v>1120.8</v>
+        <v>4736.9</v>
       </c>
       <c r="I198" t="n">
-        <v>1156.7</v>
+        <v>835</v>
       </c>
       <c r="J198" t="n">
-        <v>2329.4</v>
+        <v>1831.3</v>
       </c>
       <c r="K198" t="n">
-        <v>2401.3</v>
+        <v>18247</v>
       </c>
       <c r="L198" t="n">
-        <v>1251.3</v>
+        <v>11604.4</v>
       </c>
       <c r="M198" t="n">
-        <v>1263.8</v>
+        <v>420</v>
       </c>
       <c r="N198" t="n">
-        <v>2847.2</v>
+        <v>62399.6</v>
       </c>
       <c r="O198" t="n">
-        <v>2961.5</v>
+        <v>-506.5</v>
       </c>
     </row>
     <row r="199">
@@ -7119,43 +6882,47 @@
           <t>1996-Q2</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>7238.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>165846.1</v>
+      </c>
       <c r="D199" t="n">
-        <v>284.6</v>
+        <v>165846.1</v>
       </c>
       <c r="E199" t="n">
-        <v>285.2</v>
+        <v>226637.7</v>
       </c>
       <c r="F199" t="n">
-        <v>397.7</v>
+        <v>6202.6</v>
       </c>
       <c r="G199" t="n">
-        <v>398.5</v>
+        <v>22868.6</v>
       </c>
       <c r="H199" t="n">
-        <v>1232.1</v>
+        <v>5172.4</v>
       </c>
       <c r="I199" t="n">
-        <v>1186.7</v>
+        <v>837.6</v>
       </c>
       <c r="J199" t="n">
-        <v>2551.8</v>
+        <v>1828.4</v>
       </c>
       <c r="K199" t="n">
-        <v>2443.3</v>
+        <v>19219.8</v>
       </c>
       <c r="L199" t="n">
-        <v>1299.8</v>
+        <v>12095.3</v>
       </c>
       <c r="M199" t="n">
-        <v>1293.6</v>
+        <v>419.7</v>
       </c>
       <c r="N199" t="n">
-        <v>3013.8</v>
+        <v>64892.1</v>
       </c>
       <c r="O199" t="n">
-        <v>2995.5</v>
+        <v>-1521</v>
       </c>
     </row>
     <row r="200">
@@ -7164,43 +6931,47 @@
           <t>1996-Q3</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>7294.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>166972.8</v>
+      </c>
       <c r="D200" t="n">
-        <v>310.5</v>
+        <v>166972.8</v>
       </c>
       <c r="E200" t="n">
-        <v>293.4</v>
+        <v>228305.9</v>
       </c>
       <c r="F200" t="n">
-        <v>428.2</v>
+        <v>6155.5</v>
       </c>
       <c r="G200" t="n">
-        <v>409.5</v>
+        <v>23685.2</v>
       </c>
       <c r="H200" t="n">
-        <v>1234</v>
+        <v>5113.4</v>
       </c>
       <c r="I200" t="n">
-        <v>1230</v>
+        <v>823.6</v>
       </c>
       <c r="J200" t="n">
-        <v>2525.8</v>
+        <v>1794.9</v>
       </c>
       <c r="K200" t="n">
-        <v>2514</v>
+        <v>19605.1</v>
       </c>
       <c r="L200" t="n">
-        <v>1327</v>
+        <v>12614.4</v>
       </c>
       <c r="M200" t="n">
-        <v>1318.1</v>
+        <v>419</v>
       </c>
       <c r="N200" t="n">
-        <v>3130.2</v>
+        <v>65195.6</v>
       </c>
       <c r="O200" t="n">
-        <v>3069.1</v>
+        <v>-2357.4</v>
       </c>
     </row>
     <row r="201">
@@ -7209,43 +6980,47 @@
           <t>1996-Q4</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>7350.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>170935.7</v>
+      </c>
       <c r="D201" t="n">
-        <v>299.1</v>
+        <v>170935.7</v>
       </c>
       <c r="E201" t="n">
-        <v>294.4</v>
+        <v>232688.8</v>
       </c>
       <c r="F201" t="n">
-        <v>411.2</v>
+        <v>6813.6</v>
       </c>
       <c r="G201" t="n">
-        <v>413.8</v>
+        <v>24505</v>
       </c>
       <c r="H201" t="n">
-        <v>1239.5</v>
+        <v>5631.5</v>
       </c>
       <c r="I201" t="n">
-        <v>1252.9</v>
+        <v>1041.9</v>
       </c>
       <c r="J201" t="n">
-        <v>2506.6</v>
+        <v>2269</v>
       </c>
       <c r="K201" t="n">
-        <v>2555</v>
+        <v>21349.9</v>
       </c>
       <c r="L201" t="n">
-        <v>1335</v>
+        <v>13336.3</v>
       </c>
       <c r="M201" t="n">
-        <v>1337.8</v>
+        <v>418</v>
       </c>
       <c r="N201" t="n">
-        <v>3128.4</v>
+        <v>67153.89999999999</v>
       </c>
       <c r="O201" t="n">
-        <v>3093.4</v>
+        <v>286.3</v>
       </c>
     </row>
     <row r="202">
@@ -7254,43 +7029,47 @@
           <t>1997-Q1</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>7408</v>
+      </c>
+      <c r="C202" t="n">
+        <v>171287.7</v>
+      </c>
       <c r="D202" t="n">
-        <v>284.9</v>
+        <v>171287.7</v>
       </c>
       <c r="E202" t="n">
-        <v>306.3</v>
+        <v>233197.6</v>
       </c>
       <c r="F202" t="n">
-        <v>389.1</v>
+        <v>5849.8</v>
       </c>
       <c r="G202" t="n">
-        <v>416.3</v>
+        <v>28784.4</v>
       </c>
       <c r="H202" t="n">
-        <v>1248.1</v>
+        <v>4902.3</v>
       </c>
       <c r="I202" t="n">
-        <v>1288.1</v>
+        <v>633.2</v>
       </c>
       <c r="J202" t="n">
-        <v>2526.8</v>
+        <v>1348.7</v>
       </c>
       <c r="K202" t="n">
-        <v>2614.3</v>
+        <v>19566</v>
       </c>
       <c r="L202" t="n">
-        <v>1340.1</v>
+        <v>13285.4</v>
       </c>
       <c r="M202" t="n">
-        <v>1349</v>
+        <v>320.2</v>
       </c>
       <c r="N202" t="n">
-        <v>3098.3</v>
+        <v>66747.2</v>
       </c>
       <c r="O202" t="n">
-        <v>3155.9</v>
+        <v>463.6</v>
       </c>
     </row>
     <row r="203">
@@ -7299,43 +7078,47 @@
           <t>1997-Q2</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>7476.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>176288.1</v>
+      </c>
       <c r="D203" t="n">
-        <v>316.2</v>
+        <v>176288.1</v>
       </c>
       <c r="E203" t="n">
-        <v>314.9</v>
+        <v>239286.9</v>
       </c>
       <c r="F203" t="n">
-        <v>425.1</v>
+        <v>5905.6</v>
       </c>
       <c r="G203" t="n">
-        <v>423</v>
+        <v>29876.1</v>
       </c>
       <c r="H203" t="n">
-        <v>1387.9</v>
+        <v>5876.2</v>
       </c>
       <c r="I203" t="n">
-        <v>1328.1</v>
+        <v>636.1</v>
       </c>
       <c r="J203" t="n">
-        <v>2791</v>
+        <v>1392.2</v>
       </c>
       <c r="K203" t="n">
-        <v>2671.1</v>
+        <v>21414.7</v>
       </c>
       <c r="L203" t="n">
-        <v>1382.7</v>
+        <v>13995.3</v>
       </c>
       <c r="M203" t="n">
-        <v>1358.9</v>
+        <v>318.8</v>
       </c>
       <c r="N203" t="n">
-        <v>3285.8</v>
+        <v>69580.8</v>
       </c>
       <c r="O203" t="n">
-        <v>3180.8</v>
+        <v>1686.8</v>
       </c>
     </row>
     <row r="204">
@@ -7344,43 +7127,47 @@
           <t>1997-Q3</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
+      <c r="B204" t="n">
+        <v>7503.8</v>
+      </c>
+      <c r="C204" t="n">
+        <v>179474.8</v>
+      </c>
       <c r="D204" t="n">
-        <v>332.9</v>
+        <v>179474.8</v>
       </c>
       <c r="E204" t="n">
-        <v>319.5</v>
+        <v>242830.5</v>
       </c>
       <c r="F204" t="n">
-        <v>442.8</v>
+        <v>5883.1</v>
       </c>
       <c r="G204" t="n">
-        <v>424.6</v>
+        <v>30819.3</v>
       </c>
       <c r="H204" t="n">
-        <v>1343.9</v>
+        <v>5921.6</v>
       </c>
       <c r="I204" t="n">
-        <v>1338.9</v>
+        <v>621.5</v>
       </c>
       <c r="J204" t="n">
-        <v>2703.1</v>
+        <v>1376.7</v>
       </c>
       <c r="K204" t="n">
-        <v>2689.1</v>
+        <v>22240.2</v>
       </c>
       <c r="L204" t="n">
-        <v>1387.9</v>
+        <v>14828.9</v>
       </c>
       <c r="M204" t="n">
-        <v>1383.4</v>
+        <v>318.5</v>
       </c>
       <c r="N204" t="n">
-        <v>3172.7</v>
+        <v>74891.7</v>
       </c>
       <c r="O204" t="n">
-        <v>3165.7</v>
+        <v>-2310.5</v>
       </c>
     </row>
     <row r="205">
@@ -7389,43 +7176,47 @@
           <t>1997-Q4</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>7588.1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>182545</v>
+      </c>
       <c r="D205" t="n">
-        <v>333.3</v>
+        <v>182545</v>
       </c>
       <c r="E205" t="n">
-        <v>326.6</v>
+        <v>247215.3</v>
       </c>
       <c r="F205" t="n">
-        <v>435.4</v>
+        <v>6513.2</v>
       </c>
       <c r="G205" t="n">
-        <v>428.5</v>
+        <v>32488.5</v>
       </c>
       <c r="H205" t="n">
-        <v>1345.4</v>
+        <v>6832.4</v>
       </c>
       <c r="I205" t="n">
-        <v>1370.3</v>
+        <v>848.4</v>
       </c>
       <c r="J205" t="n">
-        <v>2668.7</v>
+        <v>1837.6</v>
       </c>
       <c r="K205" t="n">
-        <v>2715.1</v>
+        <v>23872.4</v>
       </c>
       <c r="L205" t="n">
-        <v>1404.8</v>
+        <v>14963</v>
       </c>
       <c r="M205" t="n">
-        <v>1424.2</v>
+        <v>317.1</v>
       </c>
       <c r="N205" t="n">
-        <v>3157.8</v>
+        <v>77600.2</v>
       </c>
       <c r="O205" t="n">
-        <v>3212.2</v>
+        <v>-209.7</v>
       </c>
     </row>
     <row r="206">
@@ -7434,43 +7225,47 @@
           <t>1998-Q1</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
+      <c r="B206" t="n">
+        <v>7659.9</v>
+      </c>
+      <c r="C206" t="n">
+        <v>190615.3</v>
+      </c>
       <c r="D206" t="n">
-        <v>304.5</v>
+        <v>190615.3</v>
       </c>
       <c r="E206" t="n">
-        <v>329.1</v>
+        <v>256953.9</v>
       </c>
       <c r="F206" t="n">
-        <v>399.6</v>
+        <v>7608.1</v>
       </c>
       <c r="G206" t="n">
-        <v>430.6</v>
+        <v>39888.6</v>
       </c>
       <c r="H206" t="n">
-        <v>1362.5</v>
+        <v>10248.1</v>
       </c>
       <c r="I206" t="n">
-        <v>1406.4</v>
+        <v>1035.2</v>
       </c>
       <c r="J206" t="n">
-        <v>2634.9</v>
+        <v>2277.9</v>
       </c>
       <c r="K206" t="n">
-        <v>2733.8</v>
+        <v>29544.5</v>
       </c>
       <c r="L206" t="n">
-        <v>1442.8</v>
+        <v>16300.7</v>
       </c>
       <c r="M206" t="n">
-        <v>1456.4</v>
+        <v>637</v>
       </c>
       <c r="N206" t="n">
-        <v>3155.6</v>
+        <v>90902.5</v>
       </c>
       <c r="O206" t="n">
-        <v>3262.5</v>
+        <v>7377.5</v>
       </c>
     </row>
     <row r="207">
@@ -7479,43 +7274,47 @@
           <t>1998-Q2</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
+      <c r="B207" t="n">
+        <v>7707.4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>195187.9</v>
+      </c>
       <c r="D207" t="n">
-        <v>334.2</v>
+        <v>195187.9</v>
       </c>
       <c r="E207" t="n">
-        <v>334.8</v>
+        <v>261989.5</v>
       </c>
       <c r="F207" t="n">
-        <v>431.9</v>
+        <v>7089.9</v>
       </c>
       <c r="G207" t="n">
-        <v>433</v>
+        <v>40952.2</v>
       </c>
       <c r="H207" t="n">
-        <v>1517.7</v>
+        <v>10495</v>
       </c>
       <c r="I207" t="n">
-        <v>1450.5</v>
+        <v>878.6</v>
       </c>
       <c r="J207" t="n">
-        <v>2896.2</v>
+        <v>1895.7</v>
       </c>
       <c r="K207" t="n">
-        <v>2772.3</v>
+        <v>29707.8</v>
       </c>
       <c r="L207" t="n">
-        <v>1513.5</v>
+        <v>16557.3</v>
       </c>
       <c r="M207" t="n">
-        <v>1484.7</v>
+        <v>634.2</v>
       </c>
       <c r="N207" t="n">
-        <v>3417.2</v>
+        <v>94042.39999999999</v>
       </c>
       <c r="O207" t="n">
-        <v>3310.2</v>
+        <v>2466.7</v>
       </c>
     </row>
     <row r="208">
@@ -7524,43 +7323,47 @@
           <t>1998-Q3</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
+      <c r="B208" t="n">
+        <v>7817.6</v>
+      </c>
+      <c r="C208" t="n">
+        <v>202587.1</v>
+      </c>
       <c r="D208" t="n">
-        <v>353.9</v>
+        <v>202587.1</v>
       </c>
       <c r="E208" t="n">
-        <v>338.9</v>
+        <v>270307</v>
       </c>
       <c r="F208" t="n">
-        <v>450.1</v>
+        <v>7040.4</v>
       </c>
       <c r="G208" t="n">
-        <v>431</v>
+        <v>41965.3</v>
       </c>
       <c r="H208" t="n">
-        <v>1504.2</v>
+        <v>10216.2</v>
       </c>
       <c r="I208" t="n">
-        <v>1494.9</v>
+        <v>839.9</v>
       </c>
       <c r="J208" t="n">
-        <v>2883.2</v>
+        <v>1857.5</v>
       </c>
       <c r="K208" t="n">
-        <v>2868.6</v>
+        <v>29168</v>
       </c>
       <c r="L208" t="n">
-        <v>1547.1</v>
+        <v>16369.1</v>
       </c>
       <c r="M208" t="n">
-        <v>1522.8</v>
+        <v>635</v>
       </c>
       <c r="N208" t="n">
-        <v>3425.3</v>
+        <v>95422.7</v>
       </c>
       <c r="O208" t="n">
-        <v>3364.2</v>
+        <v>1586.3</v>
       </c>
     </row>
     <row r="209">
@@ -7569,43 +7372,47 @@
           <t>1998-Q4</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
+      <c r="B209" t="n">
+        <v>7851.5</v>
+      </c>
+      <c r="C209" t="n">
+        <v>206847.8</v>
+      </c>
       <c r="D209" t="n">
-        <v>358</v>
+        <v>206847.8</v>
       </c>
       <c r="E209" t="n">
-        <v>347.7</v>
+        <v>275173.5</v>
       </c>
       <c r="F209" t="n">
-        <v>447</v>
+        <v>8498.200000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>433.8</v>
+        <v>44149.7</v>
       </c>
       <c r="H209" t="n">
-        <v>1482.8</v>
+        <v>10988.5</v>
       </c>
       <c r="I209" t="n">
-        <v>1515.2</v>
+        <v>1332</v>
       </c>
       <c r="J209" t="n">
-        <v>2813.8</v>
+        <v>2944.5</v>
       </c>
       <c r="K209" t="n">
-        <v>2853.5</v>
+        <v>32636.5</v>
       </c>
       <c r="L209" t="n">
-        <v>1507.5</v>
+        <v>17981.6</v>
       </c>
       <c r="M209" t="n">
-        <v>1546.9</v>
+        <v>633.3</v>
       </c>
       <c r="N209" t="n">
-        <v>3278.3</v>
+        <v>98839.8</v>
       </c>
       <c r="O209" t="n">
-        <v>3339.5</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="210">
@@ -7614,43 +7421,47 @@
           <t>1999-Q1</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
+      <c r="B210" t="n">
+        <v>7997.6</v>
+      </c>
+      <c r="C210" t="n">
+        <v>211626.5</v>
+      </c>
       <c r="D210" t="n">
-        <v>330.8</v>
+        <v>211626.5</v>
       </c>
       <c r="E210" t="n">
-        <v>358.2</v>
+        <v>281365.4</v>
       </c>
       <c r="F210" t="n">
-        <v>401.1</v>
+        <v>8108.6</v>
       </c>
       <c r="G210" t="n">
-        <v>436.5</v>
+        <v>40640.5</v>
       </c>
       <c r="H210" t="n">
-        <v>1498.1</v>
+        <v>5090.8</v>
       </c>
       <c r="I210" t="n">
-        <v>1540.9</v>
+        <v>1406</v>
       </c>
       <c r="J210" t="n">
-        <v>2743.2</v>
+        <v>3051.8</v>
       </c>
       <c r="K210" t="n">
-        <v>2845.8</v>
+        <v>25928.6</v>
       </c>
       <c r="L210" t="n">
-        <v>1571.2</v>
+        <v>18014.9</v>
       </c>
       <c r="M210" t="n">
-        <v>1585.4</v>
+        <v>724.7</v>
       </c>
       <c r="N210" t="n">
-        <v>3205.5</v>
+        <v>88924.3</v>
       </c>
       <c r="O210" t="n">
-        <v>3324.3</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="211">
@@ -7659,43 +7470,47 @@
           <t>1999-Q2</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+      <c r="B211" t="n">
+        <v>8087</v>
+      </c>
+      <c r="C211" t="n">
+        <v>211692</v>
+      </c>
       <c r="D211" t="n">
-        <v>356.2</v>
+        <v>211692</v>
       </c>
       <c r="E211" t="n">
-        <v>361.5</v>
+        <v>282204.4</v>
       </c>
       <c r="F211" t="n">
-        <v>425.1</v>
+        <v>7484.5</v>
       </c>
       <c r="G211" t="n">
-        <v>432.2</v>
+        <v>41505.8</v>
       </c>
       <c r="H211" t="n">
-        <v>1693.3</v>
+        <v>5960.4</v>
       </c>
       <c r="I211" t="n">
-        <v>1624.2</v>
+        <v>1194.5</v>
       </c>
       <c r="J211" t="n">
-        <v>3093.5</v>
+        <v>2568.7</v>
       </c>
       <c r="K211" t="n">
-        <v>2966.3</v>
+        <v>26648.5</v>
       </c>
       <c r="L211" t="n">
-        <v>1615</v>
+        <v>18195.6</v>
       </c>
       <c r="M211" t="n">
-        <v>1584.2</v>
+        <v>718.9</v>
       </c>
       <c r="N211" t="n">
-        <v>3432.3</v>
+        <v>91284.8</v>
       </c>
       <c r="O211" t="n">
-        <v>3316.7</v>
+        <v>4361.2</v>
       </c>
     </row>
     <row r="212">
@@ -7704,43 +7519,47 @@
           <t>1999-Q3</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
+      <c r="B212" t="n">
+        <v>8168.6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>214556.8</v>
+      </c>
       <c r="D212" t="n">
-        <v>358.8</v>
+        <v>214556.8</v>
       </c>
       <c r="E212" t="n">
-        <v>337.6</v>
+        <v>285467.6</v>
       </c>
       <c r="F212" t="n">
-        <v>416.7</v>
+        <v>7827.1</v>
       </c>
       <c r="G212" t="n">
-        <v>390.8</v>
+        <v>42028.7</v>
       </c>
       <c r="H212" t="n">
-        <v>1663.2</v>
+        <v>5749.4</v>
       </c>
       <c r="I212" t="n">
-        <v>1657.6</v>
+        <v>1307.7</v>
       </c>
       <c r="J212" t="n">
-        <v>2823.4</v>
+        <v>2832.7</v>
       </c>
       <c r="K212" t="n">
-        <v>2824.1</v>
+        <v>27260.5</v>
       </c>
       <c r="L212" t="n">
-        <v>1665.3</v>
+        <v>18832.6</v>
       </c>
       <c r="M212" t="n">
-        <v>1656.6</v>
+        <v>712.5</v>
       </c>
       <c r="N212" t="n">
-        <v>3319.6</v>
+        <v>91079.3</v>
       </c>
       <c r="O212" t="n">
-        <v>3298.9</v>
+        <v>4501.8</v>
       </c>
     </row>
     <row r="213">
@@ -7749,43 +7568,47 @@
           <t>1999-Q4</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
+      <c r="B213" t="n">
+        <v>8285.299999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>215872</v>
+      </c>
       <c r="D213" t="n">
-        <v>351.4</v>
+        <v>215872</v>
       </c>
       <c r="E213" t="n">
-        <v>339.8</v>
+        <v>288486</v>
       </c>
       <c r="F213" t="n">
-        <v>407.2</v>
+        <v>8643.799999999999</v>
       </c>
       <c r="G213" t="n">
-        <v>390.5</v>
+        <v>43197.4</v>
       </c>
       <c r="H213" t="n">
-        <v>1628.4</v>
+        <v>5401.1</v>
       </c>
       <c r="I213" t="n">
-        <v>1660.2</v>
+        <v>1570.7</v>
       </c>
       <c r="J213" t="n">
-        <v>2744</v>
+        <v>3462.9</v>
       </c>
       <c r="K213" t="n">
-        <v>2767.8</v>
+        <v>27905</v>
       </c>
       <c r="L213" t="n">
-        <v>1703.1</v>
+        <v>19304</v>
       </c>
       <c r="M213" t="n">
-        <v>1728.4</v>
+        <v>707.2</v>
       </c>
       <c r="N213" t="n">
-        <v>3305.2</v>
+        <v>93543.3</v>
       </c>
       <c r="O213" t="n">
-        <v>3322.8</v>
+        <v>4215.9</v>
       </c>
     </row>
     <row r="214">
@@ -7794,43 +7617,47 @@
           <t>2000-Q1</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
+      <c r="B214" t="n">
+        <v>8317.4</v>
+      </c>
+      <c r="C214" t="n">
+        <v>218043.6</v>
+      </c>
       <c r="D214" t="n">
-        <v>307.5</v>
+        <v>218043.6</v>
       </c>
       <c r="E214" t="n">
-        <v>350.1</v>
+        <v>290394.7</v>
       </c>
       <c r="F214" t="n">
-        <v>348.5</v>
+        <v>8890.9</v>
       </c>
       <c r="G214" t="n">
-        <v>398.9</v>
+        <v>41811.2</v>
       </c>
       <c r="H214" t="n">
-        <v>1740.2</v>
+        <v>10820</v>
       </c>
       <c r="I214" t="n">
-        <v>1774.4</v>
+        <v>1485.4</v>
       </c>
       <c r="J214" t="n">
-        <v>2790.9</v>
+        <v>3305.3</v>
       </c>
       <c r="K214" t="n">
-        <v>2887.8</v>
+        <v>33774</v>
       </c>
       <c r="L214" t="n">
-        <v>1729</v>
+        <v>19053.4</v>
       </c>
       <c r="M214" t="n">
-        <v>1727.9</v>
+        <v>482.9</v>
       </c>
       <c r="N214" t="n">
-        <v>3260.9</v>
+        <v>98913.7</v>
       </c>
       <c r="O214" t="n">
-        <v>3377.6</v>
+        <v>6387.1</v>
       </c>
     </row>
     <row r="215">
@@ -7839,43 +7666,47 @@
           <t>2000-Q2</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
+      <c r="B215" t="n">
+        <v>8356.700000000001</v>
+      </c>
+      <c r="C215" t="n">
+        <v>222588.4</v>
+      </c>
       <c r="D215" t="n">
-        <v>350.7</v>
+        <v>222588.4</v>
       </c>
       <c r="E215" t="n">
-        <v>362.7</v>
+        <v>296347.6</v>
       </c>
       <c r="F215" t="n">
-        <v>401</v>
+        <v>8785.200000000001</v>
       </c>
       <c r="G215" t="n">
-        <v>413.6</v>
+        <v>41675.1</v>
       </c>
       <c r="H215" t="n">
-        <v>1841.1</v>
+        <v>12346.6</v>
       </c>
       <c r="I215" t="n">
-        <v>1790.5</v>
+        <v>1445.1</v>
       </c>
       <c r="J215" t="n">
-        <v>2970.8</v>
+        <v>3225.9</v>
       </c>
       <c r="K215" t="n">
-        <v>2888.6</v>
+        <v>36090.5</v>
       </c>
       <c r="L215" t="n">
-        <v>1824.3</v>
+        <v>19714</v>
       </c>
       <c r="M215" t="n">
-        <v>1823</v>
+        <v>481.3</v>
       </c>
       <c r="N215" t="n">
-        <v>3519.4</v>
+        <v>104438.3</v>
       </c>
       <c r="O215" t="n">
-        <v>3473.7</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="216">
@@ -7884,43 +7715,47 @@
           <t>2000-Q3</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
+      <c r="B216" t="n">
+        <v>8831</v>
+      </c>
+      <c r="C216" t="n">
+        <v>222790.1</v>
+      </c>
       <c r="D216" t="n">
-        <v>387.9</v>
+        <v>222790.1</v>
       </c>
       <c r="E216" t="n">
-        <v>366.3</v>
+        <v>299134.4</v>
       </c>
       <c r="F216" t="n">
-        <v>440.5</v>
+        <v>8513.5</v>
       </c>
       <c r="G216" t="n">
-        <v>415.7</v>
+        <v>42101</v>
       </c>
       <c r="H216" t="n">
-        <v>1801.7</v>
+        <v>11161.3</v>
       </c>
       <c r="I216" t="n">
-        <v>1807.9</v>
+        <v>1394.5</v>
       </c>
       <c r="J216" t="n">
-        <v>2888</v>
+        <v>3014</v>
       </c>
       <c r="K216" t="n">
-        <v>2893.2</v>
+        <v>33590.5</v>
       </c>
       <c r="L216" t="n">
-        <v>1865.9</v>
+        <v>18737.1</v>
       </c>
       <c r="M216" t="n">
-        <v>1889.6</v>
+        <v>476</v>
       </c>
       <c r="N216" t="n">
-        <v>3512</v>
+        <v>102110.5</v>
       </c>
       <c r="O216" t="n">
-        <v>3516.3</v>
+        <v>4104.3</v>
       </c>
     </row>
     <row r="217">
@@ -7929,43 +7764,47 @@
           <t>2000-Q4</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
+      <c r="B217" t="n">
+        <v>8575</v>
+      </c>
+      <c r="C217" t="n">
+        <v>223835.8</v>
+      </c>
       <c r="D217" t="n">
-        <v>407.6</v>
+        <v>223835.8</v>
       </c>
       <c r="E217" t="n">
-        <v>374.7</v>
+        <v>299819</v>
       </c>
       <c r="F217" t="n">
-        <v>462.4</v>
+        <v>9193.700000000001</v>
       </c>
       <c r="G217" t="n">
-        <v>424.2</v>
+        <v>42474.7</v>
       </c>
       <c r="H217" t="n">
-        <v>1885.8</v>
+        <v>10710.1</v>
       </c>
       <c r="I217" t="n">
-        <v>1896</v>
+        <v>1672.5</v>
       </c>
       <c r="J217" t="n">
-        <v>3017.4</v>
+        <v>3554.3</v>
       </c>
       <c r="K217" t="n">
-        <v>2997.5</v>
+        <v>33417.5</v>
       </c>
       <c r="L217" t="n">
-        <v>1951</v>
+        <v>18564.3</v>
       </c>
       <c r="M217" t="n">
-        <v>1929.8</v>
+        <v>472.5</v>
       </c>
       <c r="N217" t="n">
-        <v>3660.1</v>
+        <v>107090.8</v>
       </c>
       <c r="O217" t="n">
-        <v>3584.8</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="218">
@@ -7974,43 +7813,47 @@
           <t>2001-Q1</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
+      <c r="B218" t="n">
+        <v>9068.9</v>
+      </c>
+      <c r="C218" t="n">
+        <v>220495.4</v>
+      </c>
       <c r="D218" t="n">
-        <v>321.4</v>
+        <v>220495.4</v>
       </c>
       <c r="E218" t="n">
-        <v>375.5</v>
+        <v>298041.7</v>
       </c>
       <c r="F218" t="n">
-        <v>364.3</v>
+        <v>9954.299999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>425.2</v>
+        <v>42044.1</v>
       </c>
       <c r="H218" t="n">
-        <v>1888.8</v>
+        <v>8952.6</v>
       </c>
       <c r="I218" t="n">
-        <v>1929</v>
+        <v>1656.5</v>
       </c>
       <c r="J218" t="n">
-        <v>2925.1</v>
+        <v>3322.5</v>
       </c>
       <c r="K218" t="n">
-        <v>3030.4</v>
+        <v>32565.8</v>
       </c>
       <c r="L218" t="n">
-        <v>1979.2</v>
+        <v>20012.4</v>
       </c>
       <c r="M218" t="n">
-        <v>2014.3</v>
+        <v>771.6</v>
       </c>
       <c r="N218" t="n">
-        <v>3567.4</v>
+        <v>99243.2</v>
       </c>
       <c r="O218" t="n">
-        <v>3655.1</v>
+        <v>7847.3</v>
       </c>
     </row>
     <row r="219">
@@ -8019,43 +7862,47 @@
           <t>2001-Q2</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
+      <c r="B219" t="n">
+        <v>8749.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>215926.2</v>
+      </c>
       <c r="D219" t="n">
-        <v>353.8</v>
+        <v>215926.2</v>
       </c>
       <c r="E219" t="n">
-        <v>380.7</v>
+        <v>293456.6</v>
       </c>
       <c r="F219" t="n">
-        <v>397.3</v>
+        <v>8780.1</v>
       </c>
       <c r="G219" t="n">
-        <v>427.3</v>
+        <v>41691.9</v>
       </c>
       <c r="H219" t="n">
-        <v>1966.1</v>
+        <v>8551.6</v>
       </c>
       <c r="I219" t="n">
-        <v>1938</v>
+        <v>1266.1</v>
       </c>
       <c r="J219" t="n">
-        <v>2975</v>
+        <v>2394.5</v>
       </c>
       <c r="K219" t="n">
-        <v>2935.5</v>
+        <v>28543.1</v>
       </c>
       <c r="L219" t="n">
-        <v>1994</v>
+        <v>17205.6</v>
       </c>
       <c r="M219" t="n">
-        <v>2099.6</v>
+        <v>757.5</v>
       </c>
       <c r="N219" t="n">
-        <v>3531.4</v>
+        <v>99556.8</v>
       </c>
       <c r="O219" t="n">
-        <v>3653.4</v>
+        <v>-4032.3</v>
       </c>
     </row>
     <row r="220">
@@ -8064,43 +7911,47 @@
           <t>2001-Q3</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
+      <c r="B220" t="n">
+        <v>8788.299999999999</v>
+      </c>
+      <c r="C220" t="n">
+        <v>213472.6</v>
+      </c>
       <c r="D220" t="n">
-        <v>415.6</v>
+        <v>213472.6</v>
       </c>
       <c r="E220" t="n">
-        <v>388</v>
+        <v>290569.1</v>
       </c>
       <c r="F220" t="n">
-        <v>466.3</v>
+        <v>8872.1</v>
       </c>
       <c r="G220" t="n">
-        <v>434.2</v>
+        <v>42154.6</v>
       </c>
       <c r="H220" t="n">
-        <v>2016.1</v>
+        <v>7871</v>
       </c>
       <c r="I220" t="n">
-        <v>2019.5</v>
+        <v>1401.1</v>
       </c>
       <c r="J220" t="n">
-        <v>3064.2</v>
+        <v>2493.8</v>
       </c>
       <c r="K220" t="n">
-        <v>3062.2</v>
+        <v>27456.1</v>
       </c>
       <c r="L220" t="n">
-        <v>2163.6</v>
+        <v>16788.3</v>
       </c>
       <c r="M220" t="n">
-        <v>2182.7</v>
+        <v>744</v>
       </c>
       <c r="N220" t="n">
-        <v>3766.5</v>
+        <v>95315.2</v>
       </c>
       <c r="O220" t="n">
-        <v>3745.9</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="221">
@@ -8109,43 +7960,47 @@
           <t>2001-Q4</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
+      <c r="B221" t="n">
+        <v>8847.200000000001</v>
+      </c>
+      <c r="C221" t="n">
+        <v>210879.2</v>
+      </c>
       <c r="D221" t="n">
-        <v>447</v>
+        <v>210879.2</v>
       </c>
       <c r="E221" t="n">
-        <v>393.6</v>
+        <v>288844.5</v>
       </c>
       <c r="F221" t="n">
-        <v>496.4</v>
+        <v>9079.200000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>437.5</v>
+        <v>41219.4</v>
       </c>
       <c r="H221" t="n">
-        <v>2177.4</v>
+        <v>7290.7</v>
       </c>
       <c r="I221" t="n">
-        <v>2161.8</v>
+        <v>1561.1</v>
       </c>
       <c r="J221" t="n">
-        <v>3337.7</v>
+        <v>2676.5</v>
       </c>
       <c r="K221" t="n">
-        <v>3274</v>
+        <v>26413.6</v>
       </c>
       <c r="L221" t="n">
-        <v>2344.4</v>
+        <v>16214.7</v>
       </c>
       <c r="M221" t="n">
-        <v>2184.5</v>
+        <v>736</v>
       </c>
       <c r="N221" t="n">
-        <v>3999.9</v>
+        <v>91803.8</v>
       </c>
       <c r="O221" t="n">
-        <v>3810.8</v>
+        <v>-2598.9</v>
       </c>
     </row>
     <row r="222">
@@ -8154,43 +8009,47 @@
           <t>2002-Q1</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
+      <c r="B222" t="n">
+        <v>9000.6</v>
+      </c>
+      <c r="C222" t="n">
+        <v>209825.3</v>
+      </c>
       <c r="D222" t="n">
-        <v>342</v>
+        <v>209825.3</v>
       </c>
       <c r="E222" t="n">
-        <v>395.6</v>
+        <v>288979.1</v>
       </c>
       <c r="F222" t="n">
-        <v>377.1</v>
+        <v>7431.7</v>
       </c>
       <c r="G222" t="n">
-        <v>438.4</v>
+        <v>34257.8</v>
       </c>
       <c r="H222" t="n">
-        <v>2001.2</v>
+        <v>6945.3</v>
       </c>
       <c r="I222" t="n">
-        <v>2052.4</v>
+        <v>1112.3</v>
       </c>
       <c r="J222" t="n">
-        <v>2957.6</v>
+        <v>2029.2</v>
       </c>
       <c r="K222" t="n">
-        <v>3084.7</v>
+        <v>22347.4</v>
       </c>
       <c r="L222" t="n">
-        <v>2197.6</v>
+        <v>13009.6</v>
       </c>
       <c r="M222" t="n">
-        <v>2289</v>
+        <v>615.3</v>
       </c>
       <c r="N222" t="n">
-        <v>3703.6</v>
+        <v>84530.10000000001</v>
       </c>
       <c r="O222" t="n">
-        <v>3847</v>
+        <v>-947.8</v>
       </c>
     </row>
     <row r="223">
@@ -8199,43 +8058,47 @@
           <t>2002-Q2</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
+      <c r="B223" t="n">
+        <v>9148.700000000001</v>
+      </c>
+      <c r="C223" t="n">
+        <v>212296.1</v>
+      </c>
       <c r="D223" t="n">
-        <v>360.6</v>
+        <v>212296.1</v>
       </c>
       <c r="E223" t="n">
-        <v>397.3</v>
+        <v>292532.2</v>
       </c>
       <c r="F223" t="n">
-        <v>399.1</v>
+        <v>7604</v>
       </c>
       <c r="G223" t="n">
-        <v>439.4</v>
+        <v>34353.8</v>
       </c>
       <c r="H223" t="n">
-        <v>2120.2</v>
+        <v>7615.4</v>
       </c>
       <c r="I223" t="n">
-        <v>2099.4</v>
+        <v>1124.9</v>
       </c>
       <c r="J223" t="n">
-        <v>3190.3</v>
+        <v>2159.9</v>
       </c>
       <c r="K223" t="n">
-        <v>3165.5</v>
+        <v>23498.8</v>
       </c>
       <c r="L223" t="n">
-        <v>2256.8</v>
+        <v>13273.2</v>
       </c>
       <c r="M223" t="n">
-        <v>2341.6</v>
+        <v>619</v>
       </c>
       <c r="N223" t="n">
-        <v>3775.5</v>
+        <v>84107.7</v>
       </c>
       <c r="O223" t="n">
-        <v>3900.3</v>
+        <v>1616.8</v>
       </c>
     </row>
     <row r="224">
@@ -8244,43 +8107,47 @@
           <t>2002-Q3</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
+      <c r="B224" t="n">
+        <v>9285.1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>214827</v>
+      </c>
       <c r="D224" t="n">
-        <v>429.8</v>
+        <v>214827</v>
       </c>
       <c r="E224" t="n">
-        <v>402.4</v>
+        <v>296165.2</v>
       </c>
       <c r="F224" t="n">
-        <v>473.9</v>
+        <v>8016.9</v>
       </c>
       <c r="G224" t="n">
-        <v>442.9</v>
+        <v>35210.9</v>
       </c>
       <c r="H224" t="n">
-        <v>2140.2</v>
+        <v>7959.3</v>
       </c>
       <c r="I224" t="n">
-        <v>2148.9</v>
+        <v>1209.9</v>
       </c>
       <c r="J224" t="n">
-        <v>3244.2</v>
+        <v>2474.1</v>
       </c>
       <c r="K224" t="n">
-        <v>3242.9</v>
+        <v>24319.5</v>
       </c>
       <c r="L224" t="n">
-        <v>2397.2</v>
+        <v>13400.7</v>
       </c>
       <c r="M224" t="n">
-        <v>2367.1</v>
+        <v>624.7</v>
       </c>
       <c r="N224" t="n">
-        <v>3956.4</v>
+        <v>87899</v>
       </c>
       <c r="O224" t="n">
-        <v>3919</v>
+        <v>-911.7</v>
       </c>
     </row>
     <row r="225">
@@ -8289,43 +8156,47 @@
           <t>2002-Q4</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
+      <c r="B225" t="n">
+        <v>9408.299999999999</v>
+      </c>
+      <c r="C225" t="n">
+        <v>216298.1</v>
+      </c>
       <c r="D225" t="n">
-        <v>463.2</v>
+        <v>216298.1</v>
       </c>
       <c r="E225" t="n">
-        <v>400.3</v>
+        <v>298989.2</v>
       </c>
       <c r="F225" t="n">
-        <v>509.5</v>
+        <v>7666.1</v>
       </c>
       <c r="G225" t="n">
-        <v>438.9</v>
+        <v>35450.1</v>
       </c>
       <c r="H225" t="n">
-        <v>2265.8</v>
+        <v>7549.3</v>
       </c>
       <c r="I225" t="n">
-        <v>2226.7</v>
+        <v>1153.5</v>
       </c>
       <c r="J225" t="n">
-        <v>3407.9</v>
+        <v>2208.3</v>
       </c>
       <c r="K225" t="n">
-        <v>3306.9</v>
+        <v>23255.3</v>
       </c>
       <c r="L225" t="n">
-        <v>2521</v>
+        <v>13048.5</v>
       </c>
       <c r="M225" t="n">
-        <v>2374.8</v>
+        <v>617.2</v>
       </c>
       <c r="N225" t="n">
-        <v>4178.4</v>
+        <v>85863.3</v>
       </c>
       <c r="O225" t="n">
-        <v>3947.6</v>
+        <v>-818.8</v>
       </c>
     </row>
     <row r="226">
@@ -8334,43 +8205,47 @@
           <t>2003-Q1</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
+      <c r="B226" t="n">
+        <v>9345.799999999999</v>
+      </c>
+      <c r="C226" t="n">
+        <v>221657.5</v>
+      </c>
       <c r="D226" t="n">
-        <v>354.5</v>
+        <v>221657.5</v>
       </c>
       <c r="E226" t="n">
-        <v>391.6</v>
+        <v>303745</v>
       </c>
       <c r="F226" t="n">
-        <v>383</v>
+        <v>8332.6</v>
       </c>
       <c r="G226" t="n">
-        <v>426.9</v>
+        <v>41394.6</v>
       </c>
       <c r="H226" t="n">
-        <v>2160.8</v>
+        <v>3837.1</v>
       </c>
       <c r="I226" t="n">
-        <v>2209.5</v>
+        <v>1327.6</v>
       </c>
       <c r="J226" t="n">
-        <v>3053.5</v>
+        <v>2567.2</v>
       </c>
       <c r="K226" t="n">
-        <v>3184.9</v>
+        <v>21002.2</v>
       </c>
       <c r="L226" t="n">
-        <v>2428</v>
+        <v>14783.1</v>
       </c>
       <c r="M226" t="n">
-        <v>2494.4</v>
+        <v>751.6</v>
       </c>
       <c r="N226" t="n">
-        <v>3760.4</v>
+        <v>91768.7</v>
       </c>
       <c r="O226" t="n">
-        <v>3920.2</v>
+        <v>-3863.4</v>
       </c>
     </row>
     <row r="227">
@@ -8379,43 +8254,47 @@
           <t>2003-Q2</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
+      <c r="B227" t="n">
+        <v>9381.799999999999</v>
+      </c>
+      <c r="C227" t="n">
+        <v>223685</v>
+      </c>
       <c r="D227" t="n">
-        <v>363.3</v>
+        <v>223685</v>
       </c>
       <c r="E227" t="n">
-        <v>394.3</v>
+        <v>306079.5</v>
       </c>
       <c r="F227" t="n">
-        <v>394.1</v>
+        <v>8139.4</v>
       </c>
       <c r="G227" t="n">
-        <v>428.4</v>
+        <v>41365.3</v>
       </c>
       <c r="H227" t="n">
-        <v>2290.6</v>
+        <v>5205.4</v>
       </c>
       <c r="I227" t="n">
-        <v>2265.8</v>
+        <v>1193.2</v>
       </c>
       <c r="J227" t="n">
-        <v>3240.6</v>
+        <v>2411.7</v>
       </c>
       <c r="K227" t="n">
-        <v>3215.8</v>
+        <v>23166.3</v>
       </c>
       <c r="L227" t="n">
-        <v>2462.3</v>
+        <v>15557.3</v>
       </c>
       <c r="M227" t="n">
-        <v>2535.1</v>
+        <v>751.3</v>
       </c>
       <c r="N227" t="n">
-        <v>3823.6</v>
+        <v>88281.2</v>
       </c>
       <c r="O227" t="n">
-        <v>3923.8</v>
+        <v>5494.7</v>
       </c>
     </row>
     <row r="228">
@@ -8424,43 +8303,47 @@
           <t>2003-Q3</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
+      <c r="B228" t="n">
+        <v>9407.799999999999</v>
+      </c>
+      <c r="C228" t="n">
+        <v>228050.2</v>
+      </c>
       <c r="D228" t="n">
-        <v>411.7</v>
+        <v>228050.2</v>
       </c>
       <c r="E228" t="n">
-        <v>398</v>
+        <v>310898.1</v>
       </c>
       <c r="F228" t="n">
-        <v>446.4</v>
+        <v>8308.5</v>
       </c>
       <c r="G228" t="n">
-        <v>430.7</v>
+        <v>42547.2</v>
       </c>
       <c r="H228" t="n">
-        <v>2287.4</v>
+        <v>5692.6</v>
       </c>
       <c r="I228" t="n">
-        <v>2303.2</v>
+        <v>1291.8</v>
       </c>
       <c r="J228" t="n">
-        <v>3167</v>
+        <v>2551.7</v>
       </c>
       <c r="K228" t="n">
-        <v>3169.9</v>
+        <v>24367.4</v>
       </c>
       <c r="L228" t="n">
-        <v>2612</v>
+        <v>16089.5</v>
       </c>
       <c r="M228" t="n">
-        <v>2573.6</v>
+        <v>749.3</v>
       </c>
       <c r="N228" t="n">
-        <v>4004.5</v>
+        <v>98760.10000000001</v>
       </c>
       <c r="O228" t="n">
-        <v>3924.5</v>
+        <v>-546.5</v>
       </c>
     </row>
     <row r="229">
@@ -8469,43 +8352,47 @@
           <t>2003-Q4</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
+      <c r="B229" t="n">
+        <v>9476.9</v>
+      </c>
+      <c r="C229" t="n">
+        <v>231715.4</v>
+      </c>
       <c r="D229" t="n">
-        <v>463.4</v>
+        <v>231715.4</v>
       </c>
       <c r="E229" t="n">
-        <v>409.1</v>
+        <v>315273.7</v>
       </c>
       <c r="F229" t="n">
-        <v>504.2</v>
+        <v>8321.299999999999</v>
       </c>
       <c r="G229" t="n">
-        <v>441.7</v>
+        <v>42963.6</v>
       </c>
       <c r="H229" t="n">
-        <v>2389.9</v>
+        <v>5572.7</v>
       </c>
       <c r="I229" t="n">
-        <v>2350.2</v>
+        <v>1316.4</v>
       </c>
       <c r="J229" t="n">
-        <v>3282.6</v>
+        <v>2566</v>
       </c>
       <c r="K229" t="n">
-        <v>3173.2</v>
+        <v>24597.7</v>
       </c>
       <c r="L229" t="n">
-        <v>2655.4</v>
+        <v>16458.8</v>
       </c>
       <c r="M229" t="n">
-        <v>2554.7</v>
+        <v>744.5</v>
       </c>
       <c r="N229" t="n">
-        <v>4086.9</v>
+        <v>92450</v>
       </c>
       <c r="O229" t="n">
-        <v>3906.9</v>
+        <v>4663.7</v>
       </c>
     </row>
     <row r="230">
@@ -8514,43 +8401,47 @@
           <t>2004-Q1</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
+      <c r="B230" t="n">
+        <v>9535.200000000001</v>
+      </c>
+      <c r="C230" t="n">
+        <v>236267.7</v>
+      </c>
       <c r="D230" t="n">
-        <v>413</v>
+        <v>236267.7</v>
       </c>
       <c r="E230" t="n">
-        <v>427.9</v>
+        <v>320260.3</v>
       </c>
       <c r="F230" t="n">
-        <v>441.5</v>
+        <v>8107.1</v>
       </c>
       <c r="G230" t="n">
-        <v>459.6</v>
+        <v>53258</v>
       </c>
       <c r="H230" t="n">
-        <v>2407</v>
+        <v>6931.6</v>
       </c>
       <c r="I230" t="n">
-        <v>2447.5</v>
+        <v>1811.6</v>
       </c>
       <c r="J230" t="n">
-        <v>3070.8</v>
+        <v>3718.8</v>
       </c>
       <c r="K230" t="n">
-        <v>3187.1</v>
+        <v>26817.2</v>
       </c>
       <c r="L230" t="n">
-        <v>2919.8</v>
+        <v>16039.2</v>
       </c>
       <c r="M230" t="n">
-        <v>2956.3</v>
+        <v>584.3</v>
       </c>
       <c r="N230" t="n">
-        <v>4186.9</v>
+        <v>110811.4</v>
       </c>
       <c r="O230" t="n">
-        <v>4335</v>
+        <v>-2559.6</v>
       </c>
     </row>
     <row r="231">
@@ -8559,43 +8450,47 @@
           <t>2004-Q2</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
+      <c r="B231" t="n">
+        <v>9589.299999999999</v>
+      </c>
+      <c r="C231" t="n">
+        <v>238232.4</v>
+      </c>
       <c r="D231" t="n">
-        <v>407.3</v>
+        <v>238232.4</v>
       </c>
       <c r="E231" t="n">
-        <v>440.9</v>
+        <v>322846.7</v>
       </c>
       <c r="F231" t="n">
-        <v>435.8</v>
+        <v>7620.4</v>
       </c>
       <c r="G231" t="n">
-        <v>472.9</v>
+        <v>58742.8</v>
       </c>
       <c r="H231" t="n">
-        <v>2509.2</v>
+        <v>8228.5</v>
       </c>
       <c r="I231" t="n">
-        <v>2484.9</v>
+        <v>1541.5</v>
       </c>
       <c r="J231" t="n">
-        <v>3209</v>
+        <v>3150</v>
       </c>
       <c r="K231" t="n">
-        <v>3192.4</v>
+        <v>29928.2</v>
       </c>
       <c r="L231" t="n">
-        <v>2865.2</v>
+        <v>18288.8</v>
       </c>
       <c r="M231" t="n">
-        <v>2973</v>
+        <v>568.9</v>
       </c>
       <c r="N231" t="n">
-        <v>4108.9</v>
+        <v>113887.2</v>
       </c>
       <c r="O231" t="n">
-        <v>4228.6</v>
+        <v>9579.299999999999</v>
       </c>
     </row>
     <row r="232">
@@ -8604,43 +8499,47 @@
           <t>2004-Q3</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
+      <c r="B232" t="n">
+        <v>9664.799999999999</v>
+      </c>
+      <c r="C232" t="n">
+        <v>244288.1</v>
+      </c>
       <c r="D232" t="n">
-        <v>452.4</v>
+        <v>244288.1</v>
       </c>
       <c r="E232" t="n">
-        <v>450.8</v>
+        <v>329699.9</v>
       </c>
       <c r="F232" t="n">
-        <v>487.5</v>
+        <v>8055.4</v>
       </c>
       <c r="G232" t="n">
-        <v>484.8</v>
+        <v>55987</v>
       </c>
       <c r="H232" t="n">
-        <v>2519.9</v>
+        <v>9994.200000000001</v>
       </c>
       <c r="I232" t="n">
-        <v>2546</v>
+        <v>1803.5</v>
       </c>
       <c r="J232" t="n">
-        <v>3254.9</v>
+        <v>3673.7</v>
       </c>
       <c r="K232" t="n">
-        <v>3268</v>
+        <v>31801.7</v>
       </c>
       <c r="L232" t="n">
-        <v>2970.7</v>
+        <v>17638.8</v>
       </c>
       <c r="M232" t="n">
-        <v>2965.1</v>
+        <v>561.2</v>
       </c>
       <c r="N232" t="n">
-        <v>4236.6</v>
+        <v>118599.3</v>
       </c>
       <c r="O232" t="n">
-        <v>4160.8</v>
+        <v>5446.7</v>
       </c>
     </row>
     <row r="233">
@@ -8649,43 +8548,47 @@
           <t>2004-Q4</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
+      <c r="B233" t="n">
+        <v>9658</v>
+      </c>
+      <c r="C233" t="n">
+        <v>252650.8</v>
+      </c>
       <c r="D233" t="n">
-        <v>510.6</v>
+        <v>252650.8</v>
       </c>
       <c r="E233" t="n">
-        <v>463.7</v>
+        <v>338196.1</v>
       </c>
       <c r="F233" t="n">
-        <v>552.6</v>
+        <v>8323.5</v>
       </c>
       <c r="G233" t="n">
-        <v>500.2</v>
+        <v>66419.5</v>
       </c>
       <c r="H233" t="n">
-        <v>2629.1</v>
+        <v>8072.5</v>
       </c>
       <c r="I233" t="n">
-        <v>2586.9</v>
+        <v>1941</v>
       </c>
       <c r="J233" t="n">
-        <v>3461.3</v>
+        <v>4035.5</v>
       </c>
       <c r="K233" t="n">
-        <v>3348.4</v>
+        <v>30601.6</v>
       </c>
       <c r="L233" t="n">
-        <v>3167</v>
+        <v>18312.3</v>
       </c>
       <c r="M233" t="n">
-        <v>3028.2</v>
+        <v>556.7</v>
       </c>
       <c r="N233" t="n">
-        <v>4345.6</v>
+        <v>127545.7</v>
       </c>
       <c r="O233" t="n">
-        <v>4153.5</v>
+        <v>1808.8</v>
       </c>
     </row>
     <row r="234">
@@ -8694,43 +8597,47 @@
           <t>2005-Q1</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
+      <c r="B234" t="n">
+        <v>9789.299999999999</v>
+      </c>
+      <c r="C234" t="n">
+        <v>257598.7</v>
+      </c>
       <c r="D234" t="n">
-        <v>470.7</v>
+        <v>257598.7</v>
       </c>
       <c r="E234" t="n">
-        <v>483</v>
+        <v>344744</v>
       </c>
       <c r="F234" t="n">
-        <v>510.4</v>
+        <v>8723.299999999999</v>
       </c>
       <c r="G234" t="n">
-        <v>523.7</v>
+        <v>62259</v>
       </c>
       <c r="H234" t="n">
-        <v>2619.8</v>
+        <v>8396.700000000001</v>
       </c>
       <c r="I234" t="n">
-        <v>2666.2</v>
+        <v>2114.4</v>
       </c>
       <c r="J234" t="n">
-        <v>3354</v>
+        <v>4668.2</v>
       </c>
       <c r="K234" t="n">
-        <v>3471.1</v>
+        <v>41357.3</v>
       </c>
       <c r="L234" t="n">
-        <v>3068.3</v>
+        <v>28444.8</v>
       </c>
       <c r="M234" t="n">
-        <v>3029.6</v>
+        <v>627.2</v>
       </c>
       <c r="N234" t="n">
-        <v>4004.5</v>
+        <v>135196.7</v>
       </c>
       <c r="O234" t="n">
-        <v>4119.3</v>
+        <v>-2422</v>
       </c>
     </row>
     <row r="235">
@@ -8739,43 +8646,47 @@
           <t>2005-Q2</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
+      <c r="B235" t="n">
+        <v>9853.9</v>
+      </c>
+      <c r="C235" t="n">
+        <v>271708.9</v>
+      </c>
       <c r="D235" t="n">
-        <v>444.4</v>
+        <v>271708.9</v>
       </c>
       <c r="E235" t="n">
-        <v>491.3</v>
+        <v>360499.2</v>
       </c>
       <c r="F235" t="n">
-        <v>482.9</v>
+        <v>8390.1</v>
       </c>
       <c r="G235" t="n">
-        <v>534</v>
+        <v>74592.39999999999</v>
       </c>
       <c r="H235" t="n">
-        <v>2712.8</v>
+        <v>4000.3</v>
       </c>
       <c r="I235" t="n">
-        <v>2685.6</v>
+        <v>1952.8</v>
       </c>
       <c r="J235" t="n">
-        <v>3459.2</v>
+        <v>4315.8</v>
       </c>
       <c r="K235" t="n">
-        <v>3439.1</v>
+        <v>37663.2</v>
       </c>
       <c r="L235" t="n">
-        <v>2975.7</v>
+        <v>30118.8</v>
       </c>
       <c r="M235" t="n">
-        <v>3085.1</v>
+        <v>626.9</v>
       </c>
       <c r="N235" t="n">
-        <v>4038.8</v>
+        <v>134337.2</v>
       </c>
       <c r="O235" t="n">
-        <v>4137.5</v>
+        <v>11387.5</v>
       </c>
     </row>
     <row r="236">
@@ -8784,43 +8695,47 @@
           <t>2005-Q3</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
+      <c r="B236" t="n">
+        <v>9992.1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>277434.1</v>
+      </c>
       <c r="D236" t="n">
-        <v>506.7</v>
+        <v>277434.1</v>
       </c>
       <c r="E236" t="n">
-        <v>507.3</v>
+        <v>367603.9</v>
       </c>
       <c r="F236" t="n">
-        <v>551</v>
+        <v>8603.9</v>
       </c>
       <c r="G236" t="n">
-        <v>550.7</v>
+        <v>88186.2</v>
       </c>
       <c r="H236" t="n">
-        <v>2728</v>
+        <v>3275.9</v>
       </c>
       <c r="I236" t="n">
-        <v>2763.7</v>
+        <v>2037.9</v>
       </c>
       <c r="J236" t="n">
-        <v>3490.1</v>
+        <v>4585.1</v>
       </c>
       <c r="K236" t="n">
-        <v>3510.2</v>
+        <v>42938.1</v>
       </c>
       <c r="L236" t="n">
-        <v>3165</v>
+        <v>36161.9</v>
       </c>
       <c r="M236" t="n">
-        <v>3163.8</v>
+        <v>623.8</v>
       </c>
       <c r="N236" t="n">
-        <v>4330.9</v>
+        <v>166964.3</v>
       </c>
       <c r="O236" t="n">
-        <v>4224.2</v>
+        <v>9604.6</v>
       </c>
     </row>
     <row r="237">
@@ -8829,43 +8744,47 @@
           <t>2005-Q4</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
+      <c r="B237" t="n">
+        <v>10111.2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>280838.3</v>
+      </c>
       <c r="D237" t="n">
-        <v>577.4</v>
+        <v>280838.3</v>
       </c>
       <c r="E237" t="n">
-        <v>517.7</v>
+        <v>371764.8</v>
       </c>
       <c r="F237" t="n">
-        <v>624</v>
+        <v>8621.4</v>
       </c>
       <c r="G237" t="n">
-        <v>559.9</v>
+        <v>88502.60000000001</v>
       </c>
       <c r="H237" t="n">
-        <v>2910.4</v>
+        <v>10160.9</v>
       </c>
       <c r="I237" t="n">
-        <v>2855.5</v>
+        <v>2012.3</v>
       </c>
       <c r="J237" t="n">
-        <v>3620.1</v>
+        <v>4672.2</v>
       </c>
       <c r="K237" t="n">
-        <v>3502.9</v>
+        <v>51123.3</v>
       </c>
       <c r="L237" t="n">
-        <v>3327.2</v>
+        <v>36461.3</v>
       </c>
       <c r="M237" t="n">
-        <v>3257.7</v>
+        <v>620.1</v>
       </c>
       <c r="N237" t="n">
-        <v>4405.6</v>
+        <v>159724.8</v>
       </c>
       <c r="O237" t="n">
-        <v>4298.7</v>
+        <v>22247.6</v>
       </c>
     </row>
     <row r="238">
@@ -8874,43 +8793,47 @@
           <t>2006-Q1</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
+      <c r="B238" t="n">
+        <v>10249.2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>284834.7</v>
+      </c>
       <c r="D238" t="n">
-        <v>507.2</v>
+        <v>284834.7</v>
       </c>
       <c r="E238" t="n">
-        <v>523.4</v>
+        <v>377100.1</v>
       </c>
       <c r="F238" t="n">
-        <v>547.5</v>
+        <v>12985.9</v>
       </c>
       <c r="G238" t="n">
-        <v>565.3</v>
+        <v>101981.1</v>
       </c>
       <c r="H238" t="n">
-        <v>2874.3</v>
+        <v>8851.6</v>
       </c>
       <c r="I238" t="n">
-        <v>2945.5</v>
+        <v>2007.5</v>
       </c>
       <c r="J238" t="n">
-        <v>3456.2</v>
+        <v>4323.4</v>
       </c>
       <c r="K238" t="n">
-        <v>3593.3</v>
+        <v>49572.7</v>
       </c>
       <c r="L238" t="n">
-        <v>3419.3</v>
+        <v>36715.1</v>
       </c>
       <c r="M238" t="n">
-        <v>3375.5</v>
+        <v>603.2</v>
       </c>
       <c r="N238" t="n">
-        <v>4333.3</v>
+        <v>189659.9</v>
       </c>
       <c r="O238" t="n">
-        <v>4375.2</v>
+        <v>7581.4</v>
       </c>
     </row>
     <row r="239">
@@ -8919,43 +8842,47 @@
           <t>2006-Q2</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
+      <c r="B239" t="n">
+        <v>10026.1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>284874.5</v>
+      </c>
       <c r="D239" t="n">
-        <v>492.7</v>
+        <v>284874.5</v>
       </c>
       <c r="E239" t="n">
-        <v>545.4</v>
+        <v>376827.7</v>
       </c>
       <c r="F239" t="n">
-        <v>528.1</v>
+        <v>11720.9</v>
       </c>
       <c r="G239" t="n">
-        <v>586.5</v>
+        <v>93234.10000000001</v>
       </c>
       <c r="H239" t="n">
-        <v>3088.2</v>
+        <v>14454.3</v>
       </c>
       <c r="I239" t="n">
-        <v>3044.4</v>
+        <v>1692.1</v>
       </c>
       <c r="J239" t="n">
-        <v>3666</v>
+        <v>3133</v>
       </c>
       <c r="K239" t="n">
-        <v>3634.1</v>
+        <v>51799.9</v>
       </c>
       <c r="L239" t="n">
-        <v>3431.6</v>
+        <v>33574.9</v>
       </c>
       <c r="M239" t="n">
-        <v>3512.7</v>
+        <v>588.9</v>
       </c>
       <c r="N239" t="n">
-        <v>4471.6</v>
+        <v>187385.5</v>
       </c>
       <c r="O239" t="n">
-        <v>4497.1</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="240">
@@ -8964,43 +8891,47 @@
           <t>2006-Q3</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
+      <c r="B240" t="n">
+        <v>10539</v>
+      </c>
+      <c r="C240" t="n">
+        <v>279316.8</v>
+      </c>
       <c r="D240" t="n">
-        <v>550.8</v>
+        <v>279316.8</v>
       </c>
       <c r="E240" t="n">
-        <v>555</v>
+        <v>374349.7</v>
       </c>
       <c r="F240" t="n">
-        <v>591.9</v>
+        <v>11955.8</v>
       </c>
       <c r="G240" t="n">
-        <v>595.7</v>
+        <v>92793</v>
       </c>
       <c r="H240" t="n">
-        <v>3087.8</v>
+        <v>9543.4</v>
       </c>
       <c r="I240" t="n">
-        <v>3132.9</v>
+        <v>1841.7</v>
       </c>
       <c r="J240" t="n">
-        <v>3664.3</v>
+        <v>3429.9</v>
       </c>
       <c r="K240" t="n">
-        <v>3696.7</v>
+        <v>44083.6</v>
       </c>
       <c r="L240" t="n">
-        <v>3628.9</v>
+        <v>31083.3</v>
       </c>
       <c r="M240" t="n">
-        <v>3597.9</v>
+        <v>559.1</v>
       </c>
       <c r="N240" t="n">
-        <v>4591.9</v>
+        <v>188292.3</v>
       </c>
       <c r="O240" t="n">
-        <v>4511.1</v>
+        <v>10392.5</v>
       </c>
     </row>
     <row r="241">
@@ -9009,43 +8940,47 @@
           <t>2006-Q4</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
+      <c r="B241" t="n">
+        <v>10575.3</v>
+      </c>
+      <c r="C241" t="n">
+        <v>280316.1</v>
+      </c>
       <c r="D241" t="n">
-        <v>650.9</v>
+        <v>280316.1</v>
       </c>
       <c r="E241" t="n">
-        <v>577.8</v>
+        <v>375843.7</v>
       </c>
       <c r="F241" t="n">
-        <v>700.3</v>
+        <v>11905.2</v>
       </c>
       <c r="G241" t="n">
-        <v>620.4</v>
+        <v>91518.3</v>
       </c>
       <c r="H241" t="n">
-        <v>3263.5</v>
+        <v>41527.7</v>
       </c>
       <c r="I241" t="n">
-        <v>3191</v>
+        <v>1814.6</v>
       </c>
       <c r="J241" t="n">
-        <v>3926.1</v>
+        <v>3401.8</v>
       </c>
       <c r="K241" t="n">
-        <v>3788.5</v>
+        <v>80303.5</v>
       </c>
       <c r="L241" t="n">
-        <v>3677.1</v>
+        <v>31082.3</v>
       </c>
       <c r="M241" t="n">
-        <v>3670.7</v>
+        <v>552.6</v>
       </c>
       <c r="N241" t="n">
-        <v>4519.2</v>
+        <v>203865.5</v>
       </c>
       <c r="O241" t="n">
-        <v>4532.7</v>
+        <v>28026.6</v>
       </c>
     </row>
     <row r="242">
@@ -9054,43 +8989,47 @@
           <t>2007-Q1</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
+      <c r="B242" t="n">
+        <v>10675.6</v>
+      </c>
+      <c r="C242" t="n">
+        <v>281888.1</v>
+      </c>
       <c r="D242" t="n">
-        <v>594.4</v>
+        <v>281888.1</v>
       </c>
       <c r="E242" t="n">
-        <v>594.5</v>
+        <v>378841.2</v>
       </c>
       <c r="F242" t="n">
-        <v>635.4</v>
+        <v>13350.6</v>
       </c>
       <c r="G242" t="n">
-        <v>635.5</v>
+        <v>85152.39999999999</v>
       </c>
       <c r="H242" t="n">
-        <v>3159.9</v>
+        <v>-3427.2</v>
       </c>
       <c r="I242" t="n">
-        <v>3261.1</v>
+        <v>3713.4</v>
       </c>
       <c r="J242" t="n">
-        <v>3647.4</v>
+        <v>7037.4</v>
       </c>
       <c r="K242" t="n">
-        <v>3815.9</v>
+        <v>33364.8</v>
       </c>
       <c r="L242" t="n">
-        <v>3832.3</v>
+        <v>32046.4</v>
       </c>
       <c r="M242" t="n">
-        <v>3754.6</v>
+        <v>583.3</v>
       </c>
       <c r="N242" t="n">
-        <v>4688.6</v>
+        <v>167438.1</v>
       </c>
       <c r="O242" t="n">
-        <v>4655.7</v>
+        <v>-3385.2</v>
       </c>
     </row>
     <row r="243">
@@ -9099,43 +9038,47 @@
           <t>2007-Q2</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="inlineStr"/>
+      <c r="B243" t="n">
+        <v>10819.6</v>
+      </c>
+      <c r="C243" t="n">
+        <v>304851.7</v>
+      </c>
       <c r="D243" t="n">
-        <v>531.5</v>
+        <v>304851.7</v>
       </c>
       <c r="E243" t="n">
-        <v>603.6</v>
+        <v>404791.1</v>
       </c>
       <c r="F243" t="n">
-        <v>567.9</v>
+        <v>13509.9</v>
       </c>
       <c r="G243" t="n">
-        <v>645.6</v>
+        <v>83860.10000000001</v>
       </c>
       <c r="H243" t="n">
-        <v>3424.7</v>
+        <v>11080.4</v>
       </c>
       <c r="I243" t="n">
-        <v>3364.3</v>
+        <v>3697.3</v>
       </c>
       <c r="J243" t="n">
-        <v>4010.2</v>
+        <v>7402.9</v>
       </c>
       <c r="K243" t="n">
-        <v>3961</v>
+        <v>51567.5</v>
       </c>
       <c r="L243" t="n">
-        <v>3702.1</v>
+        <v>33392.1</v>
       </c>
       <c r="M243" t="n">
-        <v>3805</v>
+        <v>578.2</v>
       </c>
       <c r="N243" t="n">
-        <v>4498.5</v>
+        <v>178869.2</v>
       </c>
       <c r="O243" t="n">
-        <v>4656.3</v>
+        <v>10446.5</v>
       </c>
     </row>
     <row r="244">
@@ -9144,43 +9087,47 @@
           <t>2007-Q3</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr"/>
+      <c r="B244" t="n">
+        <v>10793.4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>310242.3</v>
+      </c>
       <c r="D244" t="n">
-        <v>620</v>
+        <v>310242.3</v>
       </c>
       <c r="E244" t="n">
-        <v>616.8</v>
+        <v>403672.9</v>
       </c>
       <c r="F244" t="n">
-        <v>666.1</v>
+        <v>13881.8</v>
       </c>
       <c r="G244" t="n">
-        <v>660.8</v>
+        <v>86473.10000000001</v>
       </c>
       <c r="H244" t="n">
-        <v>3372.4</v>
+        <v>9720</v>
       </c>
       <c r="I244" t="n">
-        <v>3428.9</v>
+        <v>3942.1</v>
       </c>
       <c r="J244" t="n">
-        <v>3965.3</v>
+        <v>7908.2</v>
       </c>
       <c r="K244" t="n">
-        <v>4007.5</v>
+        <v>48482</v>
       </c>
       <c r="L244" t="n">
-        <v>3960.8</v>
+        <v>31336.8</v>
       </c>
       <c r="M244" t="n">
-        <v>3936.4</v>
+        <v>571.6</v>
       </c>
       <c r="N244" t="n">
-        <v>4807</v>
+        <v>177792.8</v>
       </c>
       <c r="O244" t="n">
-        <v>4732.5</v>
+        <v>18894.3</v>
       </c>
     </row>
     <row r="245">
@@ -9189,43 +9136,47 @@
           <t>2007-Q4</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
+      <c r="B245" t="n">
+        <v>10958</v>
+      </c>
+      <c r="C245" t="n">
+        <v>307945.6</v>
+      </c>
       <c r="D245" t="n">
-        <v>688.5</v>
+        <v>307945.6</v>
       </c>
       <c r="E245" t="n">
-        <v>619.6</v>
+        <v>407817.1</v>
       </c>
       <c r="F245" t="n">
-        <v>735.2</v>
+        <v>13332.9</v>
       </c>
       <c r="G245" t="n">
-        <v>662.7</v>
+        <v>83478.3</v>
       </c>
       <c r="H245" t="n">
-        <v>3682.9</v>
+        <v>-8401.5</v>
       </c>
       <c r="I245" t="n">
-        <v>3585.7</v>
+        <v>3755.2</v>
       </c>
       <c r="J245" t="n">
-        <v>4279.2</v>
+        <v>7231.1</v>
       </c>
       <c r="K245" t="n">
-        <v>4117.8</v>
+        <v>24270.6</v>
       </c>
       <c r="L245" t="n">
-        <v>4023.1</v>
+        <v>28334.7</v>
       </c>
       <c r="M245" t="n">
-        <v>4022.4</v>
+        <v>567.5</v>
       </c>
       <c r="N245" t="n">
-        <v>4886.3</v>
+        <v>151130.8</v>
       </c>
       <c r="O245" t="n">
-        <v>4835.9</v>
+        <v>16053.9</v>
       </c>
     </row>
     <row r="246">
@@ -9234,43 +9185,47 @@
           <t>2008-Q1</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
+      <c r="B246" t="n">
+        <v>11499.7</v>
+      </c>
+      <c r="C246" t="n">
+        <v>304718.3</v>
+      </c>
       <c r="D246" t="n">
-        <v>734.3</v>
+        <v>304718.3</v>
       </c>
       <c r="E246" t="n">
-        <v>725.6</v>
+        <v>406895.1</v>
       </c>
       <c r="F246" t="n">
-        <v>779.8</v>
+        <v>11394.5</v>
       </c>
       <c r="G246" t="n">
-        <v>766.7</v>
+        <v>77962.3</v>
       </c>
       <c r="H246" t="n">
-        <v>3496.3</v>
+        <v>2813.8</v>
       </c>
       <c r="I246" t="n">
-        <v>3617.2</v>
+        <v>4837.1</v>
       </c>
       <c r="J246" t="n">
-        <v>3877.9</v>
+        <v>8414.6</v>
       </c>
       <c r="K246" t="n">
-        <v>4056.3</v>
+        <v>43186.3</v>
       </c>
       <c r="L246" t="n">
-        <v>4251.5</v>
+        <v>33519.4</v>
       </c>
       <c r="M246" t="n">
-        <v>4117.7</v>
+        <v>580.3</v>
       </c>
       <c r="N246" t="n">
-        <v>4816</v>
+        <v>165533.5</v>
       </c>
       <c r="O246" t="n">
-        <v>4868.2</v>
+        <v>-865.4</v>
       </c>
     </row>
     <row r="247">
@@ -9279,43 +9234,47 @@
           <t>2008-Q2</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
+      <c r="B247" t="n">
+        <v>11395.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>292630.6</v>
+      </c>
       <c r="D247" t="n">
-        <v>626</v>
+        <v>292630.6</v>
       </c>
       <c r="E247" t="n">
-        <v>721.8</v>
+        <v>393866.1</v>
       </c>
       <c r="F247" t="n">
-        <v>661.5</v>
+        <v>9956.1</v>
       </c>
       <c r="G247" t="n">
-        <v>761.3</v>
+        <v>76986.39999999999</v>
       </c>
       <c r="H247" t="n">
-        <v>3802.7</v>
+        <v>-2580.2</v>
       </c>
       <c r="I247" t="n">
-        <v>3725.9</v>
+        <v>4199.4</v>
       </c>
       <c r="J247" t="n">
-        <v>4173.2</v>
+        <v>6044.4</v>
       </c>
       <c r="K247" t="n">
-        <v>4107.3</v>
+        <v>26016.1</v>
       </c>
       <c r="L247" t="n">
-        <v>4139.6</v>
+        <v>24743</v>
       </c>
       <c r="M247" t="n">
-        <v>4234.3</v>
+        <v>558.3</v>
       </c>
       <c r="N247" t="n">
-        <v>4768.5</v>
+        <v>126488.9</v>
       </c>
       <c r="O247" t="n">
-        <v>4955.6</v>
+        <v>16336</v>
       </c>
     </row>
     <row r="248">
@@ -9324,43 +9283,47 @@
           <t>2008-Q3</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
+      <c r="B248" t="n">
+        <v>11415.5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>279825.8</v>
+      </c>
       <c r="D248" t="n">
-        <v>731.4</v>
+        <v>279825.8</v>
       </c>
       <c r="E248" t="n">
-        <v>721.7</v>
+        <v>379257.1</v>
       </c>
       <c r="F248" t="n">
-        <v>769.4</v>
+        <v>10677.4</v>
       </c>
       <c r="G248" t="n">
-        <v>760.3</v>
+        <v>71372.60000000001</v>
       </c>
       <c r="H248" t="n">
-        <v>3681.5</v>
+        <v>954.1</v>
       </c>
       <c r="I248" t="n">
-        <v>3730.4</v>
+        <v>6043.4</v>
       </c>
       <c r="J248" t="n">
-        <v>4030.1</v>
+        <v>8389.799999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>4068.8</v>
+        <v>30783.4</v>
       </c>
       <c r="L248" t="n">
-        <v>4417.5</v>
+        <v>23019.2</v>
       </c>
       <c r="M248" t="n">
-        <v>4385.9</v>
+        <v>577.1</v>
       </c>
       <c r="N248" t="n">
-        <v>5179.6</v>
+        <v>152300</v>
       </c>
       <c r="O248" t="n">
-        <v>5015.2</v>
+        <v>-7238.2</v>
       </c>
     </row>
     <row r="249">
@@ -9369,43 +9332,47 @@
           <t>2008-Q4</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
+      <c r="B249" t="n">
+        <v>11403.4</v>
+      </c>
+      <c r="C249" t="n">
+        <v>241703.3</v>
+      </c>
       <c r="D249" t="n">
-        <v>799.7</v>
+        <v>241703.3</v>
       </c>
       <c r="E249" t="n">
-        <v>722.3</v>
+        <v>349326.4</v>
       </c>
       <c r="F249" t="n">
-        <v>841.4</v>
+        <v>9094.4</v>
       </c>
       <c r="G249" t="n">
-        <v>763.8</v>
+        <v>63311.2</v>
       </c>
       <c r="H249" t="n">
-        <v>3899</v>
+        <v>1558.6</v>
       </c>
       <c r="I249" t="n">
-        <v>3806</v>
+        <v>4843.4</v>
       </c>
       <c r="J249" t="n">
-        <v>4368.5</v>
+        <v>5092.3</v>
       </c>
       <c r="K249" t="n">
-        <v>4217.3</v>
+        <v>23466.3</v>
       </c>
       <c r="L249" t="n">
-        <v>4430.1</v>
+        <v>17694.2</v>
       </c>
       <c r="M249" t="n">
-        <v>4500.8</v>
+        <v>556.5</v>
       </c>
       <c r="N249" t="n">
-        <v>5093.5</v>
+        <v>117109.5</v>
       </c>
       <c r="O249" t="n">
-        <v>5018.6</v>
+        <v>-7797.2</v>
       </c>
     </row>
     <row r="250">
@@ -9414,43 +9381,47 @@
           <t>2009-Q1</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
+      <c r="B250" t="n">
+        <v>11459</v>
+      </c>
+      <c r="C250" t="n">
+        <v>242324.1</v>
+      </c>
       <c r="D250" t="n">
-        <v>719.2</v>
+        <v>242324.1</v>
       </c>
       <c r="E250" t="n">
-        <v>712.5</v>
+        <v>341974.4</v>
       </c>
       <c r="F250" t="n">
-        <v>765.2</v>
+        <v>8762.1</v>
       </c>
       <c r="G250" t="n">
-        <v>757.6</v>
+        <v>38725.7</v>
       </c>
       <c r="H250" t="n">
-        <v>3663.9</v>
+        <v>-9373.6</v>
       </c>
       <c r="I250" t="n">
-        <v>3783</v>
+        <v>2099</v>
       </c>
       <c r="J250" t="n">
-        <v>4049.9</v>
+        <v>2476.5</v>
       </c>
       <c r="K250" t="n">
-        <v>4222.3</v>
+        <v>4211.9</v>
       </c>
       <c r="L250" t="n">
-        <v>4190.5</v>
+        <v>14323.5</v>
       </c>
       <c r="M250" t="n">
-        <v>4104.6</v>
+        <v>398</v>
       </c>
       <c r="N250" t="n">
-        <v>4588.3</v>
+        <v>76693.5</v>
       </c>
       <c r="O250" t="n">
-        <v>4666.2</v>
+        <v>-10469.5</v>
       </c>
     </row>
     <row r="251">
@@ -9459,43 +9430,47 @@
           <t>2009-Q2</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
+      <c r="B251" t="n">
+        <v>11438.5</v>
+      </c>
+      <c r="C251" t="n">
+        <v>244972.2</v>
+      </c>
       <c r="D251" t="n">
-        <v>617.9</v>
+        <v>244972.2</v>
       </c>
       <c r="E251" t="n">
-        <v>703.2</v>
+        <v>345317.2</v>
       </c>
       <c r="F251" t="n">
-        <v>663.8</v>
+        <v>8604.700000000001</v>
       </c>
       <c r="G251" t="n">
-        <v>757</v>
+        <v>37788.3</v>
       </c>
       <c r="H251" t="n">
-        <v>3822.9</v>
+        <v>1612</v>
       </c>
       <c r="I251" t="n">
-        <v>3743.2</v>
+        <v>2448.9</v>
       </c>
       <c r="J251" t="n">
-        <v>4300</v>
+        <v>2623.1</v>
       </c>
       <c r="K251" t="n">
-        <v>4220.3</v>
+        <v>15687</v>
       </c>
       <c r="L251" t="n">
-        <v>4049.6</v>
+        <v>11837</v>
       </c>
       <c r="M251" t="n">
-        <v>4189.5</v>
+        <v>428.8</v>
       </c>
       <c r="N251" t="n">
-        <v>4454.2</v>
+        <v>72211.89999999999</v>
       </c>
       <c r="O251" t="n">
-        <v>4671.1</v>
+        <v>2725.9</v>
       </c>
     </row>
     <row r="252">
@@ -9504,43 +9479,47 @@
           <t>2009-Q3</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr"/>
+      <c r="B252" t="n">
+        <v>11321.7</v>
+      </c>
+      <c r="C252" t="n">
+        <v>245728.1</v>
+      </c>
       <c r="D252" t="n">
-        <v>720.8</v>
+        <v>245728.1</v>
       </c>
       <c r="E252" t="n">
-        <v>702.2</v>
+        <v>344364.3</v>
       </c>
       <c r="F252" t="n">
-        <v>778.7</v>
+        <v>8710.9</v>
       </c>
       <c r="G252" t="n">
-        <v>757.8</v>
+        <v>36183.8</v>
       </c>
       <c r="H252" t="n">
-        <v>3760.2</v>
+        <v>-3220.6</v>
       </c>
       <c r="I252" t="n">
-        <v>3780.7</v>
+        <v>1862.8</v>
       </c>
       <c r="J252" t="n">
-        <v>4270.4</v>
+        <v>1850.7</v>
       </c>
       <c r="K252" t="n">
-        <v>4289.7</v>
+        <v>18092.8</v>
       </c>
       <c r="L252" t="n">
-        <v>4350.1</v>
+        <v>21508.2</v>
       </c>
       <c r="M252" t="n">
-        <v>4230.8</v>
+        <v>449.7</v>
       </c>
       <c r="N252" t="n">
-        <v>4830.2</v>
+        <v>72182.89999999999</v>
       </c>
       <c r="O252" t="n">
-        <v>4687.5</v>
+        <v>-160.6</v>
       </c>
     </row>
     <row r="253">
@@ -9549,43 +9528,47 @@
           <t>2009-Q4</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr"/>
+      <c r="B253" t="n">
+        <v>11190.4</v>
+      </c>
+      <c r="C253" t="n">
+        <v>240879.9</v>
+      </c>
       <c r="D253" t="n">
-        <v>750.9</v>
+        <v>240879.9</v>
       </c>
       <c r="E253" t="n">
-        <v>690.9</v>
+        <v>339303.7</v>
       </c>
       <c r="F253" t="n">
-        <v>812.2</v>
+        <v>8456.1</v>
       </c>
       <c r="G253" t="n">
-        <v>747.6</v>
+        <v>37855.6</v>
       </c>
       <c r="H253" t="n">
-        <v>3772.2</v>
+        <v>7973.3</v>
       </c>
       <c r="I253" t="n">
-        <v>3712.3</v>
+        <v>1728.1</v>
       </c>
       <c r="J253" t="n">
-        <v>4282.8</v>
+        <v>1652.3</v>
       </c>
       <c r="K253" t="n">
-        <v>4170.9</v>
+        <v>24582.7</v>
       </c>
       <c r="L253" t="n">
-        <v>4253.6</v>
+        <v>13825.1</v>
       </c>
       <c r="M253" t="n">
-        <v>4319</v>
+        <v>459.3</v>
       </c>
       <c r="N253" t="n">
-        <v>4856.3</v>
+        <v>69244.89999999999</v>
       </c>
       <c r="O253" t="n">
-        <v>4704.1</v>
+        <v>13794.9</v>
       </c>
     </row>
     <row r="254">
@@ -9594,43 +9577,47 @@
           <t>2010-Q1</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr"/>
+      <c r="B254" t="n">
+        <v>10995.2</v>
+      </c>
+      <c r="C254" t="n">
+        <v>243107.1</v>
+      </c>
       <c r="D254" t="n">
-        <v>691.5</v>
+        <v>243107.1</v>
       </c>
       <c r="E254" t="n">
-        <v>693</v>
+        <v>339300.2</v>
       </c>
       <c r="F254" t="n">
-        <v>752.4</v>
+        <v>8030</v>
       </c>
       <c r="G254" t="n">
-        <v>750.8</v>
+        <v>27344.9</v>
       </c>
       <c r="H254" t="n">
-        <v>3645.8</v>
+        <v>2943.6</v>
       </c>
       <c r="I254" t="n">
-        <v>3764.1</v>
+        <v>1859.4</v>
       </c>
       <c r="J254" t="n">
-        <v>4097.3</v>
+        <v>1825.6</v>
       </c>
       <c r="K254" t="n">
-        <v>4271.8</v>
+        <v>18299.3</v>
       </c>
       <c r="L254" t="n">
-        <v>4253.4</v>
+        <v>14101.2</v>
       </c>
       <c r="M254" t="n">
-        <v>4298.1</v>
+        <v>471.8</v>
       </c>
       <c r="N254" t="n">
-        <v>4577.9</v>
+        <v>68850.8</v>
       </c>
       <c r="O254" t="n">
-        <v>4688.8</v>
+        <v>-6538</v>
       </c>
     </row>
     <row r="255">
@@ -9639,43 +9626,47 @@
           <t>2010-Q2</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr"/>
+      <c r="B255" t="n">
+        <v>10933.8</v>
+      </c>
+      <c r="C255" t="n">
+        <v>239206.6</v>
+      </c>
       <c r="D255" t="n">
-        <v>623.3</v>
+        <v>239206.6</v>
       </c>
       <c r="E255" t="n">
-        <v>693.4</v>
+        <v>334658.7</v>
       </c>
       <c r="F255" t="n">
-        <v>657.9</v>
+        <v>7449.5</v>
       </c>
       <c r="G255" t="n">
-        <v>743.4</v>
+        <v>34655.6</v>
       </c>
       <c r="H255" t="n">
-        <v>3893.2</v>
+        <v>1269.8</v>
       </c>
       <c r="I255" t="n">
-        <v>3807.3</v>
+        <v>1520.4</v>
       </c>
       <c r="J255" t="n">
-        <v>4376.3</v>
+        <v>1568.6</v>
       </c>
       <c r="K255" t="n">
-        <v>4289.2</v>
+        <v>16762.3</v>
       </c>
       <c r="L255" t="n">
-        <v>4150.7</v>
+        <v>14744.5</v>
       </c>
       <c r="M255" t="n">
-        <v>4316.5</v>
+        <v>488</v>
       </c>
       <c r="N255" t="n">
-        <v>4477.9</v>
+        <v>61512.6</v>
       </c>
       <c r="O255" t="n">
-        <v>4696.3</v>
+        <v>6919.1</v>
       </c>
     </row>
     <row r="256">
@@ -9684,43 +9675,47 @@
           <t>2010-Q3</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
+      <c r="B256" t="n">
+        <v>10876.7</v>
+      </c>
+      <c r="C256" t="n">
+        <v>243582.7</v>
+      </c>
       <c r="D256" t="n">
-        <v>699.8</v>
+        <v>243582.7</v>
       </c>
       <c r="E256" t="n">
-        <v>689.4</v>
+        <v>339888.7</v>
       </c>
       <c r="F256" t="n">
-        <v>754.5</v>
+        <v>8531.1</v>
       </c>
       <c r="G256" t="n">
-        <v>740</v>
+        <v>28892.3</v>
       </c>
       <c r="H256" t="n">
-        <v>3868</v>
+        <v>1822.3</v>
       </c>
       <c r="I256" t="n">
-        <v>3886.4</v>
+        <v>1994.2</v>
       </c>
       <c r="J256" t="n">
-        <v>4293.9</v>
+        <v>2175.6</v>
       </c>
       <c r="K256" t="n">
-        <v>4310.5</v>
+        <v>17482.3</v>
       </c>
       <c r="L256" t="n">
-        <v>4425.8</v>
+        <v>14211.2</v>
       </c>
       <c r="M256" t="n">
-        <v>4290.4</v>
+        <v>520.8</v>
       </c>
       <c r="N256" t="n">
-        <v>4830.7</v>
+        <v>70345.5</v>
       </c>
       <c r="O256" t="n">
-        <v>4693.9</v>
+        <v>-6648.1</v>
       </c>
     </row>
     <row r="257">
@@ -9729,43 +9724,47 @@
           <t>2010-Q4</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr"/>
+      <c r="B257" t="n">
+        <v>10923.5</v>
+      </c>
+      <c r="C257" t="n">
+        <v>246810.7</v>
+      </c>
       <c r="D257" t="n">
-        <v>749.5</v>
+        <v>246810.7</v>
       </c>
       <c r="E257" t="n">
-        <v>688.3</v>
+        <v>343316.2</v>
       </c>
       <c r="F257" t="n">
-        <v>803.2</v>
+        <v>8595.700000000001</v>
       </c>
       <c r="G257" t="n">
-        <v>733.8</v>
+        <v>25425.2</v>
       </c>
       <c r="H257" t="n">
-        <v>3950.9</v>
+        <v>4856.9</v>
       </c>
       <c r="I257" t="n">
-        <v>3900.1</v>
+        <v>2310.1</v>
       </c>
       <c r="J257" t="n">
-        <v>4378</v>
+        <v>2527.9</v>
       </c>
       <c r="K257" t="n">
-        <v>4274</v>
+        <v>25319.6</v>
       </c>
       <c r="L257" t="n">
-        <v>4425.1</v>
+        <v>18564.2</v>
       </c>
       <c r="M257" t="n">
-        <v>4349.9</v>
+        <v>544.4</v>
       </c>
       <c r="N257" t="n">
-        <v>4893.9</v>
+        <v>63985.1</v>
       </c>
       <c r="O257" t="n">
-        <v>4701.3</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="258">
@@ -9774,43 +9773,47 @@
           <t>2011-Q1</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr"/>
-      <c r="C258" t="inlineStr"/>
+      <c r="B258" t="n">
+        <v>10952.6</v>
+      </c>
+      <c r="C258" t="n">
+        <v>245086.7</v>
+      </c>
       <c r="D258" t="n">
-        <v>676.4</v>
+        <v>245086.7</v>
       </c>
       <c r="E258" t="n">
-        <v>679.4</v>
+        <v>341789.8</v>
       </c>
       <c r="F258" t="n">
-        <v>716</v>
+        <v>13630.5</v>
       </c>
       <c r="G258" t="n">
-        <v>719.1</v>
+        <v>24693.2</v>
       </c>
       <c r="H258" t="n">
-        <v>3767.7</v>
+        <v>894.9</v>
       </c>
       <c r="I258" t="n">
-        <v>3872.7</v>
+        <v>2352.8</v>
       </c>
       <c r="J258" t="n">
-        <v>3985.2</v>
+        <v>2547.2</v>
       </c>
       <c r="K258" t="n">
-        <v>4145.6</v>
+        <v>18128.9</v>
       </c>
       <c r="L258" t="n">
-        <v>4330.6</v>
+        <v>15562.3</v>
       </c>
       <c r="M258" t="n">
-        <v>4358.3</v>
+        <v>460.8</v>
       </c>
       <c r="N258" t="n">
-        <v>4579</v>
+        <v>75249.10000000001</v>
       </c>
       <c r="O258" t="n">
-        <v>4665.4</v>
+        <v>-9426</v>
       </c>
     </row>
     <row r="259">
@@ -9819,43 +9822,47 @@
           <t>2011-Q2</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
+      <c r="B259" t="n">
+        <v>10907.1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>249085.9</v>
+      </c>
       <c r="D259" t="n">
-        <v>623.7</v>
+        <v>249085.9</v>
       </c>
       <c r="E259" t="n">
-        <v>681.1</v>
+        <v>345361.3</v>
       </c>
       <c r="F259" t="n">
-        <v>650.3</v>
+        <v>13346.6</v>
       </c>
       <c r="G259" t="n">
-        <v>716.5</v>
+        <v>23575.4</v>
       </c>
       <c r="H259" t="n">
-        <v>4022.4</v>
+        <v>5415</v>
       </c>
       <c r="I259" t="n">
-        <v>3912.8</v>
+        <v>2291.4</v>
       </c>
       <c r="J259" t="n">
-        <v>4223.9</v>
+        <v>2330.5</v>
       </c>
       <c r="K259" t="n">
-        <v>4125.7</v>
+        <v>22079.3</v>
       </c>
       <c r="L259" t="n">
-        <v>4219.6</v>
+        <v>14731.1</v>
       </c>
       <c r="M259" t="n">
-        <v>4375.4</v>
+        <v>528.4</v>
       </c>
       <c r="N259" t="n">
-        <v>4447.4</v>
+        <v>69363.39999999999</v>
       </c>
       <c r="O259" t="n">
-        <v>4633.5</v>
+        <v>1611.4</v>
       </c>
     </row>
     <row r="260">
@@ -9864,43 +9871,47 @@
           <t>2011-Q3</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr"/>
-      <c r="C260" t="inlineStr"/>
+      <c r="B260" t="n">
+        <v>10886.7</v>
+      </c>
+      <c r="C260" t="n">
+        <v>249605.9</v>
+      </c>
       <c r="D260" t="n">
-        <v>684.9</v>
+        <v>249605.9</v>
       </c>
       <c r="E260" t="n">
-        <v>680.8</v>
+        <v>345710.9</v>
       </c>
       <c r="F260" t="n">
-        <v>715.6</v>
+        <v>13757.2</v>
       </c>
       <c r="G260" t="n">
-        <v>710.1</v>
+        <v>23707.2</v>
       </c>
       <c r="H260" t="n">
-        <v>3906.7</v>
+        <v>2956.5</v>
       </c>
       <c r="I260" t="n">
-        <v>3941.2</v>
+        <v>2420.7</v>
       </c>
       <c r="J260" t="n">
-        <v>4114.2</v>
+        <v>2573.2</v>
       </c>
       <c r="K260" t="n">
-        <v>4137.5</v>
+        <v>20935.2</v>
       </c>
       <c r="L260" t="n">
-        <v>4529.6</v>
+        <v>16120.3</v>
       </c>
       <c r="M260" t="n">
-        <v>4419.5</v>
+        <v>514.7</v>
       </c>
       <c r="N260" t="n">
-        <v>4756.7</v>
+        <v>76190.8</v>
       </c>
       <c r="O260" t="n">
-        <v>4615</v>
+        <v>-3763.9</v>
       </c>
     </row>
     <row r="261">
@@ -9909,43 +9920,47 @@
           <t>2011-Q4</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr"/>
-      <c r="C261" t="inlineStr"/>
+      <c r="B261" t="n">
+        <v>10800.2</v>
+      </c>
+      <c r="C261" t="n">
+        <v>250730.3</v>
+      </c>
       <c r="D261" t="n">
-        <v>741.9</v>
+        <v>250730.3</v>
       </c>
       <c r="E261" t="n">
-        <v>685.6</v>
+        <v>346395.4</v>
       </c>
       <c r="F261" t="n">
-        <v>775.8</v>
+        <v>14389.9</v>
       </c>
       <c r="G261" t="n">
-        <v>712.1</v>
+        <v>23694.4</v>
       </c>
       <c r="H261" t="n">
-        <v>4076.2</v>
+        <v>11847.6</v>
       </c>
       <c r="I261" t="n">
-        <v>4046.2</v>
+        <v>2548.9</v>
       </c>
       <c r="J261" t="n">
-        <v>4295.4</v>
+        <v>2738.4</v>
       </c>
       <c r="K261" t="n">
-        <v>4209.9</v>
+        <v>39837.1</v>
       </c>
       <c r="L261" t="n">
-        <v>4496.8</v>
+        <v>25700.3</v>
       </c>
       <c r="M261" t="n">
-        <v>4423.3</v>
+        <v>434.9</v>
       </c>
       <c r="N261" t="n">
-        <v>4707.1</v>
+        <v>79168.60000000001</v>
       </c>
       <c r="O261" t="n">
-        <v>4576.2</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="262">
@@ -9954,43 +9969,47 @@
           <t>2012-Q1</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="inlineStr"/>
+      <c r="B262" t="n">
+        <v>10689.9</v>
+      </c>
+      <c r="C262" t="n">
+        <v>251395.5</v>
+      </c>
       <c r="D262" t="n">
-        <v>698.4</v>
+        <v>251395.5</v>
       </c>
       <c r="E262" t="n">
-        <v>697.2</v>
+        <v>345530.3</v>
       </c>
       <c r="F262" t="n">
-        <v>716.3</v>
+        <v>8763.799999999999</v>
       </c>
       <c r="G262" t="n">
-        <v>719.8</v>
+        <v>19889.6</v>
       </c>
       <c r="H262" t="n">
-        <v>4083.6</v>
+        <v>17887.3</v>
       </c>
       <c r="I262" t="n">
-        <v>4176</v>
+        <v>2762.1</v>
       </c>
       <c r="J262" t="n">
-        <v>4116.6</v>
+        <v>2759.4</v>
       </c>
       <c r="K262" t="n">
-        <v>4260.9</v>
+        <v>43137.9</v>
       </c>
       <c r="L262" t="n">
-        <v>4439.1</v>
+        <v>22091.9</v>
       </c>
       <c r="M262" t="n">
-        <v>4434.5</v>
+        <v>386.5</v>
       </c>
       <c r="N262" t="n">
-        <v>4498.7</v>
+        <v>87921.8</v>
       </c>
       <c r="O262" t="n">
-        <v>4568.6</v>
+        <v>-4503.6</v>
       </c>
     </row>
     <row r="263">
@@ -9999,43 +10018,47 @@
           <t>2012-Q2</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr"/>
-      <c r="C263" t="inlineStr"/>
+      <c r="B263" t="n">
+        <v>10663.5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>254314.1</v>
+      </c>
       <c r="D263" t="n">
-        <v>641.6</v>
+        <v>254314.1</v>
       </c>
       <c r="E263" t="n">
-        <v>698.8</v>
+        <v>348993</v>
       </c>
       <c r="F263" t="n">
-        <v>659</v>
+        <v>8146.3</v>
       </c>
       <c r="G263" t="n">
-        <v>719.7</v>
+        <v>19900.2</v>
       </c>
       <c r="H263" t="n">
-        <v>4316.5</v>
+        <v>19117</v>
       </c>
       <c r="I263" t="n">
-        <v>4176.7</v>
+        <v>2405.7</v>
       </c>
       <c r="J263" t="n">
-        <v>4355.9</v>
+        <v>2333.9</v>
       </c>
       <c r="K263" t="n">
-        <v>4231.1</v>
+        <v>41963.8</v>
       </c>
       <c r="L263" t="n">
-        <v>4342.5</v>
+        <v>19846.7</v>
       </c>
       <c r="M263" t="n">
-        <v>4478.3</v>
+        <v>443.7</v>
       </c>
       <c r="N263" t="n">
-        <v>4406.2</v>
+        <v>72884.89999999999</v>
       </c>
       <c r="O263" t="n">
-        <v>4547.7</v>
+        <v>10498.4</v>
       </c>
     </row>
     <row r="264">
@@ -10044,43 +10067,47 @@
           <t>2012-Q3</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
-      <c r="C264" t="inlineStr"/>
+      <c r="B264" t="n">
+        <v>10704.8</v>
+      </c>
+      <c r="C264" t="n">
+        <v>253414.4</v>
+      </c>
       <c r="D264" t="n">
-        <v>700</v>
+        <v>253414.4</v>
       </c>
       <c r="E264" t="n">
-        <v>699.2</v>
+        <v>348913.2</v>
       </c>
       <c r="F264" t="n">
-        <v>720.2</v>
+        <v>8997.9</v>
       </c>
       <c r="G264" t="n">
-        <v>717.2</v>
+        <v>21702.1</v>
       </c>
       <c r="H264" t="n">
-        <v>4163.9</v>
+        <v>6054.8</v>
       </c>
       <c r="I264" t="n">
-        <v>4209.9</v>
+        <v>2796.7</v>
       </c>
       <c r="J264" t="n">
-        <v>4220.9</v>
+        <v>2944.2</v>
       </c>
       <c r="K264" t="n">
-        <v>4253.8</v>
+        <v>26849.1</v>
       </c>
       <c r="L264" t="n">
-        <v>4576</v>
+        <v>18418.8</v>
       </c>
       <c r="M264" t="n">
-        <v>4478.2</v>
+        <v>443.9</v>
       </c>
       <c r="N264" t="n">
-        <v>4633.6</v>
+        <v>80035.60000000001</v>
       </c>
       <c r="O264" t="n">
-        <v>4516.9</v>
+        <v>-7919.8</v>
       </c>
     </row>
     <row r="265">
@@ -10089,43 +10116,47 @@
           <t>2012-Q4</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="inlineStr"/>
+      <c r="B265" t="n">
+        <v>10715.4</v>
+      </c>
+      <c r="C265" t="n">
+        <v>254817.1</v>
+      </c>
       <c r="D265" t="n">
-        <v>752.8</v>
+        <v>254817.1</v>
       </c>
       <c r="E265" t="n">
-        <v>697.7</v>
+        <v>350321.2</v>
       </c>
       <c r="F265" t="n">
-        <v>774</v>
+        <v>8498</v>
       </c>
       <c r="G265" t="n">
-        <v>712.9</v>
+        <v>23623.4</v>
       </c>
       <c r="H265" t="n">
-        <v>4195.7</v>
+        <v>7875.3</v>
       </c>
       <c r="I265" t="n">
-        <v>4197.1</v>
+        <v>2643.8</v>
       </c>
       <c r="J265" t="n">
-        <v>4261.4</v>
+        <v>2572.1</v>
       </c>
       <c r="K265" t="n">
-        <v>4209</v>
+        <v>28256.6</v>
       </c>
       <c r="L265" t="n">
-        <v>4535.3</v>
+        <v>18169.8</v>
       </c>
       <c r="M265" t="n">
-        <v>4501.9</v>
+        <v>376.9</v>
       </c>
       <c r="N265" t="n">
-        <v>4615.8</v>
+        <v>72904.60000000001</v>
       </c>
       <c r="O265" t="n">
-        <v>4521.1</v>
+        <v>3262.7</v>
       </c>
     </row>
     <row r="266">
@@ -10135,44 +10166,46 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>19184634.6</v>
-      </c>
-      <c r="C266" t="inlineStr"/>
+        <v>10751</v>
+      </c>
+      <c r="C266" t="n">
+        <v>255287</v>
+      </c>
       <c r="D266" t="n">
-        <v>686.2</v>
+        <v>255287</v>
       </c>
       <c r="E266" t="n">
-        <v>689.4</v>
+        <v>351357.5</v>
       </c>
       <c r="F266" t="n">
-        <v>693.2</v>
+        <v>9397.4</v>
       </c>
       <c r="G266" t="n">
-        <v>701.5</v>
+        <v>23947.4</v>
       </c>
       <c r="H266" t="n">
-        <v>4063.9</v>
+        <v>6467.9</v>
       </c>
       <c r="I266" t="n">
-        <v>4162.4</v>
+        <v>2911</v>
       </c>
       <c r="J266" t="n">
-        <v>4012.4</v>
+        <v>2835.4</v>
       </c>
       <c r="K266" t="n">
-        <v>4141.7</v>
+        <v>29501.3</v>
       </c>
       <c r="L266" t="n">
-        <v>4465.8</v>
+        <v>20257.2</v>
       </c>
       <c r="M266" t="n">
-        <v>4501.4</v>
+        <v>359.1</v>
       </c>
       <c r="N266" t="n">
-        <v>4426.9</v>
+        <v>78455.89999999999</v>
       </c>
       <c r="O266" t="n">
-        <v>4513.6</v>
+        <v>-2519</v>
       </c>
     </row>
     <row r="267">
@@ -10182,44 +10215,46 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>19489573</v>
-      </c>
-      <c r="C267" t="inlineStr"/>
+        <v>10780.7</v>
+      </c>
+      <c r="C267" t="n">
+        <v>254493.4</v>
+      </c>
       <c r="D267" t="n">
-        <v>634.9</v>
+        <v>254493.4</v>
       </c>
       <c r="E267" t="n">
-        <v>688.1</v>
+        <v>350605.1</v>
       </c>
       <c r="F267" t="n">
-        <v>645.1</v>
+        <v>9441.200000000001</v>
       </c>
       <c r="G267" t="n">
-        <v>699.9</v>
+        <v>32668.9</v>
       </c>
       <c r="H267" t="n">
-        <v>4354.1</v>
+        <v>13503.4</v>
       </c>
       <c r="I267" t="n">
-        <v>4185.7</v>
+        <v>2749.1</v>
       </c>
       <c r="J267" t="n">
-        <v>4312.4</v>
+        <v>2857.8</v>
       </c>
       <c r="K267" t="n">
-        <v>4159.5</v>
+        <v>37693.1</v>
       </c>
       <c r="L267" t="n">
-        <v>4397.3</v>
+        <v>21299.6</v>
       </c>
       <c r="M267" t="n">
-        <v>4510.2</v>
+        <v>419.1</v>
       </c>
       <c r="N267" t="n">
-        <v>4407.5</v>
+        <v>82948.2</v>
       </c>
       <c r="O267" t="n">
-        <v>4535.2</v>
+        <v>10899.9</v>
       </c>
     </row>
     <row r="268">
@@ -10229,44 +10264,46 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>19689478.6</v>
-      </c>
-      <c r="C268" t="inlineStr"/>
+        <v>10749.3</v>
+      </c>
+      <c r="C268" t="n">
+        <v>257094.1</v>
+      </c>
       <c r="D268" t="n">
-        <v>690.3</v>
+        <v>257094.1</v>
       </c>
       <c r="E268" t="n">
-        <v>686.7</v>
+        <v>352777.1</v>
       </c>
       <c r="F268" t="n">
-        <v>702.6</v>
+        <v>8934.799999999999</v>
       </c>
       <c r="G268" t="n">
-        <v>697.1</v>
+        <v>20097.1</v>
       </c>
       <c r="H268" t="n">
-        <v>4134.1</v>
+        <v>3667.4</v>
       </c>
       <c r="I268" t="n">
-        <v>4183.3</v>
+        <v>2567.7</v>
       </c>
       <c r="J268" t="n">
-        <v>4089.9</v>
+        <v>2556.4</v>
       </c>
       <c r="K268" t="n">
-        <v>4133.1</v>
+        <v>25999.5</v>
       </c>
       <c r="L268" t="n">
-        <v>4655.6</v>
+        <v>19874.8</v>
       </c>
       <c r="M268" t="n">
-        <v>4525.3</v>
+        <v>418.4</v>
       </c>
       <c r="N268" t="n">
-        <v>4703.8</v>
+        <v>74499.8</v>
       </c>
       <c r="O268" t="n">
-        <v>4556</v>
+        <v>-2094.4</v>
       </c>
     </row>
     <row r="269">
@@ -10276,44 +10313,46 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>20185050.7</v>
-      </c>
-      <c r="C269" t="inlineStr"/>
+        <v>10798.2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>258030.1</v>
+      </c>
       <c r="D269" t="n">
-        <v>738.7</v>
+        <v>258030.1</v>
       </c>
       <c r="E269" t="n">
-        <v>685.8</v>
+        <v>353372.2</v>
       </c>
       <c r="F269" t="n">
-        <v>752.3</v>
+        <v>9045.1</v>
       </c>
       <c r="G269" t="n">
-        <v>694.8</v>
+        <v>24274.8</v>
       </c>
       <c r="H269" t="n">
-        <v>4130.6</v>
+        <v>8682.200000000001</v>
       </c>
       <c r="I269" t="n">
-        <v>4151.3</v>
+        <v>2642.3</v>
       </c>
       <c r="J269" t="n">
-        <v>4143.3</v>
+        <v>2550.2</v>
       </c>
       <c r="K269" t="n">
-        <v>4123.8</v>
+        <v>31966.8</v>
       </c>
       <c r="L269" t="n">
-        <v>4578.7</v>
+        <v>20770.1</v>
       </c>
       <c r="M269" t="n">
-        <v>4560.6</v>
+        <v>355.1</v>
       </c>
       <c r="N269" t="n">
-        <v>4627.7</v>
+        <v>79317.39999999999</v>
       </c>
       <c r="O269" t="n">
-        <v>4561.1</v>
+        <v>5916.9</v>
       </c>
     </row>
     <row r="270">
@@ -10323,46 +10362,46 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>20491324.3</v>
+        <v>10859.5</v>
       </c>
       <c r="C270" t="n">
-        <v>24613959.6</v>
+        <v>259630.9</v>
       </c>
       <c r="D270" t="n">
-        <v>690.7</v>
+        <v>259630.9</v>
       </c>
       <c r="E270" t="n">
-        <v>690.3</v>
+        <v>355735.3</v>
       </c>
       <c r="F270" t="n">
-        <v>697.6</v>
+        <v>9704.200000000001</v>
       </c>
       <c r="G270" t="n">
-        <v>698.7</v>
+        <v>28360.5</v>
       </c>
       <c r="H270" t="n">
-        <v>4149.7</v>
+        <v>10984.3</v>
       </c>
       <c r="I270" t="n">
-        <v>4255.8</v>
+        <v>3496.2</v>
       </c>
       <c r="J270" t="n">
-        <v>4116.3</v>
+        <v>3457.5</v>
       </c>
       <c r="K270" t="n">
-        <v>4235.8</v>
+        <v>36266.3</v>
       </c>
       <c r="L270" t="n">
-        <v>4512.7</v>
+        <v>21852.2</v>
       </c>
       <c r="M270" t="n">
-        <v>4538</v>
+        <v>385.1</v>
       </c>
       <c r="N270" t="n">
-        <v>4516.7</v>
+        <v>83411.39999999999</v>
       </c>
       <c r="O270" t="n">
-        <v>4578.6</v>
+        <v>6144.6</v>
       </c>
     </row>
     <row r="271">
@@ -10372,46 +10411,46 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>20859427.2</v>
+        <v>10888.9</v>
       </c>
       <c r="C271" t="n">
-        <v>24693626.6</v>
+        <v>262191</v>
       </c>
       <c r="D271" t="n">
-        <v>639.2</v>
+        <v>262191</v>
       </c>
       <c r="E271" t="n">
-        <v>693.1</v>
+        <v>358061.3</v>
       </c>
       <c r="F271" t="n">
-        <v>642.7</v>
+        <v>10244.1</v>
       </c>
       <c r="G271" t="n">
-        <v>697.9</v>
+        <v>27516.7</v>
       </c>
       <c r="H271" t="n">
-        <v>4437.6</v>
+        <v>5692.1</v>
       </c>
       <c r="I271" t="n">
-        <v>4251</v>
+        <v>3798.5</v>
       </c>
       <c r="J271" t="n">
-        <v>4419.7</v>
+        <v>3869.4</v>
       </c>
       <c r="K271" t="n">
-        <v>4243.3</v>
+        <v>31177.8</v>
       </c>
       <c r="L271" t="n">
-        <v>4434.2</v>
+        <v>21657.2</v>
       </c>
       <c r="M271" t="n">
-        <v>4562</v>
+        <v>447.7</v>
       </c>
       <c r="N271" t="n">
-        <v>4456.3</v>
+        <v>86019.10000000001</v>
       </c>
       <c r="O271" t="n">
-        <v>4582.3</v>
+        <v>956.3</v>
       </c>
     </row>
     <row r="272">
@@ -10421,46 +10460,46 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>21189629.3</v>
+        <v>10955.5</v>
       </c>
       <c r="C272" t="n">
-        <v>24770786.9</v>
+        <v>265744.5</v>
       </c>
       <c r="D272" t="n">
-        <v>696.8</v>
+        <v>265744.5</v>
       </c>
       <c r="E272" t="n">
-        <v>696</v>
+        <v>361842.9</v>
       </c>
       <c r="F272" t="n">
-        <v>700</v>
+        <v>9936.4</v>
       </c>
       <c r="G272" t="n">
-        <v>698.7</v>
+        <v>29896.7</v>
       </c>
       <c r="H272" t="n">
-        <v>4186.7</v>
+        <v>19673.8</v>
       </c>
       <c r="I272" t="n">
-        <v>4249.1</v>
+        <v>3580</v>
       </c>
       <c r="J272" t="n">
-        <v>4177.9</v>
+        <v>3739.4</v>
       </c>
       <c r="K272" t="n">
-        <v>4235</v>
+        <v>45799.2</v>
       </c>
       <c r="L272" t="n">
-        <v>4726.3</v>
+        <v>22382.1</v>
       </c>
       <c r="M272" t="n">
-        <v>4599.5</v>
+        <v>446.8</v>
       </c>
       <c r="N272" t="n">
-        <v>4745.4</v>
+        <v>103171.6</v>
       </c>
       <c r="O272" t="n">
-        <v>4597.9</v>
+        <v>-102.4</v>
       </c>
     </row>
     <row r="273">
@@ -10470,46 +10509,46 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>21922010</v>
+        <v>10948.8</v>
       </c>
       <c r="C273" t="n">
-        <v>24989122.9</v>
+        <v>267717.8</v>
       </c>
       <c r="D273" t="n">
-        <v>753.3</v>
+        <v>267717.8</v>
       </c>
       <c r="E273" t="n">
-        <v>700.5</v>
+        <v>363622.9</v>
       </c>
       <c r="F273" t="n">
-        <v>756.8</v>
+        <v>10093.4</v>
       </c>
       <c r="G273" t="n">
-        <v>701.7</v>
+        <v>30070.2</v>
       </c>
       <c r="H273" t="n">
-        <v>4263.6</v>
+        <v>10646</v>
       </c>
       <c r="I273" t="n">
-        <v>4281.7</v>
+        <v>3819.8</v>
       </c>
       <c r="J273" t="n">
-        <v>4243.5</v>
+        <v>3821.6</v>
       </c>
       <c r="K273" t="n">
-        <v>4243.3</v>
+        <v>36828.6</v>
       </c>
       <c r="L273" t="n">
-        <v>4663.8</v>
+        <v>22388.4</v>
       </c>
       <c r="M273" t="n">
-        <v>4637.5</v>
+        <v>380.3</v>
       </c>
       <c r="N273" t="n">
-        <v>4667.6</v>
+        <v>97990.10000000001</v>
       </c>
       <c r="O273" t="n">
-        <v>4627.1</v>
+        <v>-2234.7</v>
       </c>
     </row>
     <row r="274">
@@ -10519,46 +10558,46 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>22491078.5</v>
+        <v>10976.4</v>
       </c>
       <c r="C274" t="n">
-        <v>25159738.1</v>
+        <v>270209.3</v>
       </c>
       <c r="D274" t="n">
-        <v>704.8</v>
+        <v>270209.3</v>
       </c>
       <c r="E274" t="n">
-        <v>707.3</v>
+        <v>366008.1</v>
       </c>
       <c r="F274" t="n">
-        <v>702</v>
+        <v>11481.3</v>
       </c>
       <c r="G274" t="n">
-        <v>707.5</v>
+        <v>31475.7</v>
       </c>
       <c r="H274" t="n">
-        <v>4141</v>
+        <v>26065.9</v>
       </c>
       <c r="I274" t="n">
-        <v>4269.5</v>
+        <v>3078.5</v>
       </c>
       <c r="J274" t="n">
-        <v>4156.9</v>
+        <v>2993.9</v>
       </c>
       <c r="K274" t="n">
-        <v>4278.1</v>
+        <v>50678.2</v>
       </c>
       <c r="L274" t="n">
-        <v>4616.5</v>
+        <v>21593.7</v>
       </c>
       <c r="M274" t="n">
-        <v>4673.3</v>
+        <v>399.7</v>
       </c>
       <c r="N274" t="n">
-        <v>4598.6</v>
+        <v>112563.8</v>
       </c>
       <c r="O274" t="n">
-        <v>4658.9</v>
+        <v>-6771.6</v>
       </c>
     </row>
     <row r="275">
@@ -10568,46 +10607,46 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>22811499.3</v>
+        <v>11005.1</v>
       </c>
       <c r="C275" t="n">
-        <v>25307470.3</v>
+        <v>273174.9</v>
       </c>
       <c r="D275" t="n">
-        <v>652.7</v>
+        <v>273174.9</v>
       </c>
       <c r="E275" t="n">
-        <v>711.1</v>
+        <v>369210.9</v>
       </c>
       <c r="F275" t="n">
-        <v>652.7</v>
+        <v>12059.1</v>
       </c>
       <c r="G275" t="n">
-        <v>711.9</v>
+        <v>33924.4</v>
       </c>
       <c r="H275" t="n">
-        <v>4510.4</v>
+        <v>21242.1</v>
       </c>
       <c r="I275" t="n">
-        <v>4308.1</v>
+        <v>3427</v>
       </c>
       <c r="J275" t="n">
-        <v>4488.5</v>
+        <v>3321.7</v>
       </c>
       <c r="K275" t="n">
-        <v>4295.4</v>
+        <v>48293.8</v>
       </c>
       <c r="L275" t="n">
-        <v>4585.6</v>
+        <v>23727.4</v>
       </c>
       <c r="M275" t="n">
-        <v>4696.5</v>
+        <v>468.4</v>
       </c>
       <c r="N275" t="n">
-        <v>4586.3</v>
+        <v>105974.3</v>
       </c>
       <c r="O275" t="n">
-        <v>4696.8</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="276">
@@ -10617,46 +10656,46 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>23262105.1</v>
+        <v>11006.4</v>
       </c>
       <c r="C276" t="n">
-        <v>25512959.3</v>
+        <v>277737.7</v>
       </c>
       <c r="D276" t="n">
-        <v>717.8</v>
+        <v>277737.7</v>
       </c>
       <c r="E276" t="n">
-        <v>718</v>
+        <v>373660.9</v>
       </c>
       <c r="F276" t="n">
-        <v>719.3</v>
+        <v>11689.4</v>
       </c>
       <c r="G276" t="n">
-        <v>718</v>
+        <v>34793.8</v>
       </c>
       <c r="H276" t="n">
-        <v>4287</v>
+        <v>14887.3</v>
       </c>
       <c r="I276" t="n">
-        <v>4353.2</v>
+        <v>3124.7</v>
       </c>
       <c r="J276" t="n">
-        <v>4283</v>
+        <v>3225.9</v>
       </c>
       <c r="K276" t="n">
-        <v>4347.6</v>
+        <v>45115.9</v>
       </c>
       <c r="L276" t="n">
-        <v>4899.7</v>
+        <v>27031.5</v>
       </c>
       <c r="M276" t="n">
-        <v>4746.9</v>
+        <v>452</v>
       </c>
       <c r="N276" t="n">
-        <v>4906.7</v>
+        <v>113757</v>
       </c>
       <c r="O276" t="n">
-        <v>4750.5</v>
+        <v>-3542.6</v>
       </c>
     </row>
     <row r="277">
@@ -10666,46 +10705,46 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>23906395.5</v>
+        <v>11130.1</v>
       </c>
       <c r="C277" t="n">
-        <v>25720139.5</v>
+        <v>282876.6</v>
       </c>
       <c r="D277" t="n">
-        <v>782.8</v>
+        <v>282876.6</v>
       </c>
       <c r="E277" t="n">
-        <v>721.8</v>
+        <v>380278.1</v>
       </c>
       <c r="F277" t="n">
-        <v>784</v>
+        <v>13016.9</v>
       </c>
       <c r="G277" t="n">
-        <v>720.7</v>
+        <v>37331.6</v>
       </c>
       <c r="H277" t="n">
-        <v>4365.8</v>
+        <v>24328</v>
       </c>
       <c r="I277" t="n">
-        <v>4373.5</v>
+        <v>3882.6</v>
       </c>
       <c r="J277" t="n">
-        <v>4375.8</v>
+        <v>3971.3</v>
       </c>
       <c r="K277" t="n">
-        <v>4383.1</v>
+        <v>56111.4</v>
       </c>
       <c r="L277" t="n">
-        <v>4785.6</v>
+        <v>27810.8</v>
       </c>
       <c r="M277" t="n">
-        <v>4770.7</v>
+        <v>384.5</v>
       </c>
       <c r="N277" t="n">
-        <v>4795.8</v>
+        <v>116093.2</v>
       </c>
       <c r="O277" t="n">
-        <v>4781.2</v>
+        <v>6625.1</v>
       </c>
     </row>
     <row r="278">
@@ -10715,46 +10754,46 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>24458606.4</v>
+        <v>11130.1</v>
       </c>
       <c r="C278" t="n">
-        <v>26035237.4</v>
+        <v>289006.6</v>
       </c>
       <c r="D278" t="n">
-        <v>718.9</v>
+        <v>289006.6</v>
       </c>
       <c r="E278" t="n">
-        <v>723.1</v>
+        <v>385472.7</v>
       </c>
       <c r="F278" t="n">
-        <v>714.1</v>
+        <v>12621.6</v>
       </c>
       <c r="G278" t="n">
-        <v>720.4</v>
+        <v>38486.4</v>
       </c>
       <c r="H278" t="n">
-        <v>4226.3</v>
+        <v>28429.6</v>
       </c>
       <c r="I278" t="n">
-        <v>4363.1</v>
+        <v>3218.8</v>
       </c>
       <c r="J278" t="n">
-        <v>4313.6</v>
+        <v>3326.8</v>
       </c>
       <c r="K278" t="n">
-        <v>4443</v>
+        <v>62788.6</v>
       </c>
       <c r="L278" t="n">
-        <v>4808.4</v>
+        <v>31032.2</v>
       </c>
       <c r="M278" t="n">
-        <v>4862.7</v>
+        <v>339.8</v>
       </c>
       <c r="N278" t="n">
-        <v>4771</v>
+        <v>130584.9</v>
       </c>
       <c r="O278" t="n">
-        <v>4832.7</v>
+        <v>-5464.1</v>
       </c>
     </row>
     <row r="279">
@@ -10764,46 +10803,46 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>24530632</v>
+        <v>11195.4</v>
       </c>
       <c r="C279" t="n">
-        <v>25980926.1</v>
+        <v>293300.3</v>
       </c>
       <c r="D279" t="n">
-        <v>673.8</v>
+        <v>293300.3</v>
       </c>
       <c r="E279" t="n">
-        <v>728.4</v>
+        <v>390003.4</v>
       </c>
       <c r="F279" t="n">
-        <v>667.8</v>
+        <v>12474.5</v>
       </c>
       <c r="G279" t="n">
-        <v>723.4</v>
+        <v>40480.3</v>
       </c>
       <c r="H279" t="n">
-        <v>4660</v>
+        <v>29079.2</v>
       </c>
       <c r="I279" t="n">
-        <v>4437</v>
+        <v>3254.3</v>
       </c>
       <c r="J279" t="n">
-        <v>4737.7</v>
+        <v>3347.4</v>
       </c>
       <c r="K279" t="n">
-        <v>4520.9</v>
+        <v>64399.3</v>
       </c>
       <c r="L279" t="n">
-        <v>4835.2</v>
+        <v>31972.7</v>
       </c>
       <c r="M279" t="n">
-        <v>4911.3</v>
+        <v>388.6</v>
       </c>
       <c r="N279" t="n">
-        <v>4803.3</v>
+        <v>128010.4</v>
       </c>
       <c r="O279" t="n">
-        <v>4895.5</v>
+        <v>9227.1</v>
       </c>
     </row>
     <row r="280">
@@ -10813,46 +10852,46 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>25148928.9</v>
+        <v>11312.9</v>
       </c>
       <c r="C280" t="n">
-        <v>26092439</v>
+        <v>294566.5</v>
       </c>
       <c r="D280" t="n">
-        <v>733.8</v>
+        <v>294566.5</v>
       </c>
       <c r="E280" t="n">
-        <v>737.9</v>
+        <v>392456.9</v>
       </c>
       <c r="F280" t="n">
-        <v>729.7</v>
+        <v>12811.4</v>
       </c>
       <c r="G280" t="n">
-        <v>732.1</v>
+        <v>42758.3</v>
       </c>
       <c r="H280" t="n">
-        <v>4366.8</v>
+        <v>16812.6</v>
       </c>
       <c r="I280" t="n">
-        <v>4444.1</v>
+        <v>3387.9</v>
       </c>
       <c r="J280" t="n">
-        <v>4449.4</v>
+        <v>3663</v>
       </c>
       <c r="K280" t="n">
-        <v>4525</v>
+        <v>50724.3</v>
       </c>
       <c r="L280" t="n">
-        <v>5093.6</v>
+        <v>30248.7</v>
       </c>
       <c r="M280" t="n">
-        <v>4978</v>
+        <v>388.7</v>
       </c>
       <c r="N280" t="n">
-        <v>5052.4</v>
+        <v>133752.8</v>
       </c>
       <c r="O280" t="n">
-        <v>4924.3</v>
+        <v>-6990.2</v>
       </c>
     </row>
     <row r="281">
@@ -10862,46 +10901,46 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>25288858.6</v>
+        <v>11343.7</v>
       </c>
       <c r="C281" t="n">
-        <v>26160722.9</v>
+        <v>303572.1</v>
       </c>
       <c r="D281" t="n">
-        <v>815.8</v>
+        <v>303572.1</v>
       </c>
       <c r="E281" t="n">
-        <v>753.1</v>
+        <v>401503.8</v>
       </c>
       <c r="F281" t="n">
-        <v>810</v>
+        <v>15137.4</v>
       </c>
       <c r="G281" t="n">
-        <v>745.7</v>
+        <v>44013.9</v>
       </c>
       <c r="H281" t="n">
-        <v>4516.1</v>
+        <v>20047.9</v>
       </c>
       <c r="I281" t="n">
-        <v>4525</v>
+        <v>4564.5</v>
       </c>
       <c r="J281" t="n">
-        <v>4550.3</v>
+        <v>5302</v>
       </c>
       <c r="K281" t="n">
-        <v>4562.1</v>
+        <v>54623.3</v>
       </c>
       <c r="L281" t="n">
-        <v>5075.1</v>
+        <v>29273.4</v>
       </c>
       <c r="M281" t="n">
-        <v>5060.3</v>
+        <v>333.8</v>
       </c>
       <c r="N281" t="n">
-        <v>5013.6</v>
+        <v>138014.1</v>
       </c>
       <c r="O281" t="n">
-        <v>4987.7</v>
+        <v>3227.2</v>
       </c>
     </row>
     <row r="282">
@@ -10911,46 +10950,46 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>25626419.1</v>
+        <v>11495.5</v>
       </c>
       <c r="C282" t="n">
-        <v>26181265.5</v>
+        <v>310024.6</v>
       </c>
       <c r="D282" t="n">
-        <v>763.4</v>
+        <v>310024.6</v>
       </c>
       <c r="E282" t="n">
-        <v>768.7</v>
+        <v>408954</v>
       </c>
       <c r="F282" t="n">
-        <v>753.3</v>
+        <v>12794.5</v>
       </c>
       <c r="G282" t="n">
-        <v>760.5</v>
+        <v>50627.2</v>
       </c>
       <c r="H282" t="n">
-        <v>4444.7</v>
+        <v>18329.4</v>
       </c>
       <c r="I282" t="n">
-        <v>4576</v>
+        <v>3140.5</v>
       </c>
       <c r="J282" t="n">
-        <v>4487.4</v>
+        <v>3622.5</v>
       </c>
       <c r="K282" t="n">
-        <v>4627.7</v>
+        <v>53488.5</v>
       </c>
       <c r="L282" t="n">
-        <v>5113.1</v>
+        <v>31479.7</v>
       </c>
       <c r="M282" t="n">
-        <v>5140.6</v>
+        <v>363.2</v>
       </c>
       <c r="N282" t="n">
-        <v>4993.1</v>
+        <v>139329.4</v>
       </c>
       <c r="O282" t="n">
-        <v>5033.3</v>
+        <v>-8057.8</v>
       </c>
     </row>
     <row r="283">
@@ -10960,46 +10999,46 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>25839755.5</v>
+        <v>11612.9</v>
       </c>
       <c r="C283" t="n">
-        <v>26407958</v>
+        <v>317886.4</v>
       </c>
       <c r="D283" t="n">
-        <v>736.9</v>
+        <v>317886.4</v>
       </c>
       <c r="E283" t="n">
-        <v>786.2</v>
+        <v>417670.8</v>
       </c>
       <c r="F283" t="n">
-        <v>727</v>
+        <v>13704.7</v>
       </c>
       <c r="G283" t="n">
-        <v>776.9</v>
+        <v>48220.8</v>
       </c>
       <c r="H283" t="n">
-        <v>4921.1</v>
+        <v>32197.4</v>
       </c>
       <c r="I283" t="n">
-        <v>4687.2</v>
+        <v>3547.2</v>
       </c>
       <c r="J283" t="n">
-        <v>4970.2</v>
+        <v>4246.3</v>
       </c>
       <c r="K283" t="n">
-        <v>4745.2</v>
+        <v>70095.5</v>
       </c>
       <c r="L283" t="n">
-        <v>5084.9</v>
+        <v>33697</v>
       </c>
       <c r="M283" t="n">
-        <v>5178.1</v>
+        <v>360.7</v>
       </c>
       <c r="N283" t="n">
-        <v>4952.5</v>
+        <v>139611.4</v>
       </c>
       <c r="O283" t="n">
-        <v>5071.3</v>
+        <v>16439.3</v>
       </c>
     </row>
     <row r="284">
@@ -11009,46 +11048,46 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>26328189.1</v>
+        <v>11692.5</v>
       </c>
       <c r="C284" t="n">
-        <v>26665491.3</v>
+        <v>322221.2</v>
       </c>
       <c r="D284" t="n">
-        <v>794.2</v>
+        <v>322221.2</v>
       </c>
       <c r="E284" t="n">
-        <v>799</v>
+        <v>422200.5</v>
       </c>
       <c r="F284" t="n">
-        <v>783</v>
+        <v>14230.1</v>
       </c>
       <c r="G284" t="n">
-        <v>787.1</v>
+        <v>49425.3</v>
       </c>
       <c r="H284" t="n">
-        <v>4670.7</v>
+        <v>21472.2</v>
       </c>
       <c r="I284" t="n">
-        <v>4756.8</v>
+        <v>4029.6</v>
       </c>
       <c r="J284" t="n">
-        <v>4667.8</v>
+        <v>4600.4</v>
       </c>
       <c r="K284" t="n">
-        <v>4751</v>
+        <v>60390.4</v>
       </c>
       <c r="L284" t="n">
-        <v>5419.1</v>
+        <v>34287.9</v>
       </c>
       <c r="M284" t="n">
-        <v>5272.1</v>
+        <v>415.6</v>
       </c>
       <c r="N284" t="n">
-        <v>5284.7</v>
+        <v>160195.9</v>
       </c>
       <c r="O284" t="n">
-        <v>5134.6</v>
+        <v>-5436.6</v>
       </c>
     </row>
     <row r="285">
@@ -11058,46 +11097,46 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>26767003.9</v>
+        <v>11806.7</v>
       </c>
       <c r="C285" t="n">
-        <v>26917578.3</v>
+        <v>326519.8</v>
       </c>
       <c r="D285" t="n">
-        <v>872.8</v>
+        <v>326519.8</v>
       </c>
       <c r="E285" t="n">
-        <v>813.4</v>
+        <v>427308.3</v>
       </c>
       <c r="F285" t="n">
-        <v>859.7</v>
+        <v>13157.2</v>
       </c>
       <c r="G285" t="n">
-        <v>798.4</v>
+        <v>47236.2</v>
       </c>
       <c r="H285" t="n">
-        <v>4808</v>
+        <v>19478.6</v>
       </c>
       <c r="I285" t="n">
-        <v>4824.5</v>
+        <v>3708.7</v>
       </c>
       <c r="J285" t="n">
-        <v>4759.6</v>
+        <v>3965.4</v>
       </c>
       <c r="K285" t="n">
-        <v>4761.1</v>
+        <v>56647.9</v>
       </c>
       <c r="L285" t="n">
-        <v>5321</v>
+        <v>33150</v>
       </c>
       <c r="M285" t="n">
-        <v>5347.4</v>
+        <v>407.7</v>
       </c>
       <c r="N285" t="n">
-        <v>5195.5</v>
+        <v>142003.3</v>
       </c>
       <c r="O285" t="n">
-        <v>5186.4</v>
+        <v>6868.2</v>
       </c>
     </row>
     <row r="286">
@@ -11107,46 +11146,46 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>27325294.7</v>
+        <v>11890.3</v>
       </c>
       <c r="C286" t="n">
-        <v>27152490</v>
+        <v>329701.2</v>
       </c>
       <c r="D286" t="n">
-        <v>819.2</v>
+        <v>329701.2</v>
       </c>
       <c r="E286" t="n">
-        <v>831.1</v>
+        <v>432233.1</v>
       </c>
       <c r="F286" t="n">
-        <v>798.7</v>
+        <v>13597.2</v>
       </c>
       <c r="G286" t="n">
-        <v>812.6</v>
+        <v>49837.6</v>
       </c>
       <c r="H286" t="n">
-        <v>4789.7</v>
+        <v>26323.5</v>
       </c>
       <c r="I286" t="n">
-        <v>4904.4</v>
+        <v>4825</v>
       </c>
       <c r="J286" t="n">
-        <v>4678.5</v>
+        <v>5198</v>
       </c>
       <c r="K286" t="n">
-        <v>4821.4</v>
+        <v>63113</v>
       </c>
       <c r="L286" t="n">
-        <v>5424.4</v>
+        <v>31734.9</v>
       </c>
       <c r="M286" t="n">
-        <v>5461.2</v>
+        <v>356.4</v>
       </c>
       <c r="N286" t="n">
-        <v>5201.7</v>
+        <v>156807.1</v>
       </c>
       <c r="O286" t="n">
-        <v>5261.1</v>
+        <v>-6609.2</v>
       </c>
     </row>
     <row r="287">
@@ -11156,46 +11195,46 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>27390074.9</v>
+        <v>11930.7</v>
       </c>
       <c r="C287" t="n">
-        <v>27472328.9</v>
+        <v>335159.9</v>
       </c>
       <c r="D287" t="n">
-        <v>793.8</v>
+        <v>335159.9</v>
       </c>
       <c r="E287" t="n">
-        <v>848</v>
+        <v>438664.2</v>
       </c>
       <c r="F287" t="n">
-        <v>770.3</v>
+        <v>14745.3</v>
       </c>
       <c r="G287" t="n">
-        <v>824.9</v>
+        <v>51908.5</v>
       </c>
       <c r="H287" t="n">
-        <v>5191.2</v>
+        <v>30303.1</v>
       </c>
       <c r="I287" t="n">
-        <v>4958.4</v>
+        <v>5698.9</v>
       </c>
       <c r="J287" t="n">
-        <v>5035.2</v>
+        <v>6348.6</v>
       </c>
       <c r="K287" t="n">
-        <v>4824.6</v>
+        <v>68777.8</v>
       </c>
       <c r="L287" t="n">
-        <v>5421.3</v>
+        <v>32403.1</v>
       </c>
       <c r="M287" t="n">
-        <v>5525.7</v>
+        <v>352.3</v>
       </c>
       <c r="N287" t="n">
-        <v>5178.3</v>
+        <v>154454</v>
       </c>
       <c r="O287" t="n">
-        <v>5294.1</v>
+        <v>14278.4</v>
       </c>
     </row>
     <row r="288">
@@ -11205,46 +11244,46 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>27355874</v>
+        <v>12036.3</v>
       </c>
       <c r="C288" t="n">
-        <v>27488367</v>
+        <v>336017</v>
       </c>
       <c r="D288" t="n">
-        <v>862.5</v>
+        <v>336017</v>
       </c>
       <c r="E288" t="n">
-        <v>864.2</v>
+        <v>440851.6</v>
       </c>
       <c r="F288" t="n">
-        <v>836.2</v>
+        <v>13294</v>
       </c>
       <c r="G288" t="n">
-        <v>837.8</v>
+        <v>53188</v>
       </c>
       <c r="H288" t="n">
-        <v>4949.1</v>
+        <v>15137.2</v>
       </c>
       <c r="I288" t="n">
-        <v>5045.4</v>
+        <v>4757.9</v>
       </c>
       <c r="J288" t="n">
-        <v>4806</v>
+        <v>5181.4</v>
       </c>
       <c r="K288" t="n">
-        <v>4894.1</v>
+        <v>48417.5</v>
       </c>
       <c r="L288" t="n">
-        <v>5778.5</v>
+        <v>28016.8</v>
       </c>
       <c r="M288" t="n">
-        <v>5613.9</v>
+        <v>409.3</v>
       </c>
       <c r="N288" t="n">
-        <v>5512.5</v>
+        <v>142516.3</v>
       </c>
       <c r="O288" t="n">
-        <v>5350.6</v>
+        <v>1914.2</v>
       </c>
     </row>
     <row r="289">
@@ -11254,46 +11293,46 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>27890958.2</v>
+        <v>12157.3</v>
       </c>
       <c r="C289" t="n">
-        <v>27849015.9</v>
+        <v>338218.1</v>
       </c>
       <c r="D289" t="n">
-        <v>942.2</v>
+        <v>338218.1</v>
       </c>
       <c r="E289" t="n">
-        <v>874.5</v>
+        <v>444786.6</v>
       </c>
       <c r="F289" t="n">
-        <v>915.7</v>
+        <v>13379</v>
       </c>
       <c r="G289" t="n">
-        <v>845.7</v>
+        <v>50993.2</v>
       </c>
       <c r="H289" t="n">
-        <v>5078.6</v>
+        <v>16066.4</v>
       </c>
       <c r="I289" t="n">
-        <v>5100.3</v>
+        <v>5384.5</v>
       </c>
       <c r="J289" t="n">
-        <v>4984.3</v>
+        <v>5360.6</v>
       </c>
       <c r="K289" t="n">
-        <v>4963.9</v>
+        <v>49413.2</v>
       </c>
       <c r="L289" t="n">
-        <v>5663</v>
+        <v>27938.2</v>
       </c>
       <c r="M289" t="n">
-        <v>5686.4</v>
+        <v>404.8</v>
       </c>
       <c r="N289" t="n">
-        <v>5396.8</v>
+        <v>152775.8</v>
       </c>
       <c r="O289" t="n">
-        <v>5383.5</v>
+        <v>-2202.7</v>
       </c>
     </row>
     <row r="290">
@@ -11303,46 +11342,46 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>28596415.4</v>
+        <v>12286.3</v>
       </c>
       <c r="C290" t="n">
-        <v>28057185</v>
+        <v>338165.1</v>
       </c>
       <c r="D290" t="n">
-        <v>867.6</v>
+        <v>338165.1</v>
       </c>
       <c r="E290" t="n">
-        <v>879.4</v>
+        <v>444734</v>
       </c>
       <c r="F290" t="n">
-        <v>832.9</v>
+        <v>16252.9</v>
       </c>
       <c r="G290" t="n">
-        <v>848.3</v>
+        <v>50273.4</v>
       </c>
       <c r="H290" t="n">
-        <v>5058.4</v>
+        <v>7780.8</v>
       </c>
       <c r="I290" t="n">
-        <v>5148.1</v>
+        <v>5604.2</v>
       </c>
       <c r="J290" t="n">
-        <v>4765.5</v>
+        <v>5375.2</v>
       </c>
       <c r="K290" t="n">
-        <v>4901.9</v>
+        <v>39538.3</v>
       </c>
       <c r="L290" t="n">
-        <v>5645.2</v>
+        <v>26058.4</v>
       </c>
       <c r="M290" t="n">
-        <v>5810.5</v>
+        <v>610.2</v>
       </c>
       <c r="N290" t="n">
-        <v>5269.6</v>
+        <v>135681</v>
       </c>
       <c r="O290" t="n">
-        <v>5444.7</v>
+        <v>1262.1</v>
       </c>
     </row>
     <row r="291">
@@ -11352,46 +11391,46 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>28957651.4</v>
+        <v>12418.3</v>
       </c>
       <c r="C291" t="n">
-        <v>28414485.3</v>
+        <v>341545.5</v>
       </c>
       <c r="D291" t="n">
-        <v>825.3</v>
+        <v>341545.5</v>
       </c>
       <c r="E291" t="n">
-        <v>880.6</v>
+        <v>449835.6</v>
       </c>
       <c r="F291" t="n">
-        <v>793.6</v>
+        <v>13084.8</v>
       </c>
       <c r="G291" t="n">
-        <v>846.8</v>
+        <v>49302.8</v>
       </c>
       <c r="H291" t="n">
-        <v>5474.8</v>
+        <v>19144.5</v>
       </c>
       <c r="I291" t="n">
-        <v>5240.7</v>
+        <v>3514.5</v>
       </c>
       <c r="J291" t="n">
-        <v>5153</v>
+        <v>3329.2</v>
       </c>
       <c r="K291" t="n">
-        <v>4946.5</v>
+        <v>48867.9</v>
       </c>
       <c r="L291" t="n">
-        <v>5807.6</v>
+        <v>26415.7</v>
       </c>
       <c r="M291" t="n">
-        <v>5928.8</v>
+        <v>603.8</v>
       </c>
       <c r="N291" t="n">
-        <v>5418.4</v>
+        <v>153243.1</v>
       </c>
       <c r="O291" t="n">
-        <v>5537.8</v>
+        <v>-2907.8</v>
       </c>
     </row>
     <row r="292">
@@ -11401,46 +11440,46 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>29155454.6</v>
+        <v>12512.9</v>
       </c>
       <c r="C292" t="n">
-        <v>28296546.5</v>
+        <v>342106.9</v>
       </c>
       <c r="D292" t="n">
-        <v>877.2</v>
+        <v>342106.9</v>
       </c>
       <c r="E292" t="n">
-        <v>878</v>
+        <v>451438.4</v>
       </c>
       <c r="F292" t="n">
-        <v>841.9</v>
+        <v>15701.4</v>
       </c>
       <c r="G292" t="n">
-        <v>842.1</v>
+        <v>47286.7</v>
       </c>
       <c r="H292" t="n">
-        <v>5169.9</v>
+        <v>16873.5</v>
       </c>
       <c r="I292" t="n">
-        <v>5283.4</v>
+        <v>5124.6</v>
       </c>
       <c r="J292" t="n">
-        <v>4848.3</v>
+        <v>5024.4</v>
       </c>
       <c r="K292" t="n">
-        <v>4941.3</v>
+        <v>46895.9</v>
       </c>
       <c r="L292" t="n">
-        <v>6123.8</v>
+        <v>25017.9</v>
       </c>
       <c r="M292" t="n">
-        <v>5969.1</v>
+        <v>601.9</v>
       </c>
       <c r="N292" t="n">
-        <v>5690.4</v>
+        <v>147451.4</v>
       </c>
       <c r="O292" t="n">
-        <v>5535.2</v>
+        <v>4666.3</v>
       </c>
     </row>
     <row r="293">
@@ -11450,46 +11489,46 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>28485840.2</v>
+        <v>12574.8</v>
       </c>
       <c r="C293" t="n">
-        <v>26955850.9</v>
+        <v>341537.7</v>
       </c>
       <c r="D293" t="n">
-        <v>946.5</v>
+        <v>341537.7</v>
       </c>
       <c r="E293" t="n">
-        <v>878.5</v>
+        <v>452110.1</v>
       </c>
       <c r="F293" t="n">
-        <v>909.4</v>
+        <v>14206.1</v>
       </c>
       <c r="G293" t="n">
-        <v>840.7</v>
+        <v>48040.8</v>
       </c>
       <c r="H293" t="n">
-        <v>5333.7</v>
+        <v>19395.9</v>
       </c>
       <c r="I293" t="n">
-        <v>5364.6</v>
+        <v>4204.2</v>
       </c>
       <c r="J293" t="n">
-        <v>5028</v>
+        <v>4010.3</v>
       </c>
       <c r="K293" t="n">
-        <v>5005.1</v>
+        <v>46065.5</v>
       </c>
       <c r="L293" t="n">
-        <v>6125.9</v>
+        <v>22806.7</v>
       </c>
       <c r="M293" t="n">
-        <v>5994</v>
+        <v>598.1</v>
       </c>
       <c r="N293" t="n">
-        <v>5678.1</v>
+        <v>143126.5</v>
       </c>
       <c r="O293" t="n">
-        <v>5538.8</v>
+        <v>631.7</v>
       </c>
     </row>
     <row r="294">
@@ -11499,46 +11538,46 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>29374256.5</v>
+        <v>12710.9</v>
       </c>
       <c r="C294" t="n">
-        <v>27720371.2</v>
+        <v>339306.4</v>
       </c>
       <c r="D294" t="n">
-        <v>820</v>
+        <v>339306.4</v>
       </c>
       <c r="E294" t="n">
-        <v>842.6</v>
+        <v>452845</v>
       </c>
       <c r="F294" t="n">
-        <v>776.6</v>
+        <v>13981</v>
       </c>
       <c r="G294" t="n">
-        <v>806.9</v>
+        <v>41434.8</v>
       </c>
       <c r="H294" t="n">
-        <v>5423.5</v>
+        <v>14209.9</v>
       </c>
       <c r="I294" t="n">
-        <v>5488.8</v>
+        <v>4177.9</v>
       </c>
       <c r="J294" t="n">
-        <v>4957.7</v>
+        <v>3647.2</v>
       </c>
       <c r="K294" t="n">
-        <v>5085.6</v>
+        <v>41409.9</v>
       </c>
       <c r="L294" t="n">
-        <v>5870.2</v>
+        <v>23495.4</v>
       </c>
       <c r="M294" t="n">
-        <v>6051</v>
+        <v>597.7</v>
       </c>
       <c r="N294" t="n">
-        <v>5302.2</v>
+        <v>132977.3</v>
       </c>
       <c r="O294" t="n">
-        <v>5441</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="295">
@@ -11548,46 +11587,46 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>25815016.7</v>
+        <v>12968</v>
       </c>
       <c r="C295" t="n">
-        <v>23760055.7</v>
+        <v>312524.5</v>
       </c>
       <c r="D295" t="n">
-        <v>732.8</v>
+        <v>312524.5</v>
       </c>
       <c r="E295" t="n">
-        <v>792.6</v>
+        <v>427819.5</v>
       </c>
       <c r="F295" t="n">
-        <v>700.2</v>
+        <v>14669.9</v>
       </c>
       <c r="G295" t="n">
-        <v>756.2</v>
+        <v>42387.5</v>
       </c>
       <c r="H295" t="n">
-        <v>5729.7</v>
+        <v>11082</v>
       </c>
       <c r="I295" t="n">
-        <v>5508.4</v>
+        <v>5040.7</v>
       </c>
       <c r="J295" t="n">
-        <v>5277.2</v>
+        <v>4132.4</v>
       </c>
       <c r="K295" t="n">
-        <v>5074.2</v>
+        <v>37112.6</v>
       </c>
       <c r="L295" t="n">
-        <v>5198.9</v>
+        <v>21789.8</v>
       </c>
       <c r="M295" t="n">
-        <v>5422.4</v>
+        <v>589.1</v>
       </c>
       <c r="N295" t="n">
-        <v>4736.2</v>
+        <v>129161.5</v>
       </c>
       <c r="O295" t="n">
-        <v>4910.1</v>
+        <v>9984.5</v>
       </c>
     </row>
     <row r="296">
@@ -11597,46 +11636,46 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>27244703.7</v>
+        <v>13150.9</v>
       </c>
       <c r="C296" t="n">
-        <v>25079906.2</v>
+        <v>335725.6</v>
       </c>
       <c r="D296" t="n">
-        <v>901.2</v>
+        <v>335725.6</v>
       </c>
       <c r="E296" t="n">
-        <v>901.5</v>
+        <v>450706.9</v>
       </c>
       <c r="F296" t="n">
-        <v>860.9</v>
+        <v>13330.7</v>
       </c>
       <c r="G296" t="n">
-        <v>858.5</v>
+        <v>42283.1</v>
       </c>
       <c r="H296" t="n">
-        <v>5439.4</v>
+        <v>7951</v>
       </c>
       <c r="I296" t="n">
-        <v>5567</v>
+        <v>3996.3</v>
       </c>
       <c r="J296" t="n">
-        <v>5075.2</v>
+        <v>3247.6</v>
       </c>
       <c r="K296" t="n">
-        <v>5171.9</v>
+        <v>33869.9</v>
       </c>
       <c r="L296" t="n">
-        <v>6052.9</v>
+        <v>22436.9</v>
       </c>
       <c r="M296" t="n">
-        <v>5825.9</v>
+        <v>583</v>
       </c>
       <c r="N296" t="n">
-        <v>5476.4</v>
+        <v>133449.8</v>
       </c>
       <c r="O296" t="n">
-        <v>5271.8</v>
+        <v>3139.6</v>
       </c>
     </row>
     <row r="297">
@@ -11646,46 +11685,46 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>29861505.7</v>
+        <v>13471.7</v>
       </c>
       <c r="C297" t="n">
-        <v>26914718.7</v>
+        <v>331068.1</v>
       </c>
       <c r="D297" t="n">
-        <v>989.7</v>
+        <v>331068.1</v>
       </c>
       <c r="E297" t="n">
-        <v>906.9</v>
+        <v>447483.8</v>
       </c>
       <c r="F297" t="n">
-        <v>945</v>
+        <v>15506.2</v>
       </c>
       <c r="G297" t="n">
-        <v>861.1</v>
+        <v>43229.3</v>
       </c>
       <c r="H297" t="n">
-        <v>5529.4</v>
+        <v>7135.6</v>
       </c>
       <c r="I297" t="n">
-        <v>5557.8</v>
+        <v>5734.1</v>
       </c>
       <c r="J297" t="n">
-        <v>5169</v>
+        <v>4684.6</v>
       </c>
       <c r="K297" t="n">
-        <v>5147.5</v>
+        <v>37823.4</v>
       </c>
       <c r="L297" t="n">
-        <v>5632.6</v>
+        <v>25687</v>
       </c>
       <c r="M297" t="n">
-        <v>5455.4</v>
+        <v>577.6</v>
       </c>
       <c r="N297" t="n">
-        <v>5093.8</v>
+        <v>132449.7</v>
       </c>
       <c r="O297" t="n">
-        <v>4985.6</v>
+        <v>7606.1</v>
       </c>
     </row>
     <row r="298">
@@ -11695,46 +11734,46 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>31019117.4</v>
+        <v>13663.5</v>
       </c>
       <c r="C298" t="n">
-        <v>28379234.8</v>
+        <v>343965.1</v>
       </c>
       <c r="D298" t="n">
-        <v>718.5</v>
+        <v>343965.1</v>
       </c>
       <c r="E298" t="n">
-        <v>752</v>
+        <v>460274.3</v>
       </c>
       <c r="F298" t="n">
-        <v>675.4</v>
+        <v>16409.7</v>
       </c>
       <c r="G298" t="n">
-        <v>718.8</v>
+        <v>43638.2</v>
       </c>
       <c r="H298" t="n">
-        <v>5450.9</v>
+        <v>7940.9</v>
       </c>
       <c r="I298" t="n">
-        <v>5510.9</v>
+        <v>6068</v>
       </c>
       <c r="J298" t="n">
-        <v>5085.4</v>
+        <v>4770.5</v>
       </c>
       <c r="K298" t="n">
-        <v>5216.2</v>
+        <v>36745.3</v>
       </c>
       <c r="L298" t="n">
-        <v>5196.7</v>
+        <v>23744.4</v>
       </c>
       <c r="M298" t="n">
-        <v>5363.9</v>
+        <v>574.7</v>
       </c>
       <c r="N298" t="n">
-        <v>4564.5</v>
+        <v>133726.3</v>
       </c>
       <c r="O298" t="n">
-        <v>4630.9</v>
+        <v>1176.7</v>
       </c>
     </row>
     <row r="299">
@@ -11744,46 +11783,46 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>31860318.2</v>
+        <v>13846.9</v>
       </c>
       <c r="C299" t="n">
-        <v>28494062.9</v>
+        <v>345500.1</v>
       </c>
       <c r="D299" t="n">
-        <v>844.8</v>
+        <v>345500.1</v>
       </c>
       <c r="E299" t="n">
-        <v>927.3</v>
+        <v>462964.7</v>
       </c>
       <c r="F299" t="n">
-        <v>794.2</v>
+        <v>15198.5</v>
       </c>
       <c r="G299" t="n">
-        <v>867.3</v>
+        <v>45747.8</v>
       </c>
       <c r="H299" t="n">
-        <v>5928.2</v>
+        <v>35261.1</v>
       </c>
       <c r="I299" t="n">
-        <v>5723.3</v>
+        <v>4919.3</v>
       </c>
       <c r="J299" t="n">
-        <v>5450.8</v>
+        <v>3984.1</v>
       </c>
       <c r="K299" t="n">
-        <v>5243.1</v>
+        <v>62461.4</v>
       </c>
       <c r="L299" t="n">
-        <v>5657.6</v>
+        <v>24058.6</v>
       </c>
       <c r="M299" t="n">
-        <v>6016.2</v>
+        <v>579</v>
       </c>
       <c r="N299" t="n">
-        <v>4911.9</v>
+        <v>150963.8</v>
       </c>
       <c r="O299" t="n">
-        <v>5216</v>
+        <v>17147.7</v>
       </c>
     </row>
     <row r="300">
@@ -11793,46 +11832,46 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>33971906.8</v>
+        <v>14116.4</v>
       </c>
       <c r="C300" t="n">
-        <v>30249769.5</v>
+        <v>358094.8</v>
       </c>
       <c r="D300" t="n">
-        <v>942.4</v>
+        <v>358094.8</v>
       </c>
       <c r="E300" t="n">
-        <v>941.6</v>
+        <v>476306.8</v>
       </c>
       <c r="F300" t="n">
-        <v>879</v>
+        <v>16892.5</v>
       </c>
       <c r="G300" t="n">
-        <v>872.5</v>
+        <v>45937.8</v>
       </c>
       <c r="H300" t="n">
-        <v>5691.9</v>
+        <v>15623.1</v>
       </c>
       <c r="I300" t="n">
-        <v>5837.3</v>
+        <v>6428.8</v>
       </c>
       <c r="J300" t="n">
-        <v>5143.8</v>
+        <v>5164.5</v>
       </c>
       <c r="K300" t="n">
-        <v>5250.1</v>
+        <v>47991.9</v>
       </c>
       <c r="L300" t="n">
-        <v>6528.6</v>
+        <v>27147.7</v>
       </c>
       <c r="M300" t="n">
-        <v>6113.7</v>
+        <v>560.2</v>
       </c>
       <c r="N300" t="n">
-        <v>5628.9</v>
+        <v>152684.2</v>
       </c>
       <c r="O300" t="n">
-        <v>5251.2</v>
+        <v>-259.8</v>
       </c>
     </row>
     <row r="301">
@@ -11842,46 +11881,46 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>34616069.8</v>
+        <v>14263.8</v>
       </c>
       <c r="C301" t="n">
-        <v>31082848.5</v>
+        <v>373721.9</v>
       </c>
       <c r="D301" t="n">
-        <v>1073.5</v>
+        <v>373721.9</v>
       </c>
       <c r="E301" t="n">
-        <v>958.3</v>
+        <v>491410.1</v>
       </c>
       <c r="F301" t="n">
-        <v>988.6</v>
+        <v>17688.1</v>
       </c>
       <c r="G301" t="n">
-        <v>878.6</v>
+        <v>47590.1</v>
       </c>
       <c r="H301" t="n">
-        <v>6008.7</v>
+        <v>17788.7</v>
       </c>
       <c r="I301" t="n">
-        <v>6008.2</v>
+        <v>7167.1</v>
       </c>
       <c r="J301" t="n">
-        <v>5356.8</v>
+        <v>5718</v>
       </c>
       <c r="K301" t="n">
-        <v>5327.5</v>
+        <v>52642.2</v>
       </c>
       <c r="L301" t="n">
-        <v>6141.1</v>
+        <v>29114.7</v>
       </c>
       <c r="M301" t="n">
-        <v>6030.2</v>
+        <v>570.5</v>
       </c>
       <c r="N301" t="n">
-        <v>5180</v>
+        <v>153893.6</v>
       </c>
       <c r="O301" t="n">
-        <v>5187.3</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="302">
@@ -11891,46 +11930,46 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>36085284.8</v>
+        <v>14511.8</v>
       </c>
       <c r="C302" t="n">
-        <v>31400150.8</v>
+        <v>378594.8</v>
       </c>
       <c r="D302" t="n">
-        <v>909.7</v>
+        <v>378594.8</v>
       </c>
       <c r="E302" t="n">
-        <v>963.6</v>
+        <v>496602.6</v>
       </c>
       <c r="F302" t="n">
-        <v>810.2</v>
+        <v>16037.8</v>
       </c>
       <c r="G302" t="n">
-        <v>875.3</v>
+        <v>49881.3</v>
       </c>
       <c r="H302" t="n">
-        <v>6337.6</v>
+        <v>26448</v>
       </c>
       <c r="I302" t="n">
-        <v>6407.5</v>
+        <v>6137</v>
       </c>
       <c r="J302" t="n">
-        <v>5192.1</v>
+        <v>4654.2</v>
       </c>
       <c r="K302" t="n">
-        <v>5329.5</v>
+        <v>60277.9</v>
       </c>
       <c r="L302" t="n">
-        <v>6371.6</v>
+        <v>29528.1</v>
       </c>
       <c r="M302" t="n">
-        <v>6614.3</v>
+        <v>612.5</v>
       </c>
       <c r="N302" t="n">
-        <v>5112.7</v>
+        <v>161267.4</v>
       </c>
       <c r="O302" t="n">
-        <v>5181.6</v>
+        <v>-2573.5</v>
       </c>
     </row>
     <row r="303">
@@ -11939,20 +11978,48 @@
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr"/>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="inlineStr"/>
-      <c r="N303" t="inlineStr"/>
-      <c r="O303" t="inlineStr"/>
+      <c r="B303" t="n">
+        <v>14686.3</v>
+      </c>
+      <c r="C303" t="n">
+        <v>394113.8</v>
+      </c>
+      <c r="D303" t="n">
+        <v>394113.8</v>
+      </c>
+      <c r="E303" t="n">
+        <v>511787.8</v>
+      </c>
+      <c r="F303" t="n">
+        <v>14726.3</v>
+      </c>
+      <c r="G303" t="n">
+        <v>52591.9</v>
+      </c>
+      <c r="H303" t="n">
+        <v>16920.7</v>
+      </c>
+      <c r="I303" t="n">
+        <v>4877.3</v>
+      </c>
+      <c r="J303" t="n">
+        <v>3780.5</v>
+      </c>
+      <c r="K303" t="n">
+        <v>50402.4</v>
+      </c>
+      <c r="L303" t="n">
+        <v>29631.9</v>
+      </c>
+      <c r="M303" t="n">
+        <v>601.3</v>
+      </c>
+      <c r="N303" t="n">
+        <v>144576.1</v>
+      </c>
+      <c r="O303" t="n">
+        <v>11361.9</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">

--- a/QNIA/output/QNIA_databaseNEW.xlsx
+++ b/QNIA/output/QNIA_databaseNEW.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DB_A_0001" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DB_Q_0001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DB_Q_0001" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -359,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,825 +372,6 @@
           <t>data001</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>data002</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>data003</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1947</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1949</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1950</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1951</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1952</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1953</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1954</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1956</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>1958</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>1959</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>1961</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>1962</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>1963</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>1964</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>1965</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1967</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1968</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>1969</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
-        <v>120234.9</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
-        <v>124531.2</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
-        <v>124033.1</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
-        <v>116864.2</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
-        <v>118575.7</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>122856.4</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>129109.9</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B50" t="n">
-        <v>85424.39999999999</v>
-      </c>
-      <c r="C50" t="n">
-        <v>134198.9</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="B51" t="n">
-        <v>86676.8</v>
-      </c>
-      <c r="C51" t="n">
-        <v>139106.5</v>
-      </c>
-      <c r="D51" t="n">
-        <v>419766.4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B52" t="n">
-        <v>90600.10000000001</v>
-      </c>
-      <c r="C52" t="n">
-        <v>142216.3</v>
-      </c>
-      <c r="D52" t="n">
-        <v>430404.3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B53" t="n">
-        <v>95206.60000000001</v>
-      </c>
-      <c r="C53" t="n">
-        <v>141973.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>436522.4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B54" t="n">
-        <v>99367.60000000001</v>
-      </c>
-      <c r="C54" t="n">
-        <v>148030.4</v>
-      </c>
-      <c r="D54" t="n">
-        <v>444468.5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B55" t="n">
-        <v>103340.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>148980.4</v>
-      </c>
-      <c r="D55" t="n">
-        <v>461566.1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B56" t="n">
-        <v>106274</v>
-      </c>
-      <c r="C56" t="n">
-        <v>150678.6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>471091.5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B57" t="n">
-        <v>108249.6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>157094.3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>485800.6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B58" t="n">
-        <v>108090.3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>165125.4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>490616.4</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B59" t="n">
-        <v>110413.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>176339.3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>515194.1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B60" t="n">
-        <v>112464.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>182570.6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>534053.5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B61" t="n">
-        <v>114927.5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>185166.3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>557184.6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B62" t="n">
-        <v>118988.3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>194397.3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>589649.1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B63" t="n">
-        <v>121150.9</v>
-      </c>
-      <c r="C63" t="n">
-        <v>194339.6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>618093.8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B64" t="n">
-        <v>120349.6</v>
-      </c>
-      <c r="C64" t="n">
-        <v>187433</v>
-      </c>
-      <c r="D64" t="n">
-        <v>630868.8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B65" t="n">
-        <v>122142.2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>193457.6</v>
-      </c>
-      <c r="D65" t="n">
-        <v>667482.2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B66" t="n">
-        <v>121011.6</v>
-      </c>
-      <c r="C66" t="n">
-        <v>198363.3</v>
-      </c>
-      <c r="D66" t="n">
-        <v>690562.5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B67" t="n">
-        <v>117927.1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>203402.9</v>
-      </c>
-      <c r="D67" t="n">
-        <v>710608.9</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B68" t="n">
-        <v>117705.1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>210385.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>730177.9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B69" t="n">
-        <v>118305</v>
-      </c>
-      <c r="C69" t="n">
-        <v>218172.6</v>
-      </c>
-      <c r="D69" t="n">
-        <v>737373.1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B70" t="n">
-        <v>119855.9</v>
-      </c>
-      <c r="C70" t="n">
-        <v>224828.1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>717215.1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B71" t="n">
-        <v>122096.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>234077.3</v>
-      </c>
-      <c r="D71" t="n">
-        <v>701283.3</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B72" t="n">
-        <v>125849.1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>244975.7</v>
-      </c>
-      <c r="D72" t="n">
-        <v>706652.7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B73" t="n">
-        <v>128768.4</v>
-      </c>
-      <c r="C73" t="n">
-        <v>255127.9</v>
-      </c>
-      <c r="D73" t="n">
-        <v>721401.6</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B74" t="n">
-        <v>132653.9</v>
-      </c>
-      <c r="C74" t="n">
-        <v>262459.7</v>
-      </c>
-      <c r="D74" t="n">
-        <v>733343.6</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B75" t="n">
-        <v>121605.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>258632.9</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B76" t="n">
-        <v>127109.4</v>
-      </c>
-      <c r="C76" t="n">
-        <v>279851.8</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C305"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>data001</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>data002</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1200,7 +380,6 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1209,7 +388,6 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1218,7 +396,6 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1227,7 +404,6 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1236,7 +412,6 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1245,7 +420,6 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1254,7 +428,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1263,7 +436,6 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1272,7 +444,6 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1281,7 +452,6 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1290,7 +460,6 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1299,7 +468,6 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1308,7 +476,6 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1317,7 +484,6 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1326,7 +492,6 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1335,7 +500,6 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1344,7 +508,6 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1353,7 +516,6 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1362,7 +524,6 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1371,7 +532,6 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1380,7 +540,6 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1389,7 +548,6 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1398,7 +556,6 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1407,7 +564,6 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1416,7 +572,6 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1425,7 +580,6 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1434,7 +588,6 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1443,7 +596,6 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1452,7 +604,6 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1461,7 +612,6 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1470,7 +620,6 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1479,7 +628,6 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1488,7 +636,6 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1497,7 +644,6 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1506,7 +652,6 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1515,7 +660,6 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1524,7 +668,6 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1533,7 +676,6 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1542,7 +684,6 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1551,7 +692,6 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1560,7 +700,6 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1569,7 +708,6 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1578,7 +716,6 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1587,7 +724,6 @@
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1596,7 +732,6 @@
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1605,7 +740,6 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1614,7 +748,6 @@
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1623,7 +756,6 @@
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1632,7 +764,6 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1641,7 +772,6 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1650,7 +780,6 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1659,7 +788,6 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1668,7 +796,6 @@
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1677,7 +804,6 @@
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1686,7 +812,6 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1695,7 +820,6 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1704,7 +828,6 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1713,7 +836,6 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1722,7 +844,6 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1731,7 +852,6 @@
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1740,7 +860,6 @@
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1749,7 +868,6 @@
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1758,7 +876,6 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1767,7 +884,6 @@
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1776,7 +892,6 @@
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1785,7 +900,6 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1794,7 +908,6 @@
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1803,7 +916,6 @@
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1812,7 +924,6 @@
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1821,7 +932,6 @@
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1830,7 +940,6 @@
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1839,7 +948,6 @@
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1848,7 +956,6 @@
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1857,7 +964,6 @@
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1866,7 +972,6 @@
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1875,7 +980,6 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1884,7 +988,6 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1893,7 +996,6 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1902,7 +1004,6 @@
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1911,7 +1012,6 @@
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1920,7 +1020,6 @@
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1929,7 +1028,6 @@
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1938,7 +1036,6 @@
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1947,7 +1044,6 @@
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1956,7 +1052,6 @@
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -1965,7 +1060,6 @@
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -1974,7 +1068,6 @@
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -1983,7 +1076,6 @@
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -1992,7 +1084,6 @@
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2001,7 +1092,6 @@
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2010,7 +1100,6 @@
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2019,7 +1108,6 @@
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2028,7 +1116,6 @@
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2037,7 +1124,6 @@
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2046,7 +1132,6 @@
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2055,7 +1140,6 @@
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2064,7 +1148,6 @@
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2073,7 +1156,6 @@
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2082,7 +1164,6 @@
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2091,7 +1172,6 @@
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2100,7 +1180,6 @@
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2109,7 +1188,6 @@
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2118,7 +1196,6 @@
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2127,7 +1204,6 @@
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2136,7 +1212,6 @@
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2145,7 +1220,6 @@
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2154,7 +1228,6 @@
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2163,7 +1236,6 @@
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2172,7 +1244,6 @@
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2181,7 +1252,6 @@
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2190,7 +1260,6 @@
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2199,7 +1268,6 @@
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2208,7 +1276,6 @@
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2217,7 +1284,6 @@
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2226,7 +1292,6 @@
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2235,7 +1300,6 @@
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2244,7 +1308,6 @@
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2253,7 +1316,6 @@
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2262,7 +1324,6 @@
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2271,7 +1332,6 @@
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2280,7 +1340,6 @@
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2289,7 +1348,6 @@
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2298,7 +1356,6 @@
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2307,7 +1364,6 @@
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2316,7 +1372,6 @@
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2325,7 +1380,6 @@
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2334,7 +1388,6 @@
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2343,7 +1396,6 @@
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2352,7 +1404,6 @@
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2361,7 +1412,6 @@
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2370,7 +1420,6 @@
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2379,7 +1428,6 @@
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2388,7 +1436,6 @@
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2397,7 +1444,6 @@
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2406,7 +1452,6 @@
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2415,7 +1460,6 @@
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2424,7 +1468,6 @@
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2433,7 +1476,6 @@
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2442,7 +1484,6 @@
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2451,7 +1492,6 @@
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2460,7 +1500,6 @@
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -2469,7 +1508,6 @@
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -2478,7 +1516,6 @@
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -2487,7 +1524,6 @@
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -2496,7 +1532,6 @@
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -2505,7 +1540,6 @@
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -2514,7 +1548,6 @@
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -2523,7 +1556,6 @@
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -2532,7 +1564,6 @@
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -2541,7 +1572,6 @@
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -2550,7 +1580,6 @@
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -2559,7 +1588,6 @@
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -2568,7 +1596,6 @@
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -2577,7 +1604,6 @@
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -2586,7 +1612,6 @@
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -2595,7 +1620,6 @@
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -2604,7 +1628,6 @@
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -2613,7 +1636,6 @@
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -2622,7 +1644,6 @@
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -2631,7 +1652,6 @@
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -2640,7 +1660,6 @@
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -2649,7 +1668,6 @@
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -2658,7 +1676,6 @@
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -2667,7 +1684,6 @@
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -2676,7 +1692,6 @@
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -2685,7 +1700,6 @@
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -2694,7 +1708,6 @@
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -2703,7 +1716,6 @@
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -2712,9 +1724,6 @@
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
-      <c r="C170" t="n">
-        <v>29524.3</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -2723,9 +1732,6 @@
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="n">
-        <v>31778.4</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -2734,9 +1740,6 @@
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="n">
-        <v>30963.2</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -2745,9 +1748,6 @@
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="n">
-        <v>32265.3</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -2756,9 +1756,6 @@
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="n">
-        <v>29561.7</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -2767,9 +1764,6 @@
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
-      <c r="C175" t="n">
-        <v>30871.4</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -2778,9 +1772,6 @@
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" t="n">
-        <v>31146.5</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -2789,9 +1780,6 @@
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
-      <c r="C177" t="n">
-        <v>32453.5</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -2800,9 +1788,6 @@
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
-      <c r="C178" t="n">
-        <v>28411.9</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -2811,9 +1796,6 @@
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" t="n">
-        <v>29213.5</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -2822,9 +1804,6 @@
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
-        <v>29072.5</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -2833,9 +1812,6 @@
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="n">
-        <v>30166.4</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -2844,9 +1820,6 @@
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="n">
-        <v>28439.2</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -2855,9 +1828,6 @@
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
-        <v>29729.1</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -2866,9 +1836,6 @@
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
-        <v>29369.2</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -2877,9 +1844,6 @@
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
-        <v>31038.2</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -2888,9 +1852,6 @@
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
-        <v>28443.1</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -2899,9 +1860,6 @@
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
-      <c r="C187" t="n">
-        <v>30547.6</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -2910,9 +1868,6 @@
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
-      <c r="C188" t="n">
-        <v>31227.8</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -2921,9 +1876,6 @@
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
-      <c r="C189" t="n">
-        <v>32637.8</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -2932,9 +1884,6 @@
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="n">
-        <v>29858.3</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -2943,9 +1892,6 @@
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="n">
-        <v>32085.4</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -2954,9 +1900,6 @@
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="n">
-        <v>32695.1</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -2965,9 +1908,6 @@
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="n">
-        <v>34471.2</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -2976,9 +1916,6 @@
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="n">
-        <v>31418.1</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -2987,9 +1924,6 @@
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
-      <c r="C195" t="n">
-        <v>33518.6</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -2998,9 +1932,6 @@
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
-      <c r="C196" t="n">
-        <v>33834.6</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -3009,9 +1940,6 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="n">
-        <v>35427.6</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -3019,12 +1947,7 @@
           <t>1996-Q1</t>
         </is>
       </c>
-      <c r="B198" t="n">
-        <v>21123.1</v>
-      </c>
-      <c r="C198" t="n">
-        <v>32681.8</v>
-      </c>
+      <c r="B198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -3032,12 +1955,7 @@
           <t>1996-Q2</t>
         </is>
       </c>
-      <c r="B199" t="n">
-        <v>21504.3</v>
-      </c>
-      <c r="C199" t="n">
-        <v>35060.4</v>
-      </c>
+      <c r="B199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -3045,12 +1963,7 @@
           <t>1996-Q3</t>
         </is>
       </c>
-      <c r="B200" t="n">
-        <v>21923.6</v>
-      </c>
-      <c r="C200" t="n">
-        <v>35071.2</v>
-      </c>
+      <c r="B200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -3058,12 +1971,7 @@
           <t>1996-Q4</t>
         </is>
       </c>
-      <c r="B201" t="n">
-        <v>22125.9</v>
-      </c>
-      <c r="C201" t="n">
-        <v>36293.2</v>
-      </c>
+      <c r="B201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -3071,12 +1979,7 @@
           <t>1997-Q1</t>
         </is>
       </c>
-      <c r="B202" t="n">
-        <v>21867</v>
-      </c>
-      <c r="C202" t="n">
-        <v>33234.3</v>
-      </c>
+      <c r="B202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -3084,12 +1987,7 @@
           <t>1997-Q2</t>
         </is>
       </c>
-      <c r="B203" t="n">
-        <v>22472.6</v>
-      </c>
-      <c r="C203" t="n">
-        <v>36698.9</v>
-      </c>
+      <c r="B203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -3097,12 +1995,7 @@
           <t>1997-Q3</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>22982.3</v>
-      </c>
-      <c r="C204" t="n">
-        <v>35830.1</v>
-      </c>
+      <c r="B204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -3110,12 +2003,7 @@
           <t>1997-Q4</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>23278.1</v>
-      </c>
-      <c r="C205" t="n">
-        <v>36453</v>
-      </c>
+      <c r="B205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -3123,12 +2011,7 @@
           <t>1998-Q1</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>22965.8</v>
-      </c>
-      <c r="C206" t="n">
-        <v>33796.6</v>
-      </c>
+      <c r="B206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -3136,12 +2019,7 @@
           <t>1998-Q2</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>23693.2</v>
-      </c>
-      <c r="C207" t="n">
-        <v>35837.5</v>
-      </c>
+      <c r="B207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -3149,12 +2027,7 @@
           <t>1998-Q3</t>
         </is>
       </c>
-      <c r="B208" t="n">
-        <v>24152.1</v>
-      </c>
-      <c r="C208" t="n">
-        <v>35226.4</v>
-      </c>
+      <c r="B208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -3162,12 +2035,7 @@
           <t>1998-Q4</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>24395.5</v>
-      </c>
-      <c r="C209" t="n">
-        <v>37112.7</v>
-      </c>
+      <c r="B209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -3175,12 +2043,7 @@
           <t>1999-Q1</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>24094.2</v>
-      </c>
-      <c r="C210" t="n">
-        <v>34535.2</v>
-      </c>
+      <c r="B210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -3188,12 +2051,7 @@
           <t>1999-Q2</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>24688.2</v>
-      </c>
-      <c r="C211" t="n">
-        <v>36822.5</v>
-      </c>
+      <c r="B211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -3201,12 +2059,7 @@
           <t>1999-Q3</t>
         </is>
       </c>
-      <c r="B212" t="n">
-        <v>25161</v>
-      </c>
-      <c r="C212" t="n">
-        <v>37214.2</v>
-      </c>
+      <c r="B212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -3214,12 +2067,7 @@
           <t>1999-Q4</t>
         </is>
       </c>
-      <c r="B213" t="n">
-        <v>25424.2</v>
-      </c>
-      <c r="C213" t="n">
-        <v>39458.4</v>
-      </c>
+      <c r="B213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -3227,12 +2075,7 @@
           <t>2000-Q1</t>
         </is>
       </c>
-      <c r="B214" t="n">
-        <v>25266.8</v>
-      </c>
-      <c r="C214" t="n">
-        <v>35580.6</v>
-      </c>
+      <c r="B214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -3240,12 +2083,7 @@
           <t>2000-Q2</t>
         </is>
       </c>
-      <c r="B215" t="n">
-        <v>25656.3</v>
-      </c>
-      <c r="C215" t="n">
-        <v>37176.4</v>
-      </c>
+      <c r="B215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -3253,12 +2091,7 @@
           <t>2000-Q3</t>
         </is>
       </c>
-      <c r="B216" t="n">
-        <v>26062.6</v>
-      </c>
-      <c r="C216" t="n">
-        <v>37736.2</v>
-      </c>
+      <c r="B216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -3266,12 +2099,7 @@
           <t>2000-Q4</t>
         </is>
       </c>
-      <c r="B217" t="n">
-        <v>26354.7</v>
-      </c>
-      <c r="C217" t="n">
-        <v>38487.2</v>
-      </c>
+      <c r="B217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -3279,12 +2107,7 @@
           <t>2001-Q1</t>
         </is>
       </c>
-      <c r="B218" t="n">
-        <v>25918.2</v>
-      </c>
-      <c r="C218" t="n">
-        <v>34610.5</v>
-      </c>
+      <c r="B218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -3292,12 +2115,7 @@
           <t>2001-Q2</t>
         </is>
       </c>
-      <c r="B219" t="n">
-        <v>26508.7</v>
-      </c>
-      <c r="C219" t="n">
-        <v>37892.2</v>
-      </c>
+      <c r="B219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -3305,12 +2123,7 @@
           <t>2001-Q3</t>
         </is>
       </c>
-      <c r="B220" t="n">
-        <v>26753.9</v>
-      </c>
-      <c r="C220" t="n">
-        <v>38189.8</v>
-      </c>
+      <c r="B220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -3318,12 +2131,7 @@
           <t>2001-Q4</t>
         </is>
       </c>
-      <c r="B221" t="n">
-        <v>27093.2</v>
-      </c>
-      <c r="C221" t="n">
-        <v>39986.1</v>
-      </c>
+      <c r="B221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -3331,12 +2139,7 @@
           <t>2002-Q1</t>
         </is>
       </c>
-      <c r="B222" t="n">
-        <v>26645.3</v>
-      </c>
-      <c r="C222" t="n">
-        <v>36653.3</v>
-      </c>
+      <c r="B222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -3344,12 +2147,7 @@
           <t>2002-Q2</t>
         </is>
       </c>
-      <c r="B223" t="n">
-        <v>27090.1</v>
-      </c>
-      <c r="C223" t="n">
-        <v>38835.4</v>
-      </c>
+      <c r="B223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -3357,12 +2155,7 @@
           <t>2002-Q3</t>
         </is>
       </c>
-      <c r="B224" t="n">
-        <v>27312.2</v>
-      </c>
-      <c r="C224" t="n">
-        <v>39881.4</v>
-      </c>
+      <c r="B224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -3370,12 +2163,7 @@
           <t>2002-Q4</t>
         </is>
       </c>
-      <c r="B225" t="n">
-        <v>27202</v>
-      </c>
-      <c r="C225" t="n">
-        <v>41724.1</v>
-      </c>
+      <c r="B225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -3383,12 +2171,7 @@
           <t>2003-Q1</t>
         </is>
       </c>
-      <c r="B226" t="n">
-        <v>26588.4</v>
-      </c>
-      <c r="C226" t="n">
-        <v>38121.9</v>
-      </c>
+      <c r="B226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -3396,12 +2179,7 @@
           <t>2003-Q2</t>
         </is>
       </c>
-      <c r="B227" t="n">
-        <v>26919.6</v>
-      </c>
-      <c r="C227" t="n">
-        <v>40944.9</v>
-      </c>
+      <c r="B227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -3409,12 +2187,7 @@
           <t>2003-Q3</t>
         </is>
       </c>
-      <c r="B228" t="n">
-        <v>27200.4</v>
-      </c>
-      <c r="C228" t="n">
-        <v>41827.1</v>
-      </c>
+      <c r="B228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -3422,12 +2195,7 @@
           <t>2003-Q4</t>
         </is>
       </c>
-      <c r="B229" t="n">
-        <v>27381.9</v>
-      </c>
-      <c r="C229" t="n">
-        <v>44231.5</v>
-      </c>
+      <c r="B229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -3435,12 +2203,7 @@
           <t>2004-Q1</t>
         </is>
       </c>
-      <c r="B230" t="n">
-        <v>26966.7</v>
-      </c>
-      <c r="C230" t="n">
-        <v>41726.5</v>
-      </c>
+      <c r="B230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -3448,12 +2211,7 @@
           <t>2004-Q2</t>
         </is>
       </c>
-      <c r="B231" t="n">
-        <v>27576.7</v>
-      </c>
-      <c r="C231" t="n">
-        <v>43607.2</v>
-      </c>
+      <c r="B231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -3461,12 +2219,7 @@
           <t>2004-Q3</t>
         </is>
       </c>
-      <c r="B232" t="n">
-        <v>27830.3</v>
-      </c>
-      <c r="C232" t="n">
-        <v>44719.1</v>
-      </c>
+      <c r="B232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -3474,12 +2227,7 @@
           <t>2004-Q4</t>
         </is>
       </c>
-      <c r="B233" t="n">
-        <v>28039.9</v>
-      </c>
-      <c r="C233" t="n">
-        <v>46286.4</v>
-      </c>
+      <c r="B233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -3487,12 +2235,7 @@
           <t>2005-Q1</t>
         </is>
       </c>
-      <c r="B234" t="n">
-        <v>27605.7</v>
-      </c>
-      <c r="C234" t="n">
-        <v>42335.2</v>
-      </c>
+      <c r="B234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -3500,12 +2243,7 @@
           <t>2005-Q2</t>
         </is>
       </c>
-      <c r="B235" t="n">
-        <v>28153.9</v>
-      </c>
-      <c r="C235" t="n">
-        <v>45782.5</v>
-      </c>
+      <c r="B235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -3513,12 +2251,7 @@
           <t>2005-Q3</t>
         </is>
       </c>
-      <c r="B236" t="n">
-        <v>28307.1</v>
-      </c>
-      <c r="C236" t="n">
-        <v>46233</v>
-      </c>
+      <c r="B236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -3526,12 +2259,7 @@
           <t>2005-Q4</t>
         </is>
       </c>
-      <c r="B237" t="n">
-        <v>28398.3</v>
-      </c>
-      <c r="C237" t="n">
-        <v>48219.9</v>
-      </c>
+      <c r="B237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -3539,12 +2267,7 @@
           <t>2006-Q1</t>
         </is>
       </c>
-      <c r="B238" t="n">
-        <v>28027.7</v>
-      </c>
-      <c r="C238" t="n">
-        <v>44152.7</v>
-      </c>
+      <c r="B238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -3552,12 +2275,7 @@
           <t>2006-Q2</t>
         </is>
       </c>
-      <c r="B239" t="n">
-        <v>28618.2</v>
-      </c>
-      <c r="C239" t="n">
-        <v>45602.4</v>
-      </c>
+      <c r="B239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -3565,12 +2283,7 @@
           <t>2006-Q3</t>
         </is>
       </c>
-      <c r="B240" t="n">
-        <v>29078</v>
-      </c>
-      <c r="C240" t="n">
-        <v>46654.5</v>
-      </c>
+      <c r="B240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -3578,12 +2291,7 @@
           <t>2006-Q4</t>
         </is>
       </c>
-      <c r="B241" t="n">
-        <v>29203.6</v>
-      </c>
-      <c r="C241" t="n">
-        <v>48756.7</v>
-      </c>
+      <c r="B241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -3591,12 +2299,7 @@
           <t>2007-Q1</t>
         </is>
       </c>
-      <c r="B242" t="n">
-        <v>28883.1</v>
-      </c>
-      <c r="C242" t="n">
-        <v>45833.3</v>
-      </c>
+      <c r="B242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -3604,12 +2307,7 @@
           <t>2007-Q2</t>
         </is>
       </c>
-      <c r="B243" t="n">
-        <v>29641.1</v>
-      </c>
-      <c r="C243" t="n">
-        <v>48282.8</v>
-      </c>
+      <c r="B243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -3617,12 +2315,7 @@
           <t>2007-Q3</t>
         </is>
       </c>
-      <c r="B244" t="n">
-        <v>30088.1</v>
-      </c>
-      <c r="C244" t="n">
-        <v>49075.6</v>
-      </c>
+      <c r="B244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -3630,12 +2323,7 @@
           <t>2007-Q4</t>
         </is>
       </c>
-      <c r="B245" t="n">
-        <v>30376</v>
-      </c>
-      <c r="C245" t="n">
-        <v>51205.6</v>
-      </c>
+      <c r="B245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -3643,12 +2331,7 @@
           <t>2008-Q1</t>
         </is>
       </c>
-      <c r="B246" t="n">
-        <v>29778.4</v>
-      </c>
-      <c r="C246" t="n">
-        <v>47249.7</v>
-      </c>
+      <c r="B246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -3656,12 +2339,7 @@
           <t>2008-Q2</t>
         </is>
       </c>
-      <c r="B247" t="n">
-        <v>30328.2</v>
-      </c>
-      <c r="C247" t="n">
-        <v>48970.9</v>
-      </c>
+      <c r="B247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -3669,12 +2347,7 @@
           <t>2008-Q3</t>
         </is>
       </c>
-      <c r="B248" t="n">
-        <v>30630.8</v>
-      </c>
-      <c r="C248" t="n">
-        <v>48356.4</v>
-      </c>
+      <c r="B248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -3682,12 +2355,7 @@
           <t>2008-Q4</t>
         </is>
       </c>
-      <c r="B249" t="n">
-        <v>30413.5</v>
-      </c>
-      <c r="C249" t="n">
-        <v>49762.7</v>
-      </c>
+      <c r="B249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -3695,12 +2363,7 @@
           <t>2009-Q1</t>
         </is>
       </c>
-      <c r="B250" t="n">
-        <v>29710.1</v>
-      </c>
-      <c r="C250" t="n">
-        <v>44831.7</v>
-      </c>
+      <c r="B250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -3708,12 +2371,7 @@
           <t>2009-Q2</t>
         </is>
       </c>
-      <c r="B251" t="n">
-        <v>30077.6</v>
-      </c>
-      <c r="C251" t="n">
-        <v>46946</v>
-      </c>
+      <c r="B251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -3721,12 +2379,7 @@
           <t>2009-Q3</t>
         </is>
       </c>
-      <c r="B252" t="n">
-        <v>30244.7</v>
-      </c>
-      <c r="C252" t="n">
-        <v>46861.1</v>
-      </c>
+      <c r="B252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -3734,12 +2387,7 @@
           <t>2009-Q4</t>
         </is>
       </c>
-      <c r="B253" t="n">
-        <v>30317.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>48794.2</v>
-      </c>
+      <c r="B253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -3747,12 +2395,7 @@
           <t>2010-Q1</t>
         </is>
       </c>
-      <c r="B254" t="n">
-        <v>29920.8</v>
-      </c>
-      <c r="C254" t="n">
-        <v>46130.5</v>
-      </c>
+      <c r="B254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -3760,12 +2403,7 @@
           <t>2010-Q2</t>
         </is>
       </c>
-      <c r="B255" t="n">
-        <v>30599.9</v>
-      </c>
-      <c r="C255" t="n">
-        <v>48320.6</v>
-      </c>
+      <c r="B255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -3773,12 +2411,7 @@
           <t>2010-Q3</t>
         </is>
       </c>
-      <c r="B256" t="n">
-        <v>30879</v>
-      </c>
-      <c r="C256" t="n">
-        <v>48409</v>
-      </c>
+      <c r="B256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -3786,12 +2419,7 @@
           <t>2010-Q4</t>
         </is>
       </c>
-      <c r="B257" t="n">
-        <v>30742.4</v>
-      </c>
-      <c r="C257" t="n">
-        <v>50597.5</v>
-      </c>
+      <c r="B257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -3799,12 +2427,7 @@
           <t>2011-Q1</t>
         </is>
       </c>
-      <c r="B258" t="n">
-        <v>29945</v>
-      </c>
-      <c r="C258" t="n">
-        <v>47262.1</v>
-      </c>
+      <c r="B258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -3812,12 +2435,7 @@
           <t>2011-Q2</t>
         </is>
       </c>
-      <c r="B259" t="n">
-        <v>30433.9</v>
-      </c>
-      <c r="C259" t="n">
-        <v>49282.4</v>
-      </c>
+      <c r="B259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -3825,12 +2443,7 @@
           <t>2011-Q3</t>
         </is>
       </c>
-      <c r="B260" t="n">
-        <v>30534.1</v>
-      </c>
-      <c r="C260" t="n">
-        <v>49686.7</v>
-      </c>
+      <c r="B260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -3838,12 +2451,7 @@
           <t>2011-Q4</t>
         </is>
       </c>
-      <c r="B261" t="n">
-        <v>30098.7</v>
-      </c>
-      <c r="C261" t="n">
-        <v>52132</v>
-      </c>
+      <c r="B261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -3851,12 +2459,7 @@
           <t>2012-Q1</t>
         </is>
       </c>
-      <c r="B262" t="n">
-        <v>29182.6</v>
-      </c>
-      <c r="C262" t="n">
-        <v>48897.3</v>
-      </c>
+      <c r="B262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -3864,12 +2467,7 @@
           <t>2012-Q2</t>
         </is>
       </c>
-      <c r="B263" t="n">
-        <v>29447.7</v>
-      </c>
-      <c r="C263" t="n">
-        <v>50811.6</v>
-      </c>
+      <c r="B263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -3877,12 +2475,7 @@
           <t>2012-Q3</t>
         </is>
       </c>
-      <c r="B264" t="n">
-        <v>29823.6</v>
-      </c>
-      <c r="C264" t="n">
-        <v>50501.4</v>
-      </c>
+      <c r="B264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -3890,12 +2483,7 @@
           <t>2012-Q4</t>
         </is>
       </c>
-      <c r="B265" t="n">
-        <v>29473.2</v>
-      </c>
-      <c r="C265" t="n">
-        <v>53192.6</v>
-      </c>
+      <c r="B265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -3903,12 +2491,7 @@
           <t>2013-Q1</t>
         </is>
       </c>
-      <c r="B266" t="n">
-        <v>28776.9</v>
-      </c>
-      <c r="C266" t="n">
-        <v>49699.8</v>
-      </c>
+      <c r="B266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -3916,12 +2499,7 @@
           <t>2013-Q2</t>
         </is>
       </c>
-      <c r="B267" t="n">
-        <v>29546.4</v>
-      </c>
-      <c r="C267" t="n">
-        <v>52331.5</v>
-      </c>
+      <c r="B267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -3929,12 +2507,7 @@
           <t>2013-Q3</t>
         </is>
       </c>
-      <c r="B268" t="n">
-        <v>29782.6</v>
-      </c>
-      <c r="C268" t="n">
-        <v>52908.4</v>
-      </c>
+      <c r="B268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -3942,12 +2515,7 @@
           <t>2013-Q4</t>
         </is>
       </c>
-      <c r="B269" t="n">
-        <v>29599.2</v>
-      </c>
-      <c r="C269" t="n">
-        <v>55445.6</v>
-      </c>
+      <c r="B269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -3955,12 +2523,7 @@
           <t>2014-Q1</t>
         </is>
       </c>
-      <c r="B270" t="n">
-        <v>28954.3</v>
-      </c>
-      <c r="C270" t="n">
-        <v>51634.2</v>
-      </c>
+      <c r="B270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -3968,12 +2531,7 @@
           <t>2014-Q2</t>
         </is>
       </c>
-      <c r="B271" t="n">
-        <v>29672.3</v>
-      </c>
-      <c r="C271" t="n">
-        <v>54109.1</v>
-      </c>
+      <c r="B271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -3981,12 +2539,7 @@
           <t>2014-Q3</t>
         </is>
       </c>
-      <c r="B272" t="n">
-        <v>29932.7</v>
-      </c>
-      <c r="C272" t="n">
-        <v>55130.6</v>
-      </c>
+      <c r="B272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -3994,12 +2547,7 @@
           <t>2014-Q4</t>
         </is>
       </c>
-      <c r="B273" t="n">
-        <v>29745.6</v>
-      </c>
-      <c r="C273" t="n">
-        <v>57298.7</v>
-      </c>
+      <c r="B273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -4007,12 +2555,7 @@
           <t>2015-Q1</t>
         </is>
       </c>
-      <c r="B274" t="n">
-        <v>29258.5</v>
-      </c>
-      <c r="C274" t="n">
-        <v>53188.7</v>
-      </c>
+      <c r="B274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -4020,12 +2563,7 @@
           <t>2015-Q2</t>
         </is>
       </c>
-      <c r="B275" t="n">
-        <v>30075.8</v>
-      </c>
-      <c r="C275" t="n">
-        <v>55951.3</v>
-      </c>
+      <c r="B275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -4033,12 +2571,7 @@
           <t>2015-Q3</t>
         </is>
       </c>
-      <c r="B276" t="n">
-        <v>30320.6</v>
-      </c>
-      <c r="C276" t="n">
-        <v>56731.7</v>
-      </c>
+      <c r="B276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -4046,12 +2579,7 @@
           <t>2015-Q4</t>
         </is>
       </c>
-      <c r="B277" t="n">
-        <v>30201</v>
-      </c>
-      <c r="C277" t="n">
-        <v>58956.4</v>
-      </c>
+      <c r="B277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -4059,12 +2587,7 @@
           <t>2016-Q1</t>
         </is>
       </c>
-      <c r="B278" t="n">
-        <v>29721.6</v>
-      </c>
-      <c r="C278" t="n">
-        <v>55082.6</v>
-      </c>
+      <c r="B278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -4072,12 +2595,7 @@
           <t>2016-Q2</t>
         </is>
       </c>
-      <c r="B279" t="n">
-        <v>30434.6</v>
-      </c>
-      <c r="C279" t="n">
-        <v>58241.8</v>
-      </c>
+      <c r="B279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -4085,12 +2603,7 @@
           <t>2016-Q3</t>
         </is>
       </c>
-      <c r="B280" t="n">
-        <v>30930.4</v>
-      </c>
-      <c r="C280" t="n">
-        <v>59212.8</v>
-      </c>
+      <c r="B280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -4098,12 +2611,7 @@
           <t>2016-Q4</t>
         </is>
       </c>
-      <c r="B281" t="n">
-        <v>31009.6</v>
-      </c>
-      <c r="C281" t="n">
-        <v>61540</v>
-      </c>
+      <c r="B281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -4111,12 +2619,7 @@
           <t>2017-Q1</t>
         </is>
       </c>
-      <c r="B282" t="n">
-        <v>30635.2</v>
-      </c>
-      <c r="C282" t="n">
-        <v>57588.9</v>
-      </c>
+      <c r="B282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -4124,12 +2627,7 @@
           <t>2017-Q2</t>
         </is>
       </c>
-      <c r="B283" t="n">
-        <v>31404.2</v>
-      </c>
-      <c r="C283" t="n">
-        <v>60495</v>
-      </c>
+      <c r="B283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -4137,12 +2635,7 @@
           <t>2017-Q3</t>
         </is>
       </c>
-      <c r="B284" t="n">
-        <v>31919.5</v>
-      </c>
-      <c r="C284" t="n">
-        <v>61869.6</v>
-      </c>
+      <c r="B284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -4150,12 +2643,7 @@
           <t>2017-Q4</t>
         </is>
       </c>
-      <c r="B285" t="n">
-        <v>31890.2</v>
-      </c>
-      <c r="C285" t="n">
-        <v>65022.2</v>
-      </c>
+      <c r="B285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -4163,12 +2651,7 @@
           <t>2018-Q1</t>
         </is>
       </c>
-      <c r="B286" t="n">
-        <v>31332.4</v>
-      </c>
-      <c r="C286" t="n">
-        <v>60352.8</v>
-      </c>
+      <c r="B286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -4176,12 +2659,7 @@
           <t>2018-Q2</t>
         </is>
       </c>
-      <c r="B287" t="n">
-        <v>32245.1</v>
-      </c>
-      <c r="C287" t="n">
-        <v>63532.5</v>
-      </c>
+      <c r="B287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -4189,12 +2667,7 @@
           <t>2018-Q3</t>
         </is>
       </c>
-      <c r="B288" t="n">
-        <v>32529.3</v>
-      </c>
-      <c r="C288" t="n">
-        <v>64059.6</v>
-      </c>
+      <c r="B288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -4202,12 +2675,7 @@
           <t>2018-Q4</t>
         </is>
       </c>
-      <c r="B289" t="n">
-        <v>32661.6</v>
-      </c>
-      <c r="C289" t="n">
-        <v>67183.10000000001</v>
-      </c>
+      <c r="B289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -4215,12 +2683,7 @@
           <t>2019-Q1</t>
         </is>
       </c>
-      <c r="B290" t="n">
-        <v>32354.3</v>
-      </c>
-      <c r="C290" t="n">
-        <v>62308.9</v>
-      </c>
+      <c r="B290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -4228,12 +2691,7 @@
           <t>2019-Q2</t>
         </is>
       </c>
-      <c r="B291" t="n">
-        <v>33292.2</v>
-      </c>
-      <c r="C291" t="n">
-        <v>65154.8</v>
-      </c>
+      <c r="B291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -4241,12 +2699,7 @@
           <t>2019-Q3</t>
         </is>
       </c>
-      <c r="B292" t="n">
-        <v>33555.7</v>
-      </c>
-      <c r="C292" t="n">
-        <v>66063.10000000001</v>
-      </c>
+      <c r="B292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -4254,12 +2707,7 @@
           <t>2019-Q4</t>
         </is>
       </c>
-      <c r="B293" t="n">
-        <v>33451.7</v>
-      </c>
-      <c r="C293" t="n">
-        <v>68933</v>
-      </c>
+      <c r="B293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -4267,12 +2715,7 @@
           <t>2020-Q1</t>
         </is>
       </c>
-      <c r="B294" t="n">
-        <v>31636.8</v>
-      </c>
-      <c r="C294" t="n">
-        <v>62987.3</v>
-      </c>
+      <c r="B294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -4280,12 +2723,7 @@
           <t>2020-Q2</t>
         </is>
       </c>
-      <c r="B295" t="n">
-        <v>27600.1</v>
-      </c>
-      <c r="C295" t="n">
-        <v>58622</v>
-      </c>
+      <c r="B295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -4293,12 +2731,7 @@
           <t>2020-Q3</t>
         </is>
       </c>
-      <c r="B296" t="n">
-        <v>31093.8</v>
-      </c>
-      <c r="C296" t="n">
-        <v>66831.8</v>
-      </c>
+      <c r="B296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -4306,12 +2739,7 @@
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="B297" t="n">
-        <v>31274.8</v>
-      </c>
-      <c r="C297" t="n">
-        <v>70191.7</v>
-      </c>
+      <c r="B297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -4319,12 +2747,7 @@
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="B298" t="n">
-        <v>29890.3</v>
-      </c>
-      <c r="C298" t="n">
-        <v>68273.2</v>
-      </c>
+      <c r="B298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -4332,12 +2755,7 @@
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="B299" t="n">
-        <v>31403.9</v>
-      </c>
-      <c r="C299" t="n">
-        <v>70369.10000000001</v>
-      </c>
+      <c r="B299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -4345,12 +2763,7 @@
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="B300" t="n">
-        <v>32669.8</v>
-      </c>
-      <c r="C300" t="n">
-        <v>67000.7</v>
-      </c>
+      <c r="B300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -4358,12 +2771,7 @@
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="B301" t="n">
-        <v>33145.5</v>
-      </c>
-      <c r="C301" t="n">
-        <v>74208.8</v>
-      </c>
+      <c r="B301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -4372,10 +2780,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>33402.6</v>
-      </c>
-      <c r="C302" t="n">
-        <v>70049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -4385,10 +2790,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>34189.4</v>
-      </c>
-      <c r="C303" t="n">
-        <v>70939.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -4397,8 +2799,9 @@
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr"/>
-      <c r="C304" t="inlineStr"/>
+      <c r="B304" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -4407,7 +2810,6 @@
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
-      <c r="C305" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
